--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -78,7 +78,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -187,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -262,7 +262,7 @@
                   <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.75</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35</c:v>
@@ -274,24 +274,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="175111168"/>
-        <c:axId val="133034752"/>
+        <c:axId val="145163392"/>
+        <c:axId val="145164928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175111168"/>
+        <c:axId val="145163392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133034752"/>
+        <c:crossAx val="145164928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133034752"/>
+        <c:axId val="145164928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -299,7 +299,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175111168"/>
+        <c:crossAx val="145163392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -312,7 +312,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1020,8 +1020,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1233,6 +1233,17 @@
           </cell>
           <cell r="C18" t="str">
             <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>2/3/2010</v>
+          </cell>
+          <cell r="B19">
+            <v>2.5</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>CFP Update/Edit</v>
           </cell>
         </row>
       </sheetData>
@@ -2040,7 +2051,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2103,7 +2114,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>11.25</v>
+        <v>13.75</v>
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
@@ -2111,7 +2122,7 @@
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>26.75</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2154,7 +2165,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>109.25</v>
+        <v>111.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -2162,7 +2173,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>207.75</v>
+        <v>210.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2171,7 +2182,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>21.85</v>
+        <v>22.35</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D9" si="2">C7/5</f>
@@ -2179,7 +2190,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>41.55</v>
+        <v>42.05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2188,7 +2199,7 @@
       </c>
       <c r="B9">
         <f>B8/5</f>
-        <v>4.37</v>
+        <v>4.4700000000000006</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -2196,7 +2207,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>8.3099999999999987</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5333,17 +5344,17 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="A19" t="str">
         <f>[3]Sheet1!A19</f>
-        <v>0</v>
+        <v>2/3/2010</v>
       </c>
       <c r="B19">
         <f>[3]Sheet1!B19</f>
-        <v>0</v>
-      </c>
-      <c r="C19">
+        <v>2.5</v>
+      </c>
+      <c r="C19" t="str">
         <f>[3]Sheet1!C19</f>
-        <v>0</v>
+        <v>CFP Update/Edit</v>
       </c>
     </row>
     <row r="20" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Davy</t>
     <phoneticPr fontId="1"/>
@@ -71,14 +71,20 @@
     <t>average/person</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>number of weeks</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -162,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +194,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -256,42 +268,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.5</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.25</c:v>
+                  <c:v>34.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="145163392"/>
-        <c:axId val="145164928"/>
+        <c:axId val="48433408"/>
+        <c:axId val="118430336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145163392"/>
+        <c:axId val="48433408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145164928"/>
+        <c:crossAx val="118430336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145164928"/>
+        <c:axId val="118430336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -299,7 +311,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145163392"/>
+        <c:crossAx val="48433408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -312,7 +324,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -430,8 +442,8 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>1/9/2010</v>
+          <cell r="A7">
+            <v>40187</v>
           </cell>
           <cell r="B7">
             <v>3</v>
@@ -441,8 +453,8 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>1/14/2010</v>
+          <cell r="A8">
+            <v>40192</v>
           </cell>
           <cell r="B8">
             <v>1</v>
@@ -452,8 +464,8 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>1/14/2010</v>
+          <cell r="A9">
+            <v>40192</v>
           </cell>
           <cell r="B9">
             <v>1</v>
@@ -463,8 +475,8 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>1/14/2010</v>
+          <cell r="A10">
+            <v>40192</v>
           </cell>
           <cell r="B10">
             <v>3</v>
@@ -474,8 +486,8 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>1/14/2010</v>
+          <cell r="A11">
+            <v>40192</v>
           </cell>
           <cell r="B11">
             <v>1</v>
@@ -485,8 +497,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12" t="str">
-            <v>1/15/2010</v>
+          <cell r="A12">
+            <v>40193</v>
           </cell>
           <cell r="B12">
             <v>1</v>
@@ -496,8 +508,8 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>1/18/2010</v>
+          <cell r="A13">
+            <v>40196</v>
           </cell>
           <cell r="B13">
             <v>0.5</v>
@@ -507,8 +519,8 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>1/19/2010</v>
+          <cell r="A14">
+            <v>40197</v>
           </cell>
           <cell r="B14">
             <v>1</v>
@@ -518,8 +530,8 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15" t="str">
-            <v>1/19/2010</v>
+          <cell r="A15">
+            <v>40197</v>
           </cell>
           <cell r="B15">
             <v>1</v>
@@ -529,8 +541,8 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16" t="str">
-            <v>1/20/2010</v>
+          <cell r="A16">
+            <v>40198</v>
           </cell>
           <cell r="B16">
             <v>1</v>
@@ -540,8 +552,8 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>1/21/2010</v>
+          <cell r="A17">
+            <v>40199</v>
           </cell>
           <cell r="B17">
             <v>1</v>
@@ -551,8 +563,8 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18" t="str">
-            <v>1/26/2010</v>
+          <cell r="A18">
+            <v>40204</v>
           </cell>
           <cell r="B18">
             <v>2</v>
@@ -562,8 +574,8 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19" t="str">
-            <v>1/26/2010</v>
+          <cell r="A19">
+            <v>40204</v>
           </cell>
           <cell r="B19">
             <v>1</v>
@@ -573,8 +585,8 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20" t="str">
-            <v>1/28/2010</v>
+          <cell r="A20">
+            <v>40206</v>
           </cell>
           <cell r="B20">
             <v>1</v>
@@ -584,8 +596,8 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="A21" t="str">
-            <v>1/29/2010</v>
+          <cell r="A21">
+            <v>40207</v>
           </cell>
           <cell r="B21">
             <v>2</v>
@@ -595,8 +607,8 @@
           </cell>
         </row>
         <row r="22">
-          <cell r="A22" t="str">
-            <v>1/29/2010</v>
+          <cell r="A22">
+            <v>40207</v>
           </cell>
           <cell r="B22">
             <v>1</v>
@@ -606,8 +618,8 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23" t="str">
-            <v>2/1/2010</v>
+          <cell r="A23">
+            <v>40210</v>
           </cell>
           <cell r="B23">
             <v>1</v>
@@ -617,8 +629,8 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24" t="str">
-            <v>2/1/2010</v>
+          <cell r="A24">
+            <v>40210</v>
           </cell>
           <cell r="B24">
             <v>1</v>
@@ -627,9 +639,148 @@
             <v>Client Meeting</v>
           </cell>
         </row>
+        <row r="25">
+          <cell r="A25">
+            <v>40211</v>
+          </cell>
+          <cell r="B25">
+            <v>4</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Solid Modelling</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>40213</v>
+          </cell>
+          <cell r="B26">
+            <v>2</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Design Breakdown</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>40217</v>
+          </cell>
+          <cell r="B27">
+            <v>0.5</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>40217</v>
+          </cell>
+          <cell r="B28">
+            <v>1</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>40220</v>
+          </cell>
+          <cell r="B29">
+            <v>3</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Design and Decisions Meeting</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>40227</v>
+          </cell>
+          <cell r="B30">
+            <v>1</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Group Meeting on Skype</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>40229</v>
+          </cell>
+          <cell r="B31">
+            <v>1</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Group Meeting on Skype</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>40232</v>
+          </cell>
+          <cell r="B32">
+            <v>3</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33"/>
+        </row>
+        <row r="34">
+          <cell r="A34"/>
+        </row>
+        <row r="35">
+          <cell r="A35"/>
+        </row>
+        <row r="36">
+          <cell r="A36"/>
+        </row>
+        <row r="37">
+          <cell r="A37"/>
+        </row>
+        <row r="38">
+          <cell r="A38"/>
+        </row>
+        <row r="39">
+          <cell r="A39"/>
+        </row>
+        <row r="40">
+          <cell r="A40"/>
+        </row>
+        <row r="41">
+          <cell r="A41"/>
+        </row>
+        <row r="42">
+          <cell r="A42"/>
+        </row>
+        <row r="43">
+          <cell r="A43"/>
+        </row>
+        <row r="44">
+          <cell r="A44"/>
+        </row>
+        <row r="45">
+          <cell r="A45"/>
+        </row>
+        <row r="46">
+          <cell r="A46"/>
+        </row>
+        <row r="47">
+          <cell r="A47"/>
+        </row>
+        <row r="48">
+          <cell r="A48"/>
+        </row>
+        <row r="49">
+          <cell r="A49"/>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -657,8 +808,8 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2" t="str">
-            <v>1/2/2010</v>
+          <cell r="A2">
+            <v>40180</v>
           </cell>
           <cell r="B2">
             <v>3</v>
@@ -668,8 +819,8 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>1/3/2010</v>
+          <cell r="A3">
+            <v>40181</v>
           </cell>
           <cell r="B3">
             <v>3</v>
@@ -679,8 +830,8 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>1/5/2010</v>
+          <cell r="A4">
+            <v>40183</v>
           </cell>
           <cell r="B4">
             <v>1</v>
@@ -690,8 +841,8 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>1/5/2010</v>
+          <cell r="A5">
+            <v>40183</v>
           </cell>
           <cell r="B5">
             <v>3</v>
@@ -701,8 +852,8 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>1/6/2010</v>
+          <cell r="A6">
+            <v>40184</v>
           </cell>
           <cell r="B6">
             <v>4</v>
@@ -712,8 +863,8 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>1/7/2010</v>
+          <cell r="A7">
+            <v>40185</v>
           </cell>
           <cell r="B7">
             <v>3</v>
@@ -723,8 +874,8 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>1/8/2010</v>
+          <cell r="A8">
+            <v>40186</v>
           </cell>
           <cell r="B8">
             <v>1</v>
@@ -734,8 +885,8 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>1/8/2010</v>
+          <cell r="A9">
+            <v>40186</v>
           </cell>
           <cell r="B9">
             <v>3</v>
@@ -745,8 +896,8 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>1/9/2010</v>
+          <cell r="A10">
+            <v>40187</v>
           </cell>
           <cell r="B10">
             <v>0.5</v>
@@ -756,8 +907,8 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>1/9/2010</v>
+          <cell r="A11">
+            <v>40187</v>
           </cell>
           <cell r="B11">
             <v>3</v>
@@ -767,8 +918,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12" t="str">
-            <v>1/11/2010</v>
+          <cell r="A12">
+            <v>40189</v>
           </cell>
           <cell r="B12">
             <v>2</v>
@@ -778,8 +929,8 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>1/11/2010</v>
+          <cell r="A13">
+            <v>40189</v>
           </cell>
           <cell r="B13">
             <v>0.5</v>
@@ -789,8 +940,8 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>1/12/2010</v>
+          <cell r="A14">
+            <v>40190</v>
           </cell>
           <cell r="B14">
             <v>2</v>
@@ -800,8 +951,8 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15" t="str">
-            <v>1/12/2010</v>
+          <cell r="A15">
+            <v>40190</v>
           </cell>
           <cell r="B15">
             <v>1</v>
@@ -811,8 +962,8 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16" t="str">
-            <v>1/14/2010</v>
+          <cell r="A16">
+            <v>40192</v>
           </cell>
           <cell r="B16">
             <v>1</v>
@@ -822,8 +973,8 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>1/17/2010</v>
+          <cell r="A17">
+            <v>40195</v>
           </cell>
           <cell r="B17">
             <v>3</v>
@@ -833,8 +984,8 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18" t="str">
-            <v>1/19/2010</v>
+          <cell r="A18">
+            <v>40197</v>
           </cell>
           <cell r="B18">
             <v>1</v>
@@ -844,8 +995,8 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19" t="str">
-            <v>1/19/2010</v>
+          <cell r="A19">
+            <v>40197</v>
           </cell>
           <cell r="B19">
             <v>1</v>
@@ -855,8 +1006,8 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20" t="str">
-            <v>1/21/2010</v>
+          <cell r="A20">
+            <v>40199</v>
           </cell>
           <cell r="B20">
             <v>1</v>
@@ -866,8 +1017,8 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="A21" t="str">
-            <v>1/22/2010</v>
+          <cell r="A21">
+            <v>40200</v>
           </cell>
           <cell r="B21">
             <v>2</v>
@@ -877,8 +1028,8 @@
           </cell>
         </row>
         <row r="22">
-          <cell r="A22" t="str">
-            <v>1/24/2010</v>
+          <cell r="A22">
+            <v>40202</v>
           </cell>
           <cell r="B22">
             <v>1.5</v>
@@ -888,8 +1039,8 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23" t="str">
-            <v>1/24/2010</v>
+          <cell r="A23">
+            <v>40202</v>
           </cell>
           <cell r="B23">
             <v>1.5</v>
@@ -899,8 +1050,8 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24" t="str">
-            <v>1/24/2010</v>
+          <cell r="A24">
+            <v>40202</v>
           </cell>
           <cell r="B24">
             <v>2</v>
@@ -910,8 +1061,8 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="A25" t="str">
-            <v>1/25/2010</v>
+          <cell r="A25">
+            <v>40203</v>
           </cell>
           <cell r="B25">
             <v>4</v>
@@ -921,8 +1072,8 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26" t="str">
-            <v>1/26/2010</v>
+          <cell r="A26">
+            <v>40204</v>
           </cell>
           <cell r="B26">
             <v>2</v>
@@ -932,8 +1083,8 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="A27" t="str">
-            <v>1/26/2010</v>
+          <cell r="A27">
+            <v>40204</v>
           </cell>
           <cell r="B27">
             <v>1</v>
@@ -943,8 +1094,8 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="A28" t="str">
-            <v>1/26/2010</v>
+          <cell r="A28">
+            <v>40204</v>
           </cell>
           <cell r="B28">
             <v>4</v>
@@ -954,8 +1105,8 @@
           </cell>
         </row>
         <row r="29">
-          <cell r="A29" t="str">
-            <v>1/27/2010</v>
+          <cell r="A29">
+            <v>40205</v>
           </cell>
           <cell r="B29">
             <v>6</v>
@@ -965,8 +1116,8 @@
           </cell>
         </row>
         <row r="30">
-          <cell r="A30" t="str">
-            <v>1/28/2010</v>
+          <cell r="A30">
+            <v>40206</v>
           </cell>
           <cell r="B30">
             <v>4</v>
@@ -976,8 +1127,8 @@
           </cell>
         </row>
         <row r="31">
-          <cell r="A31" t="str">
-            <v>1/28/2010</v>
+          <cell r="A31">
+            <v>40206</v>
           </cell>
           <cell r="B31">
             <v>1</v>
@@ -987,8 +1138,8 @@
           </cell>
         </row>
         <row r="32">
-          <cell r="A32" t="str">
-            <v>2/1/2010</v>
+          <cell r="A32">
+            <v>40210</v>
           </cell>
           <cell r="B32">
             <v>1</v>
@@ -998,8 +1149,8 @@
           </cell>
         </row>
         <row r="33">
-          <cell r="A33" t="str">
-            <v>2/1/2010</v>
+          <cell r="A33">
+            <v>40210</v>
           </cell>
           <cell r="B33">
             <v>1</v>
@@ -1009,8 +1160,8 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="A34" t="str">
-            <v>2/2/2010</v>
+          <cell r="A34">
+            <v>40211</v>
           </cell>
           <cell r="B34">
             <v>1.5</v>
@@ -1019,9 +1170,174 @@
             <v>Group Meeting</v>
           </cell>
         </row>
+        <row r="35">
+          <cell r="A35">
+            <v>40217</v>
+          </cell>
+          <cell r="B35">
+            <v>1.5</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>40217</v>
+          </cell>
+          <cell r="B36">
+            <v>1</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>40220</v>
+          </cell>
+          <cell r="B37">
+            <v>3</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Design and Decision Meeting</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>40222</v>
+          </cell>
+          <cell r="B38">
+            <v>1.5</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Researched sterilizable motor</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>40223</v>
+          </cell>
+          <cell r="B39">
+            <v>0.5</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Encoder speed requirement calculation</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>40223</v>
+          </cell>
+          <cell r="B40">
+            <v>2</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Researched QNX installation methods and issues</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>40224</v>
+          </cell>
+          <cell r="B41">
+            <v>3</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Ordered control system components</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>40227</v>
+          </cell>
+          <cell r="B42">
+            <v>1</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Group Meeting on Skype</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>40227</v>
+          </cell>
+          <cell r="B43">
+            <v>0.5</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Gravity Compensation motor experiment</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>40229</v>
+          </cell>
+          <cell r="B44">
+            <v>1</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Group Meeting on Skype</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>40230</v>
+          </cell>
+          <cell r="B45">
+            <v>2.5</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>QNX Setup</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>40231</v>
+          </cell>
+          <cell r="B46">
+            <v>4</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>QNX Setup</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>40231</v>
+          </cell>
+          <cell r="B47">
+            <v>1</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Motor controller cables research</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>40232</v>
+          </cell>
+          <cell r="B48">
+            <v>3</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>40233</v>
+          </cell>
+          <cell r="B49">
+            <v>1</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Motor Testing</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1049,8 +1365,8 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2" t="str">
-            <v>1/5/2010</v>
+          <cell r="A2">
+            <v>40183</v>
           </cell>
           <cell r="B2">
             <v>1</v>
@@ -1060,8 +1376,8 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>1/7/2010</v>
+          <cell r="A3">
+            <v>40185</v>
           </cell>
           <cell r="B3">
             <v>3</v>
@@ -1071,8 +1387,8 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>1/9/2010</v>
+          <cell r="A4">
+            <v>40187</v>
           </cell>
           <cell r="B4">
             <v>4</v>
@@ -1082,8 +1398,8 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>1/12/2010</v>
+          <cell r="A5">
+            <v>40190</v>
           </cell>
           <cell r="B5">
             <v>2</v>
@@ -1093,8 +1409,8 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>1/12/2010</v>
+          <cell r="A6">
+            <v>40190</v>
           </cell>
           <cell r="B6">
             <v>1</v>
@@ -1104,8 +1420,8 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>1/14/2010</v>
+          <cell r="A7">
+            <v>40192</v>
           </cell>
           <cell r="B7">
             <v>1</v>
@@ -1115,8 +1431,8 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>1/16/2010</v>
+          <cell r="A8">
+            <v>40194</v>
           </cell>
           <cell r="B8">
             <v>1.5</v>
@@ -1126,8 +1442,8 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>1/19/2010</v>
+          <cell r="A9">
+            <v>40197</v>
           </cell>
           <cell r="B9">
             <v>1</v>
@@ -1137,8 +1453,8 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>1/19/2010</v>
+          <cell r="A10">
+            <v>40197</v>
           </cell>
           <cell r="B10">
             <v>1</v>
@@ -1148,8 +1464,8 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>1/21/2010</v>
+          <cell r="A11">
+            <v>40199</v>
           </cell>
           <cell r="B11">
             <v>1</v>
@@ -1159,8 +1475,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12" t="str">
-            <v>1/24/2010</v>
+          <cell r="A12">
+            <v>40202</v>
           </cell>
           <cell r="B12">
             <v>1.75</v>
@@ -1170,8 +1486,8 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>1/26/2010</v>
+          <cell r="A13">
+            <v>40204</v>
           </cell>
           <cell r="B13">
             <v>1</v>
@@ -1181,8 +1497,8 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>1/27/2010</v>
+          <cell r="A14">
+            <v>40205</v>
           </cell>
           <cell r="B14">
             <v>3</v>
@@ -1192,8 +1508,8 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15" t="str">
-            <v>1/28/2010</v>
+          <cell r="A15">
+            <v>40206</v>
           </cell>
           <cell r="B15">
             <v>1</v>
@@ -1203,8 +1519,8 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16" t="str">
-            <v>2/1/2010</v>
+          <cell r="A16">
+            <v>40210</v>
           </cell>
           <cell r="B16">
             <v>1</v>
@@ -1214,8 +1530,8 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>2/1/2010</v>
+          <cell r="A17">
+            <v>40210</v>
           </cell>
           <cell r="B17">
             <v>1</v>
@@ -1225,8 +1541,8 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18" t="str">
-            <v>2/2/2010</v>
+          <cell r="A18">
+            <v>40211</v>
           </cell>
           <cell r="B18">
             <v>1.5</v>
@@ -1236,8 +1552,8 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19" t="str">
-            <v>2/3/2010</v>
+          <cell r="A19">
+            <v>40212</v>
           </cell>
           <cell r="B19">
             <v>2.5</v>
@@ -1246,9 +1562,42 @@
             <v>CFP Update/Edit</v>
           </cell>
         </row>
+        <row r="20">
+          <cell r="A20">
+            <v>40215</v>
+          </cell>
+          <cell r="B20">
+            <v>3</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>CFP Update and misc</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>40229</v>
+          </cell>
+          <cell r="B21">
+            <v>0.5</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Group Meeting on Skype</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>40232</v>
+          </cell>
+          <cell r="B22">
+            <v>2</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1276,8 +1625,8 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2" t="str">
-            <v>1/5/2010</v>
+          <cell r="A2">
+            <v>40183</v>
           </cell>
           <cell r="B2">
             <v>1</v>
@@ -1287,8 +1636,8 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>1/7/2010</v>
+          <cell r="A3">
+            <v>40185</v>
           </cell>
           <cell r="B3">
             <v>3</v>
@@ -1298,8 +1647,8 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>1/8/2010</v>
+          <cell r="A4">
+            <v>40186</v>
           </cell>
           <cell r="B4">
             <v>1</v>
@@ -1309,8 +1658,8 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>1/9/2010</v>
+          <cell r="A5">
+            <v>40187</v>
           </cell>
           <cell r="B5">
             <v>3</v>
@@ -1320,8 +1669,8 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>1/11/2010</v>
+          <cell r="A6">
+            <v>40189</v>
           </cell>
           <cell r="B6">
             <v>4</v>
@@ -1331,8 +1680,8 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>1/12/2010</v>
+          <cell r="A7">
+            <v>40190</v>
           </cell>
           <cell r="B7">
             <v>2</v>
@@ -1342,8 +1691,8 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>1/12/2010</v>
+          <cell r="A8">
+            <v>40190</v>
           </cell>
           <cell r="B8">
             <v>1</v>
@@ -1353,8 +1702,8 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>1/19/2010</v>
+          <cell r="A9">
+            <v>40197</v>
           </cell>
           <cell r="B9">
             <v>1</v>
@@ -1364,8 +1713,8 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>1/19/2010</v>
+          <cell r="A10">
+            <v>40197</v>
           </cell>
           <cell r="B10">
             <v>1</v>
@@ -1375,8 +1724,8 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>1/21/2010</v>
+          <cell r="A11">
+            <v>40199</v>
           </cell>
           <cell r="B11">
             <v>1</v>
@@ -1386,8 +1735,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12" t="str">
-            <v>1/24/2010</v>
+          <cell r="A12">
+            <v>40202</v>
           </cell>
           <cell r="B12">
             <v>5</v>
@@ -1397,8 +1746,8 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>1/26/2010</v>
+          <cell r="A13">
+            <v>40204</v>
           </cell>
           <cell r="B13">
             <v>2</v>
@@ -1408,8 +1757,8 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>1/26/2010</v>
+          <cell r="A14">
+            <v>40204</v>
           </cell>
           <cell r="B14">
             <v>1</v>
@@ -1419,8 +1768,8 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15" t="str">
-            <v>1/27/2010</v>
+          <cell r="A15">
+            <v>40205</v>
           </cell>
           <cell r="B15">
             <v>4</v>
@@ -1430,8 +1779,8 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16" t="str">
-            <v>1/28/2010</v>
+          <cell r="A16">
+            <v>40206</v>
           </cell>
           <cell r="B16">
             <v>1</v>
@@ -1441,8 +1790,8 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>2/1/2010</v>
+          <cell r="A17">
+            <v>40210</v>
           </cell>
           <cell r="B17">
             <v>1</v>
@@ -1452,8 +1801,8 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18" t="str">
-            <v>2/1/2010</v>
+          <cell r="A18">
+            <v>40210</v>
           </cell>
           <cell r="B18">
             <v>1</v>
@@ -1463,8 +1812,8 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19" t="str">
-            <v>2/1/2010</v>
+          <cell r="A19">
+            <v>40210</v>
           </cell>
           <cell r="B19">
             <v>1</v>
@@ -1474,8 +1823,8 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20" t="str">
-            <v>2/2/2010</v>
+          <cell r="A20">
+            <v>40211</v>
           </cell>
           <cell r="B20">
             <v>1</v>
@@ -1484,9 +1833,86 @@
             <v>Group Meeting</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="A21">
+            <v>40213</v>
+          </cell>
+          <cell r="B21">
+            <v>2</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Encoder Research</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>40217</v>
+          </cell>
+          <cell r="B22">
+            <v>1.5</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>40217</v>
+          </cell>
+          <cell r="B23">
+            <v>1</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>40220</v>
+          </cell>
+          <cell r="B24">
+            <v>3</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Design and Decision Meeting</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>40227</v>
+          </cell>
+          <cell r="B25">
+            <v>1</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Group Meeting on Skype</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>40231</v>
+          </cell>
+          <cell r="B26">
+            <v>3</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Motor controller cables order</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>40232</v>
+          </cell>
+          <cell r="B27">
+            <v>3</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1514,8 +1940,8 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2" t="str">
-            <v>1/5/2010</v>
+          <cell r="A2">
+            <v>40183</v>
           </cell>
           <cell r="B2">
             <v>1</v>
@@ -1525,8 +1951,8 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>1/5/2010</v>
+          <cell r="A3">
+            <v>40183</v>
           </cell>
           <cell r="B3">
             <v>3</v>
@@ -1536,8 +1962,8 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>1/7/2010</v>
+          <cell r="A4">
+            <v>40185</v>
           </cell>
           <cell r="B4">
             <v>3</v>
@@ -1547,8 +1973,8 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>1/7/2010</v>
+          <cell r="A5">
+            <v>40185</v>
           </cell>
           <cell r="B5">
             <v>2</v>
@@ -1558,8 +1984,8 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>1/8/2010</v>
+          <cell r="A6">
+            <v>40186</v>
           </cell>
           <cell r="B6">
             <v>2</v>
@@ -1569,8 +1995,8 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>1/9/2010</v>
+          <cell r="A7">
+            <v>40187</v>
           </cell>
           <cell r="B7">
             <v>3</v>
@@ -1580,8 +2006,8 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>1/10/2010</v>
+          <cell r="A8">
+            <v>40188</v>
           </cell>
           <cell r="B8">
             <v>1</v>
@@ -1591,8 +2017,8 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>1/12/2010</v>
+          <cell r="A9">
+            <v>40190</v>
           </cell>
           <cell r="B9">
             <v>1</v>
@@ -1602,8 +2028,8 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>1/19/2010</v>
+          <cell r="A10">
+            <v>40197</v>
           </cell>
           <cell r="B10">
             <v>1</v>
@@ -1613,8 +2039,8 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>1/19/2010</v>
+          <cell r="A11">
+            <v>40197</v>
           </cell>
           <cell r="B11">
             <v>1</v>
@@ -1624,8 +2050,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12" t="str">
-            <v>1/19/2010</v>
+          <cell r="A12">
+            <v>40197</v>
           </cell>
           <cell r="B12">
             <v>3</v>
@@ -1635,8 +2061,8 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>1/20/2010</v>
+          <cell r="A13">
+            <v>40198</v>
           </cell>
           <cell r="B13">
             <v>1</v>
@@ -1646,8 +2072,8 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>1/21/2010</v>
+          <cell r="A14">
+            <v>40199</v>
           </cell>
           <cell r="B14">
             <v>1</v>
@@ -1657,8 +2083,8 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15" t="str">
-            <v>1/23/2010</v>
+          <cell r="A15">
+            <v>40201</v>
           </cell>
           <cell r="B15">
             <v>3</v>
@@ -1668,8 +2094,8 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16" t="str">
-            <v>1/24/2010</v>
+          <cell r="A16">
+            <v>40202</v>
           </cell>
           <cell r="B16">
             <v>3</v>
@@ -1679,8 +2105,8 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>1/26/2010</v>
+          <cell r="A17">
+            <v>40204</v>
           </cell>
           <cell r="B17">
             <v>2</v>
@@ -1690,8 +2116,8 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18" t="str">
-            <v>1/26/2010</v>
+          <cell r="A18">
+            <v>40204</v>
           </cell>
           <cell r="B18">
             <v>1</v>
@@ -1701,8 +2127,8 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19" t="str">
-            <v>1/27/2010</v>
+          <cell r="A19">
+            <v>40205</v>
           </cell>
           <cell r="B19">
             <v>7</v>
@@ -1712,8 +2138,8 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20" t="str">
-            <v>1/28/2010</v>
+          <cell r="A20">
+            <v>40206</v>
           </cell>
           <cell r="B20">
             <v>1</v>
@@ -1723,8 +2149,8 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="A21" t="str">
-            <v>2/1/2010</v>
+          <cell r="A21">
+            <v>40210</v>
           </cell>
           <cell r="B21">
             <v>1</v>
@@ -1734,8 +2160,8 @@
           </cell>
         </row>
         <row r="22">
-          <cell r="A22" t="str">
-            <v>2/1/2010</v>
+          <cell r="A22">
+            <v>40210</v>
           </cell>
           <cell r="B22">
             <v>1</v>
@@ -1745,8 +2171,8 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23" t="str">
-            <v>2/2/2010</v>
+          <cell r="A23">
+            <v>40211</v>
           </cell>
           <cell r="B23">
             <v>1.5</v>
@@ -1755,9 +2181,86 @@
             <v>Group Meeting</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="A24">
+            <v>40213</v>
+          </cell>
+          <cell r="B24">
+            <v>3</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Design breakdown</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>40217</v>
+          </cell>
+          <cell r="B25">
+            <v>1.5</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>40217</v>
+          </cell>
+          <cell r="B26">
+            <v>1</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>40220</v>
+          </cell>
+          <cell r="B27">
+            <v>3</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Design and Decision Meeting</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>40227</v>
+          </cell>
+          <cell r="B28">
+            <v>1</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Group Meeting on Skype</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>40229</v>
+          </cell>
+          <cell r="B29">
+            <v>1</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Group Meeting on Skype</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>40232</v>
+          </cell>
+          <cell r="B30">
+            <v>3</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2051,7 +2554,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2080,15 +2583,15 @@
       </c>
       <c r="B2">
         <f>D2-C2</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <f>SUMIF(david!C:C,"*meeting*",david!B:B)</f>
-        <v>18</v>
+        <v>27.5</v>
       </c>
       <c r="D2">
         <f>SUM(david!B:B)</f>
-        <v>33</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2097,15 +2600,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
-        <v>24.5</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>69.5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2114,15 +2617,15 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>13.75</v>
+        <v>16.75</v>
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>29.25</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2131,15 +2634,15 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
-        <v>21</v>
+        <v>30.5</v>
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>35</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" thickBot="1">
@@ -2148,15 +2651,15 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <f>SUMIF(nicholas!C:C,"*meeting*",nicholas!B:B)</f>
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <f>SUM(nicholas!B:B)</f>
-        <v>43.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1">
@@ -2165,15 +2668,15 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>111.75</v>
+        <v>144.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>98.5</v>
+        <v>141</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>210.25</v>
+        <v>285.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2182,32 +2685,32 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>22.35</v>
+        <v>28.95</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D9" si="2">C7/5</f>
-        <v>19.7</v>
+        <v>28.2</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>42.05</v>
+        <v>57.15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <f>B8/5</f>
-        <v>4.4700000000000006</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>3.94</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>8.41</v>
+      <c r="B9" s="9">
+        <f ca="1">B8/$B$11</f>
+        <v>3.8971153846153843</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
+        <v>3.796153846153846</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.6932692307692303</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2215,7 +2718,13 @@
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="6"/>
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10">
+        <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
+        <v>7.4285714285714288</v>
+      </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:4">
@@ -2334,9 +2843,9 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="str">
+      <c r="A7">
         <f>[1]Sheet1!A7</f>
-        <v>1/9/2010</v>
+        <v>40187</v>
       </c>
       <c r="B7">
         <f>[1]Sheet1!B7</f>
@@ -2348,9 +2857,9 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="str">
+      <c r="A8">
         <f>[1]Sheet1!A8</f>
-        <v>1/14/2010</v>
+        <v>40192</v>
       </c>
       <c r="B8">
         <f>[1]Sheet1!B8</f>
@@ -2362,9 +2871,9 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="str">
+      <c r="A9">
         <f>[1]Sheet1!A9</f>
-        <v>1/14/2010</v>
+        <v>40192</v>
       </c>
       <c r="B9">
         <f>[1]Sheet1!B9</f>
@@ -2376,9 +2885,9 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="str">
+      <c r="A10">
         <f>[1]Sheet1!A10</f>
-        <v>1/14/2010</v>
+        <v>40192</v>
       </c>
       <c r="B10">
         <f>[1]Sheet1!B10</f>
@@ -2390,9 +2899,9 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="str">
+      <c r="A11">
         <f>[1]Sheet1!A11</f>
-        <v>1/14/2010</v>
+        <v>40192</v>
       </c>
       <c r="B11">
         <f>[1]Sheet1!B11</f>
@@ -2404,9 +2913,9 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="str">
+      <c r="A12">
         <f>[1]Sheet1!A12</f>
-        <v>1/15/2010</v>
+        <v>40193</v>
       </c>
       <c r="B12">
         <f>[1]Sheet1!B12</f>
@@ -2418,9 +2927,9 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="str">
+      <c r="A13">
         <f>[1]Sheet1!A13</f>
-        <v>1/18/2010</v>
+        <v>40196</v>
       </c>
       <c r="B13">
         <f>[1]Sheet1!B13</f>
@@ -2432,9 +2941,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="str">
+      <c r="A14">
         <f>[1]Sheet1!A14</f>
-        <v>1/19/2010</v>
+        <v>40197</v>
       </c>
       <c r="B14">
         <f>[1]Sheet1!B14</f>
@@ -2446,9 +2955,9 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="str">
+      <c r="A15">
         <f>[1]Sheet1!A15</f>
-        <v>1/19/2010</v>
+        <v>40197</v>
       </c>
       <c r="B15">
         <f>[1]Sheet1!B15</f>
@@ -2460,9 +2969,9 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="str">
+      <c r="A16">
         <f>[1]Sheet1!A16</f>
-        <v>1/20/2010</v>
+        <v>40198</v>
       </c>
       <c r="B16">
         <f>[1]Sheet1!B16</f>
@@ -2474,9 +2983,9 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="str">
+      <c r="A17">
         <f>[1]Sheet1!A17</f>
-        <v>1/21/2010</v>
+        <v>40199</v>
       </c>
       <c r="B17">
         <f>[1]Sheet1!B17</f>
@@ -2488,9 +2997,9 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="str">
+      <c r="A18">
         <f>[1]Sheet1!A18</f>
-        <v>1/26/2010</v>
+        <v>40204</v>
       </c>
       <c r="B18">
         <f>[1]Sheet1!B18</f>
@@ -2502,9 +3011,9 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="str">
+      <c r="A19">
         <f>[1]Sheet1!A19</f>
-        <v>1/26/2010</v>
+        <v>40204</v>
       </c>
       <c r="B19">
         <f>[1]Sheet1!B19</f>
@@ -2516,9 +3025,9 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="str">
+      <c r="A20">
         <f>[1]Sheet1!A20</f>
-        <v>1/28/2010</v>
+        <v>40206</v>
       </c>
       <c r="B20">
         <f>[1]Sheet1!B20</f>
@@ -2530,9 +3039,9 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="str">
+      <c r="A21">
         <f>[1]Sheet1!A21</f>
-        <v>1/29/2010</v>
+        <v>40207</v>
       </c>
       <c r="B21">
         <f>[1]Sheet1!B21</f>
@@ -2544,9 +3053,9 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="str">
+      <c r="A22">
         <f>[1]Sheet1!A22</f>
-        <v>1/29/2010</v>
+        <v>40207</v>
       </c>
       <c r="B22">
         <f>[1]Sheet1!B22</f>
@@ -2558,9 +3067,9 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="str">
+      <c r="A23">
         <f>[1]Sheet1!A23</f>
-        <v>2/1/2010</v>
+        <v>40210</v>
       </c>
       <c r="B23">
         <f>[1]Sheet1!B23</f>
@@ -2572,9 +3081,9 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="str">
+      <c r="A24">
         <f>[1]Sheet1!A24</f>
-        <v>2/1/2010</v>
+        <v>40210</v>
       </c>
       <c r="B24">
         <f>[1]Sheet1!B24</f>
@@ -2588,113 +3097,113 @@
     <row r="25" spans="1:3">
       <c r="A25">
         <f>[1]Sheet1!A25</f>
-        <v>0</v>
+        <v>40211</v>
       </c>
       <c r="B25">
         <f>[1]Sheet1!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="str">
         <f>[1]Sheet1!C25</f>
-        <v>0</v>
+        <v>Solid Modelling</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
         <f>[1]Sheet1!A26</f>
-        <v>0</v>
+        <v>40213</v>
       </c>
       <c r="B26">
         <f>[1]Sheet1!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="str">
         <f>[1]Sheet1!C26</f>
-        <v>0</v>
+        <v>Design Breakdown</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
         <f>[1]Sheet1!A27</f>
-        <v>0</v>
+        <v>40217</v>
       </c>
       <c r="B27">
         <f>[1]Sheet1!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="C27" t="str">
         <f>[1]Sheet1!C27</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
         <f>[1]Sheet1!A28</f>
-        <v>0</v>
+        <v>40217</v>
       </c>
       <c r="B28">
         <f>[1]Sheet1!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
         <f>[1]Sheet1!C28</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
         <f>[1]Sheet1!A29</f>
-        <v>0</v>
+        <v>40220</v>
       </c>
       <c r="B29">
         <f>[1]Sheet1!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="str">
         <f>[1]Sheet1!C29</f>
-        <v>0</v>
+        <v>Design and Decisions Meeting</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <f>[1]Sheet1!A30</f>
-        <v>0</v>
+        <v>40227</v>
       </c>
       <c r="B30">
         <f>[1]Sheet1!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="str">
         <f>[1]Sheet1!C30</f>
-        <v>0</v>
+        <v>Group Meeting on Skype</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
         <f>[1]Sheet1!A31</f>
-        <v>0</v>
+        <v>40229</v>
       </c>
       <c r="B31">
         <f>[1]Sheet1!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="str">
         <f>[1]Sheet1!C31</f>
-        <v>0</v>
+        <v>Group Meeting on Skype</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <f>[1]Sheet1!A32</f>
-        <v>0</v>
+        <v>40232</v>
       </c>
       <c r="B32">
         <f>[1]Sheet1!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="str">
         <f>[1]Sheet1!C32</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3685,9 +4194,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="str">
+      <c r="A2" s="7">
         <f>[2]Sheet1!A2</f>
-        <v>1/2/2010</v>
+        <v>40180</v>
       </c>
       <c r="B2">
         <f>[2]Sheet1!B2</f>
@@ -3699,9 +4208,9 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="6">
         <f>[2]Sheet1!A3</f>
-        <v>1/3/2010</v>
+        <v>40181</v>
       </c>
       <c r="B3">
         <f>[2]Sheet1!B3</f>
@@ -3713,9 +4222,9 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="6">
         <f>[2]Sheet1!A4</f>
-        <v>1/5/2010</v>
+        <v>40183</v>
       </c>
       <c r="B4">
         <f>[2]Sheet1!B4</f>
@@ -3727,9 +4236,9 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="6">
         <f>[2]Sheet1!A5</f>
-        <v>1/5/2010</v>
+        <v>40183</v>
       </c>
       <c r="B5">
         <f>[2]Sheet1!B5</f>
@@ -3741,9 +4250,9 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="6">
         <f>[2]Sheet1!A6</f>
-        <v>1/6/2010</v>
+        <v>40184</v>
       </c>
       <c r="B6">
         <f>[2]Sheet1!B6</f>
@@ -3755,9 +4264,9 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="6">
         <f>[2]Sheet1!A7</f>
-        <v>1/7/2010</v>
+        <v>40185</v>
       </c>
       <c r="B7">
         <f>[2]Sheet1!B7</f>
@@ -3769,9 +4278,9 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="6">
         <f>[2]Sheet1!A8</f>
-        <v>1/8/2010</v>
+        <v>40186</v>
       </c>
       <c r="B8">
         <f>[2]Sheet1!B8</f>
@@ -3783,9 +4292,9 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="6">
         <f>[2]Sheet1!A9</f>
-        <v>1/8/2010</v>
+        <v>40186</v>
       </c>
       <c r="B9">
         <f>[2]Sheet1!B9</f>
@@ -3797,9 +4306,9 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="6">
         <f>[2]Sheet1!A10</f>
-        <v>1/9/2010</v>
+        <v>40187</v>
       </c>
       <c r="B10">
         <f>[2]Sheet1!B10</f>
@@ -3811,9 +4320,9 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="6">
         <f>[2]Sheet1!A11</f>
-        <v>1/9/2010</v>
+        <v>40187</v>
       </c>
       <c r="B11">
         <f>[2]Sheet1!B11</f>
@@ -3825,9 +4334,9 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="6">
         <f>[2]Sheet1!A12</f>
-        <v>1/11/2010</v>
+        <v>40189</v>
       </c>
       <c r="B12">
         <f>[2]Sheet1!B12</f>
@@ -3839,9 +4348,9 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="6">
         <f>[2]Sheet1!A13</f>
-        <v>1/11/2010</v>
+        <v>40189</v>
       </c>
       <c r="B13">
         <f>[2]Sheet1!B13</f>
@@ -3853,9 +4362,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="str">
+      <c r="A14" s="6">
         <f>[2]Sheet1!A14</f>
-        <v>1/12/2010</v>
+        <v>40190</v>
       </c>
       <c r="B14">
         <f>[2]Sheet1!B14</f>
@@ -3867,9 +4376,9 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="str">
+      <c r="A15" s="6">
         <f>[2]Sheet1!A15</f>
-        <v>1/12/2010</v>
+        <v>40190</v>
       </c>
       <c r="B15">
         <f>[2]Sheet1!B15</f>
@@ -3881,9 +4390,9 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6" t="str">
+      <c r="A16" s="6">
         <f>[2]Sheet1!A16</f>
-        <v>1/14/2010</v>
+        <v>40192</v>
       </c>
       <c r="B16">
         <f>[2]Sheet1!B16</f>
@@ -3895,9 +4404,9 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6" t="str">
+      <c r="A17" s="6">
         <f>[2]Sheet1!A17</f>
-        <v>1/17/2010</v>
+        <v>40195</v>
       </c>
       <c r="B17">
         <f>[2]Sheet1!B17</f>
@@ -3909,9 +4418,9 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6" t="str">
+      <c r="A18" s="6">
         <f>[2]Sheet1!A18</f>
-        <v>1/19/2010</v>
+        <v>40197</v>
       </c>
       <c r="B18">
         <f>[2]Sheet1!B18</f>
@@ -3923,9 +4432,9 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6" t="str">
+      <c r="A19" s="6">
         <f>[2]Sheet1!A19</f>
-        <v>1/19/2010</v>
+        <v>40197</v>
       </c>
       <c r="B19">
         <f>[2]Sheet1!B19</f>
@@ -3937,9 +4446,9 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="str">
+      <c r="A20" s="6">
         <f>[2]Sheet1!A20</f>
-        <v>1/21/2010</v>
+        <v>40199</v>
       </c>
       <c r="B20">
         <f>[2]Sheet1!B20</f>
@@ -3951,9 +4460,9 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6" t="str">
+      <c r="A21" s="6">
         <f>[2]Sheet1!A21</f>
-        <v>1/22/2010</v>
+        <v>40200</v>
       </c>
       <c r="B21">
         <f>[2]Sheet1!B21</f>
@@ -3965,9 +4474,9 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6" t="str">
+      <c r="A22" s="6">
         <f>[2]Sheet1!A22</f>
-        <v>1/24/2010</v>
+        <v>40202</v>
       </c>
       <c r="B22">
         <f>[2]Sheet1!B22</f>
@@ -3979,9 +4488,9 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6" t="str">
+      <c r="A23" s="6">
         <f>[2]Sheet1!A23</f>
-        <v>1/24/2010</v>
+        <v>40202</v>
       </c>
       <c r="B23">
         <f>[2]Sheet1!B23</f>
@@ -3993,9 +4502,9 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6" t="str">
+      <c r="A24" s="6">
         <f>[2]Sheet1!A24</f>
-        <v>1/24/2010</v>
+        <v>40202</v>
       </c>
       <c r="B24">
         <f>[2]Sheet1!B24</f>
@@ -4007,9 +4516,9 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6" t="str">
+      <c r="A25" s="6">
         <f>[2]Sheet1!A25</f>
-        <v>1/25/2010</v>
+        <v>40203</v>
       </c>
       <c r="B25">
         <f>[2]Sheet1!B25</f>
@@ -4021,9 +4530,9 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6" t="str">
+      <c r="A26" s="6">
         <f>[2]Sheet1!A26</f>
-        <v>1/26/2010</v>
+        <v>40204</v>
       </c>
       <c r="B26">
         <f>[2]Sheet1!B26</f>
@@ -4035,9 +4544,9 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6" t="str">
+      <c r="A27" s="6">
         <f>[2]Sheet1!A27</f>
-        <v>1/26/2010</v>
+        <v>40204</v>
       </c>
       <c r="B27">
         <f>[2]Sheet1!B27</f>
@@ -4049,9 +4558,9 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6" t="str">
+      <c r="A28" s="6">
         <f>[2]Sheet1!A28</f>
-        <v>1/26/2010</v>
+        <v>40204</v>
       </c>
       <c r="B28">
         <f>[2]Sheet1!B28</f>
@@ -4063,9 +4572,9 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6" t="str">
+      <c r="A29" s="6">
         <f>[2]Sheet1!A29</f>
-        <v>1/27/2010</v>
+        <v>40205</v>
       </c>
       <c r="B29">
         <f>[2]Sheet1!B29</f>
@@ -4077,9 +4586,9 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6" t="str">
+      <c r="A30" s="6">
         <f>[2]Sheet1!A30</f>
-        <v>1/28/2010</v>
+        <v>40206</v>
       </c>
       <c r="B30">
         <f>[2]Sheet1!B30</f>
@@ -4091,9 +4600,9 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6" t="str">
+      <c r="A31" s="6">
         <f>[2]Sheet1!A31</f>
-        <v>1/28/2010</v>
+        <v>40206</v>
       </c>
       <c r="B31">
         <f>[2]Sheet1!B31</f>
@@ -4105,9 +4614,9 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6" t="str">
+      <c r="A32" s="6">
         <f>[2]Sheet1!A32</f>
-        <v>2/1/2010</v>
+        <v>40210</v>
       </c>
       <c r="B32">
         <f>[2]Sheet1!B32</f>
@@ -4119,9 +4628,9 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6" t="str">
+      <c r="A33" s="6">
         <f>[2]Sheet1!A33</f>
-        <v>2/1/2010</v>
+        <v>40210</v>
       </c>
       <c r="B33">
         <f>[2]Sheet1!B33</f>
@@ -4133,9 +4642,9 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6" t="str">
+      <c r="A34" s="6">
         <f>[2]Sheet1!A34</f>
-        <v>2/2/2010</v>
+        <v>40211</v>
       </c>
       <c r="B34">
         <f>[2]Sheet1!B34</f>
@@ -4149,211 +4658,211 @@
     <row r="35" spans="1:3">
       <c r="A35" s="6">
         <f>[2]Sheet1!A35</f>
-        <v>0</v>
+        <v>40217</v>
       </c>
       <c r="B35">
         <f>[2]Sheet1!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C35">
+        <v>1.5</v>
+      </c>
+      <c r="C35" t="str">
         <f>[2]Sheet1!C35</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6">
         <f>[2]Sheet1!A36</f>
-        <v>0</v>
+        <v>40217</v>
       </c>
       <c r="B36">
         <f>[2]Sheet1!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
         <f>[2]Sheet1!C36</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6">
         <f>[2]Sheet1!A37</f>
-        <v>0</v>
+        <v>40220</v>
       </c>
       <c r="B37">
         <f>[2]Sheet1!B37</f>
-        <v>0</v>
-      </c>
-      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="str">
         <f>[2]Sheet1!C37</f>
-        <v>0</v>
+        <v>Design and Decision Meeting</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6">
         <f>[2]Sheet1!A38</f>
-        <v>0</v>
+        <v>40222</v>
       </c>
       <c r="B38">
         <f>[2]Sheet1!B38</f>
-        <v>0</v>
-      </c>
-      <c r="C38">
+        <v>1.5</v>
+      </c>
+      <c r="C38" t="str">
         <f>[2]Sheet1!C38</f>
-        <v>0</v>
+        <v>Researched sterilizable motor</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6">
         <f>[2]Sheet1!A39</f>
-        <v>0</v>
+        <v>40223</v>
       </c>
       <c r="B39">
         <f>[2]Sheet1!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="C39" t="str">
         <f>[2]Sheet1!C39</f>
-        <v>0</v>
+        <v>Encoder speed requirement calculation</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6">
         <f>[2]Sheet1!A40</f>
-        <v>0</v>
+        <v>40223</v>
       </c>
       <c r="B40">
         <f>[2]Sheet1!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="str">
         <f>[2]Sheet1!C40</f>
-        <v>0</v>
+        <v>Researched QNX installation methods and issues</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="6">
         <f>[2]Sheet1!A41</f>
-        <v>0</v>
+        <v>40224</v>
       </c>
       <c r="B41">
         <f>[2]Sheet1!B41</f>
-        <v>0</v>
-      </c>
-      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="str">
         <f>[2]Sheet1!C41</f>
-        <v>0</v>
+        <v>Ordered control system components</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6">
         <f>[2]Sheet1!A42</f>
-        <v>0</v>
+        <v>40227</v>
       </c>
       <c r="B42">
         <f>[2]Sheet1!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="str">
         <f>[2]Sheet1!C42</f>
-        <v>0</v>
+        <v>Group Meeting on Skype</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6">
         <f>[2]Sheet1!A43</f>
-        <v>0</v>
+        <v>40227</v>
       </c>
       <c r="B43">
         <f>[2]Sheet1!B43</f>
-        <v>0</v>
-      </c>
-      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="C43" t="str">
         <f>[2]Sheet1!C43</f>
-        <v>0</v>
+        <v>Gravity Compensation motor experiment</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="6">
         <f>[2]Sheet1!A44</f>
-        <v>0</v>
+        <v>40229</v>
       </c>
       <c r="B44">
         <f>[2]Sheet1!B44</f>
-        <v>0</v>
-      </c>
-      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="str">
         <f>[2]Sheet1!C44</f>
-        <v>0</v>
+        <v>Group Meeting on Skype</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6">
         <f>[2]Sheet1!A45</f>
-        <v>0</v>
+        <v>40230</v>
       </c>
       <c r="B45">
         <f>[2]Sheet1!B45</f>
-        <v>0</v>
-      </c>
-      <c r="C45">
+        <v>2.5</v>
+      </c>
+      <c r="C45" t="str">
         <f>[2]Sheet1!C45</f>
-        <v>0</v>
+        <v>QNX Setup</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6">
         <f>[2]Sheet1!A46</f>
-        <v>0</v>
+        <v>40231</v>
       </c>
       <c r="B46">
         <f>[2]Sheet1!B46</f>
-        <v>0</v>
-      </c>
-      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="str">
         <f>[2]Sheet1!C46</f>
-        <v>0</v>
+        <v>QNX Setup</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="6">
         <f>[2]Sheet1!A47</f>
-        <v>0</v>
+        <v>40231</v>
       </c>
       <c r="B47">
         <f>[2]Sheet1!B47</f>
-        <v>0</v>
-      </c>
-      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="str">
         <f>[2]Sheet1!C47</f>
-        <v>0</v>
+        <v>Motor controller cables research</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="6">
         <f>[2]Sheet1!A48</f>
-        <v>0</v>
+        <v>40232</v>
       </c>
       <c r="B48">
         <f>[2]Sheet1!B48</f>
-        <v>0</v>
-      </c>
-      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="str">
         <f>[2]Sheet1!C48</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="6">
         <f>[2]Sheet1!A49</f>
-        <v>0</v>
+        <v>40233</v>
       </c>
       <c r="B49">
         <f>[2]Sheet1!B49</f>
-        <v>0</v>
-      </c>
-      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
         <f>[2]Sheet1!C49</f>
-        <v>0</v>
+        <v>Motor Testing</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5106,9 +5615,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>[3]Sheet1!A2</f>
-        <v>1/5/2010</v>
+        <v>40183</v>
       </c>
       <c r="B2">
         <f>[3]Sheet1!B2</f>
@@ -5120,9 +5629,9 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="str">
+      <c r="A3">
         <f>[3]Sheet1!A3</f>
-        <v>1/7/2010</v>
+        <v>40185</v>
       </c>
       <c r="B3">
         <f>[3]Sheet1!B3</f>
@@ -5134,9 +5643,9 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="str">
+      <c r="A4">
         <f>[3]Sheet1!A4</f>
-        <v>1/9/2010</v>
+        <v>40187</v>
       </c>
       <c r="B4">
         <f>[3]Sheet1!B4</f>
@@ -5148,9 +5657,9 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="str">
+      <c r="A5">
         <f>[3]Sheet1!A5</f>
-        <v>1/12/2010</v>
+        <v>40190</v>
       </c>
       <c r="B5">
         <f>[3]Sheet1!B5</f>
@@ -5162,9 +5671,9 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="str">
+      <c r="A6">
         <f>[3]Sheet1!A6</f>
-        <v>1/12/2010</v>
+        <v>40190</v>
       </c>
       <c r="B6">
         <f>[3]Sheet1!B6</f>
@@ -5176,9 +5685,9 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="str">
+      <c r="A7">
         <f>[3]Sheet1!A7</f>
-        <v>1/14/2010</v>
+        <v>40192</v>
       </c>
       <c r="B7">
         <f>[3]Sheet1!B7</f>
@@ -5190,9 +5699,9 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="str">
+      <c r="A8">
         <f>[3]Sheet1!A8</f>
-        <v>1/16/2010</v>
+        <v>40194</v>
       </c>
       <c r="B8">
         <f>[3]Sheet1!B8</f>
@@ -5204,9 +5713,9 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="str">
+      <c r="A9">
         <f>[3]Sheet1!A9</f>
-        <v>1/19/2010</v>
+        <v>40197</v>
       </c>
       <c r="B9">
         <f>[3]Sheet1!B9</f>
@@ -5218,9 +5727,9 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="str">
+      <c r="A10">
         <f>[3]Sheet1!A10</f>
-        <v>1/19/2010</v>
+        <v>40197</v>
       </c>
       <c r="B10">
         <f>[3]Sheet1!B10</f>
@@ -5232,9 +5741,9 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="str">
+      <c r="A11">
         <f>[3]Sheet1!A11</f>
-        <v>1/21/2010</v>
+        <v>40199</v>
       </c>
       <c r="B11">
         <f>[3]Sheet1!B11</f>
@@ -5246,9 +5755,9 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="str">
+      <c r="A12">
         <f>[3]Sheet1!A12</f>
-        <v>1/24/2010</v>
+        <v>40202</v>
       </c>
       <c r="B12">
         <f>[3]Sheet1!B12</f>
@@ -5260,9 +5769,9 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="str">
+      <c r="A13">
         <f>[3]Sheet1!A13</f>
-        <v>1/26/2010</v>
+        <v>40204</v>
       </c>
       <c r="B13">
         <f>[3]Sheet1!B13</f>
@@ -5274,9 +5783,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="str">
+      <c r="A14">
         <f>[3]Sheet1!A14</f>
-        <v>1/27/2010</v>
+        <v>40205</v>
       </c>
       <c r="B14">
         <f>[3]Sheet1!B14</f>
@@ -5288,9 +5797,9 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="str">
+      <c r="A15">
         <f>[3]Sheet1!A15</f>
-        <v>1/28/2010</v>
+        <v>40206</v>
       </c>
       <c r="B15">
         <f>[3]Sheet1!B15</f>
@@ -5302,9 +5811,9 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="str">
+      <c r="A16">
         <f>[3]Sheet1!A16</f>
-        <v>2/1/2010</v>
+        <v>40210</v>
       </c>
       <c r="B16">
         <f>[3]Sheet1!B16</f>
@@ -5316,9 +5825,9 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="str">
+      <c r="A17">
         <f>[3]Sheet1!A17</f>
-        <v>2/1/2010</v>
+        <v>40210</v>
       </c>
       <c r="B17">
         <f>[3]Sheet1!B17</f>
@@ -5330,9 +5839,9 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="str">
+      <c r="A18">
         <f>[3]Sheet1!A18</f>
-        <v>2/2/2010</v>
+        <v>40211</v>
       </c>
       <c r="B18">
         <f>[3]Sheet1!B18</f>
@@ -5344,9 +5853,9 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="str">
+      <c r="A19">
         <f>[3]Sheet1!A19</f>
-        <v>2/3/2010</v>
+        <v>40212</v>
       </c>
       <c r="B19">
         <f>[3]Sheet1!B19</f>
@@ -5360,43 +5869,43 @@
     <row r="20" spans="1:3">
       <c r="A20">
         <f>[3]Sheet1!A20</f>
-        <v>0</v>
+        <v>40215</v>
       </c>
       <c r="B20">
         <f>[3]Sheet1!B20</f>
-        <v>0</v>
-      </c>
-      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="str">
         <f>[3]Sheet1!C20</f>
-        <v>0</v>
+        <v>CFP Update and misc</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
         <f>[3]Sheet1!A21</f>
-        <v>0</v>
+        <v>40229</v>
       </c>
       <c r="B21">
         <f>[3]Sheet1!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="C21" t="str">
         <f>[3]Sheet1!C21</f>
-        <v>0</v>
+        <v>Group Meeting on Skype</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
         <f>[3]Sheet1!A22</f>
-        <v>0</v>
+        <v>40232</v>
       </c>
       <c r="B22">
         <f>[3]Sheet1!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="str">
         <f>[3]Sheet1!C22</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6526,9 +7035,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>[4]Sheet1!A2</f>
-        <v>1/5/2010</v>
+        <v>40183</v>
       </c>
       <c r="B2">
         <f>[4]Sheet1!B2</f>
@@ -6540,9 +7049,9 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="str">
+      <c r="A3">
         <f>[4]Sheet1!A3</f>
-        <v>1/7/2010</v>
+        <v>40185</v>
       </c>
       <c r="B3">
         <f>[4]Sheet1!B3</f>
@@ -6554,9 +7063,9 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="str">
+      <c r="A4">
         <f>[4]Sheet1!A4</f>
-        <v>1/8/2010</v>
+        <v>40186</v>
       </c>
       <c r="B4">
         <f>[4]Sheet1!B4</f>
@@ -6568,9 +7077,9 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="str">
+      <c r="A5">
         <f>[4]Sheet1!A5</f>
-        <v>1/9/2010</v>
+        <v>40187</v>
       </c>
       <c r="B5">
         <f>[4]Sheet1!B5</f>
@@ -6582,9 +7091,9 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="str">
+      <c r="A6">
         <f>[4]Sheet1!A6</f>
-        <v>1/11/2010</v>
+        <v>40189</v>
       </c>
       <c r="B6">
         <f>[4]Sheet1!B6</f>
@@ -6596,9 +7105,9 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="str">
+      <c r="A7">
         <f>[4]Sheet1!A7</f>
-        <v>1/12/2010</v>
+        <v>40190</v>
       </c>
       <c r="B7">
         <f>[4]Sheet1!B7</f>
@@ -6610,9 +7119,9 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="str">
+      <c r="A8">
         <f>[4]Sheet1!A8</f>
-        <v>1/12/2010</v>
+        <v>40190</v>
       </c>
       <c r="B8">
         <f>[4]Sheet1!B8</f>
@@ -6624,9 +7133,9 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="str">
+      <c r="A9">
         <f>[4]Sheet1!A9</f>
-        <v>1/19/2010</v>
+        <v>40197</v>
       </c>
       <c r="B9">
         <f>[4]Sheet1!B9</f>
@@ -6638,9 +7147,9 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="str">
+      <c r="A10">
         <f>[4]Sheet1!A10</f>
-        <v>1/19/2010</v>
+        <v>40197</v>
       </c>
       <c r="B10">
         <f>[4]Sheet1!B10</f>
@@ -6652,9 +7161,9 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="str">
+      <c r="A11">
         <f>[4]Sheet1!A11</f>
-        <v>1/21/2010</v>
+        <v>40199</v>
       </c>
       <c r="B11">
         <f>[4]Sheet1!B11</f>
@@ -6666,9 +7175,9 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="str">
+      <c r="A12">
         <f>[4]Sheet1!A12</f>
-        <v>1/24/2010</v>
+        <v>40202</v>
       </c>
       <c r="B12">
         <f>[4]Sheet1!B12</f>
@@ -6680,9 +7189,9 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="str">
+      <c r="A13">
         <f>[4]Sheet1!A13</f>
-        <v>1/26/2010</v>
+        <v>40204</v>
       </c>
       <c r="B13">
         <f>[4]Sheet1!B13</f>
@@ -6694,9 +7203,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="str">
+      <c r="A14">
         <f>[4]Sheet1!A14</f>
-        <v>1/26/2010</v>
+        <v>40204</v>
       </c>
       <c r="B14">
         <f>[4]Sheet1!B14</f>
@@ -6708,9 +7217,9 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="str">
+      <c r="A15">
         <f>[4]Sheet1!A15</f>
-        <v>1/27/2010</v>
+        <v>40205</v>
       </c>
       <c r="B15">
         <f>[4]Sheet1!B15</f>
@@ -6722,9 +7231,9 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="str">
+      <c r="A16">
         <f>[4]Sheet1!A16</f>
-        <v>1/28/2010</v>
+        <v>40206</v>
       </c>
       <c r="B16">
         <f>[4]Sheet1!B16</f>
@@ -6736,9 +7245,9 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="str">
+      <c r="A17">
         <f>[4]Sheet1!A17</f>
-        <v>2/1/2010</v>
+        <v>40210</v>
       </c>
       <c r="B17">
         <f>[4]Sheet1!B17</f>
@@ -6750,9 +7259,9 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="str">
+      <c r="A18">
         <f>[4]Sheet1!A18</f>
-        <v>2/1/2010</v>
+        <v>40210</v>
       </c>
       <c r="B18">
         <f>[4]Sheet1!B18</f>
@@ -6764,9 +7273,9 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="str">
+      <c r="A19">
         <f>[4]Sheet1!A19</f>
-        <v>2/1/2010</v>
+        <v>40210</v>
       </c>
       <c r="B19">
         <f>[4]Sheet1!B19</f>
@@ -6778,9 +7287,9 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="str">
+      <c r="A20">
         <f>[4]Sheet1!A20</f>
-        <v>2/2/2010</v>
+        <v>40211</v>
       </c>
       <c r="B20">
         <f>[4]Sheet1!B20</f>
@@ -6794,99 +7303,99 @@
     <row r="21" spans="1:3">
       <c r="A21">
         <f>[4]Sheet1!A21</f>
-        <v>0</v>
+        <v>40213</v>
       </c>
       <c r="B21">
         <f>[4]Sheet1!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="str">
         <f>[4]Sheet1!C21</f>
-        <v>0</v>
+        <v>Encoder Research</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
         <f>[4]Sheet1!A22</f>
-        <v>0</v>
+        <v>40217</v>
       </c>
       <c r="B22">
         <f>[4]Sheet1!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C22">
+        <v>1.5</v>
+      </c>
+      <c r="C22" t="str">
         <f>[4]Sheet1!C22</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
         <f>[4]Sheet1!A23</f>
-        <v>0</v>
+        <v>40217</v>
       </c>
       <c r="B23">
         <f>[4]Sheet1!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
         <f>[4]Sheet1!C23</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
         <f>[4]Sheet1!A24</f>
-        <v>0</v>
+        <v>40220</v>
       </c>
       <c r="B24">
         <f>[4]Sheet1!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="str">
         <f>[4]Sheet1!C24</f>
-        <v>0</v>
+        <v>Design and Decision Meeting</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
         <f>[4]Sheet1!A25</f>
-        <v>0</v>
+        <v>40227</v>
       </c>
       <c r="B25">
         <f>[4]Sheet1!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
         <f>[4]Sheet1!C25</f>
-        <v>0</v>
+        <v>Group Meeting on Skype</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
         <f>[4]Sheet1!A26</f>
-        <v>0</v>
+        <v>40231</v>
       </c>
       <c r="B26">
         <f>[4]Sheet1!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="str">
         <f>[4]Sheet1!C26</f>
-        <v>0</v>
+        <v>Motor controller cables order</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
         <f>[4]Sheet1!A27</f>
-        <v>0</v>
+        <v>40232</v>
       </c>
       <c r="B27">
         <f>[4]Sheet1!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="str">
         <f>[4]Sheet1!C27</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7946,9 +8455,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>[5]Sheet1!A2</f>
-        <v>1/5/2010</v>
+        <v>40183</v>
       </c>
       <c r="B2">
         <f>[5]Sheet1!B2</f>
@@ -7960,9 +8469,9 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="str">
+      <c r="A3">
         <f>[5]Sheet1!A3</f>
-        <v>1/5/2010</v>
+        <v>40183</v>
       </c>
       <c r="B3">
         <f>[5]Sheet1!B3</f>
@@ -7974,9 +8483,9 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="str">
+      <c r="A4">
         <f>[5]Sheet1!A4</f>
-        <v>1/7/2010</v>
+        <v>40185</v>
       </c>
       <c r="B4">
         <f>[5]Sheet1!B4</f>
@@ -7988,9 +8497,9 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="str">
+      <c r="A5">
         <f>[5]Sheet1!A5</f>
-        <v>1/7/2010</v>
+        <v>40185</v>
       </c>
       <c r="B5">
         <f>[5]Sheet1!B5</f>
@@ -8002,9 +8511,9 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="str">
+      <c r="A6">
         <f>[5]Sheet1!A6</f>
-        <v>1/8/2010</v>
+        <v>40186</v>
       </c>
       <c r="B6">
         <f>[5]Sheet1!B6</f>
@@ -8016,9 +8525,9 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="str">
+      <c r="A7">
         <f>[5]Sheet1!A7</f>
-        <v>1/9/2010</v>
+        <v>40187</v>
       </c>
       <c r="B7">
         <f>[5]Sheet1!B7</f>
@@ -8030,9 +8539,9 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="str">
+      <c r="A8">
         <f>[5]Sheet1!A8</f>
-        <v>1/10/2010</v>
+        <v>40188</v>
       </c>
       <c r="B8">
         <f>[5]Sheet1!B8</f>
@@ -8044,9 +8553,9 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="str">
+      <c r="A9">
         <f>[5]Sheet1!A9</f>
-        <v>1/12/2010</v>
+        <v>40190</v>
       </c>
       <c r="B9">
         <f>[5]Sheet1!B9</f>
@@ -8058,9 +8567,9 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="str">
+      <c r="A10">
         <f>[5]Sheet1!A10</f>
-        <v>1/19/2010</v>
+        <v>40197</v>
       </c>
       <c r="B10">
         <f>[5]Sheet1!B10</f>
@@ -8072,9 +8581,9 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="str">
+      <c r="A11">
         <f>[5]Sheet1!A11</f>
-        <v>1/19/2010</v>
+        <v>40197</v>
       </c>
       <c r="B11">
         <f>[5]Sheet1!B11</f>
@@ -8086,9 +8595,9 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="str">
+      <c r="A12">
         <f>[5]Sheet1!A12</f>
-        <v>1/19/2010</v>
+        <v>40197</v>
       </c>
       <c r="B12">
         <f>[5]Sheet1!B12</f>
@@ -8100,9 +8609,9 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="str">
+      <c r="A13">
         <f>[5]Sheet1!A13</f>
-        <v>1/20/2010</v>
+        <v>40198</v>
       </c>
       <c r="B13">
         <f>[5]Sheet1!B13</f>
@@ -8114,9 +8623,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="str">
+      <c r="A14">
         <f>[5]Sheet1!A14</f>
-        <v>1/21/2010</v>
+        <v>40199</v>
       </c>
       <c r="B14">
         <f>[5]Sheet1!B14</f>
@@ -8128,9 +8637,9 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="str">
+      <c r="A15">
         <f>[5]Sheet1!A15</f>
-        <v>1/23/2010</v>
+        <v>40201</v>
       </c>
       <c r="B15">
         <f>[5]Sheet1!B15</f>
@@ -8142,9 +8651,9 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="str">
+      <c r="A16">
         <f>[5]Sheet1!A16</f>
-        <v>1/24/2010</v>
+        <v>40202</v>
       </c>
       <c r="B16">
         <f>[5]Sheet1!B16</f>
@@ -8156,9 +8665,9 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="str">
+      <c r="A17">
         <f>[5]Sheet1!A17</f>
-        <v>1/26/2010</v>
+        <v>40204</v>
       </c>
       <c r="B17">
         <f>[5]Sheet1!B17</f>
@@ -8170,9 +8679,9 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="str">
+      <c r="A18">
         <f>[5]Sheet1!A18</f>
-        <v>1/26/2010</v>
+        <v>40204</v>
       </c>
       <c r="B18">
         <f>[5]Sheet1!B18</f>
@@ -8184,9 +8693,9 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="str">
+      <c r="A19">
         <f>[5]Sheet1!A19</f>
-        <v>1/27/2010</v>
+        <v>40205</v>
       </c>
       <c r="B19">
         <f>[5]Sheet1!B19</f>
@@ -8198,9 +8707,9 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="str">
+      <c r="A20">
         <f>[5]Sheet1!A20</f>
-        <v>1/28/2010</v>
+        <v>40206</v>
       </c>
       <c r="B20">
         <f>[5]Sheet1!B20</f>
@@ -8212,9 +8721,9 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="str">
+      <c r="A21">
         <f>[5]Sheet1!A21</f>
-        <v>2/1/2010</v>
+        <v>40210</v>
       </c>
       <c r="B21">
         <f>[5]Sheet1!B21</f>
@@ -8226,9 +8735,9 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="str">
+      <c r="A22">
         <f>[5]Sheet1!A22</f>
-        <v>2/1/2010</v>
+        <v>40210</v>
       </c>
       <c r="B22">
         <f>[5]Sheet1!B22</f>
@@ -8240,9 +8749,9 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="str">
+      <c r="A23">
         <f>[5]Sheet1!A23</f>
-        <v>2/2/2010</v>
+        <v>40211</v>
       </c>
       <c r="B23">
         <f>[5]Sheet1!B23</f>
@@ -8256,99 +8765,99 @@
     <row r="24" spans="1:3">
       <c r="A24">
         <f>[5]Sheet1!A24</f>
-        <v>0</v>
+        <v>40213</v>
       </c>
       <c r="B24">
         <f>[5]Sheet1!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="str">
         <f>[5]Sheet1!C24</f>
-        <v>0</v>
+        <v>Design breakdown</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
         <f>[5]Sheet1!A25</f>
-        <v>0</v>
+        <v>40217</v>
       </c>
       <c r="B25">
         <f>[5]Sheet1!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C25">
+        <v>1.5</v>
+      </c>
+      <c r="C25" t="str">
         <f>[5]Sheet1!C25</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
         <f>[5]Sheet1!A26</f>
-        <v>0</v>
+        <v>40217</v>
       </c>
       <c r="B26">
         <f>[5]Sheet1!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
         <f>[5]Sheet1!C26</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
         <f>[5]Sheet1!A27</f>
-        <v>0</v>
+        <v>40220</v>
       </c>
       <c r="B27">
         <f>[5]Sheet1!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="str">
         <f>[5]Sheet1!C27</f>
-        <v>0</v>
+        <v>Design and Decision Meeting</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
         <f>[5]Sheet1!A28</f>
-        <v>0</v>
+        <v>40227</v>
       </c>
       <c r="B28">
         <f>[5]Sheet1!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
         <f>[5]Sheet1!C28</f>
-        <v>0</v>
+        <v>Group Meeting on Skype</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
         <f>[5]Sheet1!A29</f>
-        <v>0</v>
+        <v>40229</v>
       </c>
       <c r="B29">
         <f>[5]Sheet1!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="str">
         <f>[5]Sheet1!C29</f>
-        <v>0</v>
+        <v>Group Meeting on Skype</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <f>[5]Sheet1!A30</f>
-        <v>0</v>
+        <v>40232</v>
       </c>
       <c r="B30">
         <f>[5]Sheet1!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="str">
         <f>[5]Sheet1!C30</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="31" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -83,8 +83,8 @@
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -196,10 +196,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -271,10 +271,10 @@
                   <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.75</c:v>
+                  <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49.5</c:v>
@@ -286,24 +286,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="48433408"/>
-        <c:axId val="118430336"/>
+        <c:axId val="64340352"/>
+        <c:axId val="64341888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48433408"/>
+        <c:axId val="64340352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118430336"/>
+        <c:crossAx val="64341888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118430336"/>
+        <c:axId val="64341888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +311,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48433408"/>
+        <c:crossAx val="64340352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -324,7 +324,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1335,6 +1335,39 @@
             <v>Motor Testing</v>
           </cell>
         </row>
+        <row r="50">
+          <cell r="A50">
+            <v>40234</v>
+          </cell>
+          <cell r="B50">
+            <v>3</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>QNX - testing gpio</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>40236</v>
+          </cell>
+          <cell r="B51">
+            <v>4</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>QNX - testing gpio</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>40237</v>
+          </cell>
+          <cell r="B52">
+            <v>4</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>QNX - testing gpio</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -1593,6 +1626,17 @@
           </cell>
           <cell r="C22" t="str">
             <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>40237</v>
+          </cell>
+          <cell r="B23">
+            <v>2</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Experimental Procedure</v>
           </cell>
         </row>
       </sheetData>
@@ -2554,7 +2598,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2600,7 +2644,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
@@ -2608,7 +2652,7 @@
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2617,7 +2661,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>16.75</v>
+        <v>18.75</v>
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
@@ -2625,7 +2669,7 @@
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>34.75</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2668,7 +2712,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>144.75</v>
+        <v>157.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -2676,7 +2720,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>285.75</v>
+        <v>298.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2685,15 +2729,15 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>28.95</v>
+        <v>31.55</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:D9" si="2">C7/5</f>
+        <f t="shared" ref="C8:D8" si="2">C7/5</f>
         <v>28.2</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>57.15</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2702,15 +2746,15 @@
       </c>
       <c r="B9" s="9">
         <f ca="1">B8/$B$11</f>
-        <v>3.8971153846153843</v>
+        <v>3.8745614035087721</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.796153846153846</v>
+        <v>3.4631578947368422</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6932692307692303</v>
+        <v>7.3377192982456148</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2723,7 +2767,7 @@
       </c>
       <c r="B11" s="10">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>7.4285714285714288</v>
+        <v>8.1428571428571423</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -4868,43 +4912,43 @@
     <row r="50" spans="1:3">
       <c r="A50" s="6">
         <f>[2]Sheet1!A50</f>
-        <v>0</v>
+        <v>40234</v>
       </c>
       <c r="B50">
         <f>[2]Sheet1!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="str">
         <f>[2]Sheet1!C50</f>
-        <v>0</v>
+        <v>QNX - testing gpio</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="6">
         <f>[2]Sheet1!A51</f>
-        <v>0</v>
+        <v>40236</v>
       </c>
       <c r="B51">
         <f>[2]Sheet1!B51</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="str">
         <f>[2]Sheet1!C51</f>
-        <v>0</v>
+        <v>QNX - testing gpio</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="6">
         <f>[2]Sheet1!A52</f>
-        <v>0</v>
+        <v>40237</v>
       </c>
       <c r="B52">
         <f>[2]Sheet1!B52</f>
-        <v>0</v>
-      </c>
-      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="str">
         <f>[2]Sheet1!C52</f>
-        <v>0</v>
+        <v>QNX - testing gpio</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5911,15 +5955,15 @@
     <row r="23" spans="1:3">
       <c r="A23">
         <f>[3]Sheet1!A23</f>
-        <v>0</v>
+        <v>40237</v>
       </c>
       <c r="B23">
         <f>[3]Sheet1!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="str">
         <f>[3]Sheet1!C23</f>
-        <v>0</v>
+        <v>Experimental Procedure</v>
       </c>
     </row>
     <row r="24" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -268,16 +268,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>48.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>106.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.75</c:v>
+                  <c:v>35.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>57</c:v>
@@ -286,24 +286,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64340352"/>
-        <c:axId val="64341888"/>
+        <c:axId val="57877632"/>
+        <c:axId val="57879168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64340352"/>
+        <c:axId val="57877632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64341888"/>
+        <c:crossAx val="57879168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64341888"/>
+        <c:axId val="57879168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +311,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64340352"/>
+        <c:crossAx val="57877632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,10 +728,26 @@
           </cell>
         </row>
         <row r="33">
-          <cell r="A33"/>
+          <cell r="A33">
+            <v>40239</v>
+          </cell>
+          <cell r="B33">
+            <v>1.5</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Group Meeting</v>
+          </cell>
         </row>
         <row r="34">
-          <cell r="A34"/>
+          <cell r="A34">
+            <v>40239</v>
+          </cell>
+          <cell r="B34">
+            <v>1</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="A35"/>
@@ -1337,35 +1353,35 @@
         </row>
         <row r="50">
           <cell r="A50">
-            <v>40234</v>
+            <v>40239</v>
           </cell>
           <cell r="B50">
-            <v>3</v>
+            <v>1.5</v>
           </cell>
           <cell r="C50" t="str">
-            <v>QNX - testing gpio</v>
+            <v>Group Meeting</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>40236</v>
+            <v>40239</v>
           </cell>
           <cell r="B51">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="C51" t="str">
-            <v>QNX - testing gpio</v>
+            <v>Weekly Meeting</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>40237</v>
+            <v>40240</v>
           </cell>
           <cell r="B52">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="C52" t="str">
-            <v>QNX - testing gpio</v>
+            <v>QNX GPIO debug</v>
           </cell>
         </row>
       </sheetData>
@@ -1630,13 +1646,13 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>40237</v>
+            <v>40239</v>
           </cell>
           <cell r="B23">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Experimental Procedure</v>
+            <v>Weekly Meeting</v>
           </cell>
         </row>
       </sheetData>
@@ -1952,6 +1968,28 @@
           </cell>
           <cell r="C27" t="str">
             <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>40239</v>
+          </cell>
+          <cell r="B28">
+            <v>1.5</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>40239</v>
+          </cell>
+          <cell r="B29">
+            <v>1</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Weekly Meeting</v>
           </cell>
         </row>
       </sheetData>
@@ -2598,7 +2636,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2631,11 +2669,11 @@
       </c>
       <c r="C2">
         <f>SUMIF(david!C:C,"*meeting*",david!B:B)</f>
-        <v>27.5</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <f>SUM(david!B:B)</f>
-        <v>48.5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2644,15 +2682,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
-        <v>35</v>
+        <v>37.5</v>
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>107</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2661,15 +2699,15 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>18.75</v>
+        <v>16.75</v>
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>36.75</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2682,11 +2720,11 @@
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
-        <v>30.5</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>49.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" thickBot="1">
@@ -2712,15 +2750,15 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>157.75</v>
+        <v>152.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>149.5</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>298.75</v>
+        <v>302.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2729,15 +2767,15 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>31.55</v>
+        <v>30.55</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
-        <v>28.2</v>
+        <v>29.9</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>59.75</v>
+        <v>60.45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2746,15 +2784,15 @@
       </c>
       <c r="B9" s="9">
         <f ca="1">B8/$B$11</f>
-        <v>3.8745614035087721</v>
+        <v>3.6245762711864407</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.4631578947368422</v>
+        <v>3.5474576271186438</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3377192982456148</v>
+        <v>7.1720338983050853</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2767,7 +2805,7 @@
       </c>
       <c r="B11" s="10">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>8.1428571428571423</v>
+        <v>8.4285714285714288</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -3253,29 +3291,29 @@
     <row r="33" spans="1:3">
       <c r="A33">
         <f>[1]Sheet1!A33</f>
-        <v>0</v>
+        <v>40239</v>
       </c>
       <c r="B33">
         <f>[1]Sheet1!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="C33" t="str">
         <f>[1]Sheet1!C33</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
         <f>[1]Sheet1!A34</f>
-        <v>0</v>
+        <v>40239</v>
       </c>
       <c r="B34">
         <f>[1]Sheet1!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="str">
         <f>[1]Sheet1!C34</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4912,43 +4950,43 @@
     <row r="50" spans="1:3">
       <c r="A50" s="6">
         <f>[2]Sheet1!A50</f>
-        <v>40234</v>
+        <v>40239</v>
       </c>
       <c r="B50">
         <f>[2]Sheet1!B50</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C50" t="str">
         <f>[2]Sheet1!C50</f>
-        <v>QNX - testing gpio</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="6">
         <f>[2]Sheet1!A51</f>
-        <v>40236</v>
+        <v>40239</v>
       </c>
       <c r="B51">
         <f>[2]Sheet1!B51</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" t="str">
         <f>[2]Sheet1!C51</f>
-        <v>QNX - testing gpio</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="6">
         <f>[2]Sheet1!A52</f>
-        <v>40237</v>
+        <v>40240</v>
       </c>
       <c r="B52">
         <f>[2]Sheet1!B52</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C52" t="str">
         <f>[2]Sheet1!C52</f>
-        <v>QNX - testing gpio</v>
+        <v>QNX GPIO debug</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5955,15 +5993,15 @@
     <row r="23" spans="1:3">
       <c r="A23">
         <f>[3]Sheet1!A23</f>
-        <v>40237</v>
+        <v>40239</v>
       </c>
       <c r="B23">
         <f>[3]Sheet1!B23</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="str">
         <f>[3]Sheet1!C23</f>
-        <v>Experimental Procedure</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7445,29 +7483,29 @@
     <row r="28" spans="1:3">
       <c r="A28">
         <f>[4]Sheet1!A28</f>
-        <v>0</v>
+        <v>40239</v>
       </c>
       <c r="B28">
         <f>[4]Sheet1!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C28">
+        <v>1.5</v>
+      </c>
+      <c r="C28" t="str">
         <f>[4]Sheet1!C28</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
         <f>[4]Sheet1!A29</f>
-        <v>0</v>
+        <v>40239</v>
       </c>
       <c r="B29">
         <f>[4]Sheet1!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="str">
         <f>[4]Sheet1!C29</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="30" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ja-JP"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -227,6 +224,130 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Working Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>all!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>David</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Davy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Erica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ibrahim</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Nich</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meeting Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>all!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>David</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Davy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Erica</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ibrahim</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Nich</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>all!$D$1</c:f>
@@ -268,42 +389,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.5</c:v>
+                  <c:v>108.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.75</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="57877632"/>
-        <c:axId val="57879168"/>
+        <c:axId val="64017920"/>
+        <c:axId val="64019456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57877632"/>
+        <c:axId val="64017920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57879168"/>
+        <c:crossAx val="64019456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57879168"/>
+        <c:axId val="64019456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +432,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57877632"/>
+        <c:crossAx val="64017920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -324,7 +445,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -387,8 +508,8 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2" t="str">
-            <v>1/5/2010</v>
+          <cell r="A2">
+            <v>40183</v>
           </cell>
           <cell r="B2">
             <v>1</v>
@@ -398,8 +519,8 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>1/5/2010</v>
+          <cell r="A3">
+            <v>40183</v>
           </cell>
           <cell r="B3">
             <v>3</v>
@@ -409,8 +530,8 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>1/7/2010</v>
+          <cell r="A4">
+            <v>40185</v>
           </cell>
           <cell r="B4">
             <v>3</v>
@@ -420,8 +541,8 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>1/8/2010</v>
+          <cell r="A5">
+            <v>40186</v>
           </cell>
           <cell r="B5">
             <v>2</v>
@@ -431,8 +552,8 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>1/9/2010</v>
+          <cell r="A6">
+            <v>40187</v>
           </cell>
           <cell r="B6">
             <v>0.5</v>
@@ -707,77 +828,124 @@
         </row>
         <row r="31">
           <cell r="A31">
-            <v>40229</v>
+            <v>40228</v>
           </cell>
           <cell r="B31">
-            <v>1</v>
+            <v>12</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Group Meeting on Skype</v>
+            <v>Solid Modeling of design (span of reading break)</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>40232</v>
+            <v>40228</v>
           </cell>
           <cell r="B32">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="C32" t="str">
-            <v>Group Meeting</v>
+            <v>Joint 1-2 design</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>40239</v>
+            <v>40228</v>
           </cell>
           <cell r="B33">
-            <v>1.5</v>
+            <v>4</v>
           </cell>
           <cell r="C33" t="str">
-            <v>Group Meeting</v>
+            <v>Bearing selection and research for joint 1-2</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>40239</v>
+            <v>40229</v>
           </cell>
           <cell r="B34">
             <v>1</v>
           </cell>
           <cell r="C34" t="str">
+            <v>Group Meeting on Skype</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>40232</v>
+          </cell>
+          <cell r="B35">
+            <v>3</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>40239</v>
+          </cell>
+          <cell r="B36">
+            <v>1.5</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>40239</v>
+          </cell>
+          <cell r="B37">
+            <v>1</v>
+          </cell>
+          <cell r="C37" t="str">
             <v>Weekly Meeting</v>
           </cell>
         </row>
-        <row r="35">
-          <cell r="A35"/>
-        </row>
-        <row r="36">
-          <cell r="A36"/>
-        </row>
-        <row r="37">
-          <cell r="A37"/>
-        </row>
         <row r="38">
-          <cell r="A38"/>
+          <cell r="A38">
+            <v>40238</v>
+          </cell>
+          <cell r="B38">
+            <v>2</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Power supply research</v>
+          </cell>
         </row>
         <row r="39">
-          <cell r="A39"/>
+          <cell r="A39">
+            <v>40238</v>
+          </cell>
+          <cell r="B39">
+            <v>2</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Preliminary wiring harness design</v>
+          </cell>
         </row>
         <row r="40">
-          <cell r="A40"/>
+          <cell r="A40">
+            <v>40239</v>
+          </cell>
+          <cell r="B40">
+            <v>1</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Trying to understand the bone mount</v>
+          </cell>
         </row>
         <row r="41">
-          <cell r="A41"/>
-        </row>
-        <row r="42">
-          <cell r="A42"/>
-        </row>
-        <row r="43">
-          <cell r="A43"/>
-        </row>
-        <row r="44">
-          <cell r="A44"/>
+          <cell r="A41">
+            <v>40243</v>
+          </cell>
+          <cell r="B41">
+            <v>3</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Log book catch-up</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="A45"/>
@@ -1384,6 +1552,17 @@
             <v>QNX GPIO debug</v>
           </cell>
         </row>
+        <row r="53">
+          <cell r="A53">
+            <v>40241</v>
+          </cell>
+          <cell r="B53">
+            <v>2</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -1655,6 +1834,17 @@
             <v>Weekly Meeting</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="A24">
+            <v>40241</v>
+          </cell>
+          <cell r="B24">
+            <v>2</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -1992,6 +2182,17 @@
             <v>Weekly Meeting</v>
           </cell>
         </row>
+        <row r="30">
+          <cell r="A30">
+            <v>40241</v>
+          </cell>
+          <cell r="B30">
+            <v>2</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2337,6 +2538,17 @@
             <v>3</v>
           </cell>
           <cell r="C30" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>40241</v>
+          </cell>
+          <cell r="B31">
+            <v>2</v>
+          </cell>
+          <cell r="C31" t="str">
             <v>Group Meeting</v>
           </cell>
         </row>
@@ -2636,7 +2848,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2665,7 +2877,7 @@
       </c>
       <c r="B2">
         <f>D2-C2</f>
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <f>SUMIF(david!C:C,"*meeting*",david!B:B)</f>
@@ -2673,7 +2885,7 @@
       </c>
       <c r="D2">
         <f>SUM(david!B:B)</f>
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2686,11 +2898,11 @@
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>106.5</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2703,11 +2915,11 @@
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>35.75</v>
+        <v>37.75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2720,11 +2932,11 @@
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" thickBot="1">
@@ -2737,11 +2949,11 @@
       </c>
       <c r="C6" s="1">
         <f>SUMIF(nicholas!C:C,"*meeting*",nicholas!B:B)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <f>SUM(nicholas!B:B)</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1">
@@ -2750,15 +2962,15 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>152.75</v>
+        <v>180.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>149.5</v>
+        <v>157.5</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>302.25</v>
+        <v>338.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2767,15 +2979,15 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>30.55</v>
+        <v>36.15</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
-        <v>29.9</v>
+        <v>31.5</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>60.45</v>
+        <v>67.650000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2784,15 +2996,15 @@
       </c>
       <c r="B9" s="9">
         <f ca="1">B8/$B$11</f>
-        <v>3.6245762711864407</v>
+        <v>4.1483606557377053</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.5474576271186438</v>
+        <v>3.6147540983606561</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1720338983050853</v>
+        <v>7.7631147540983623</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2805,7 +3017,7 @@
       </c>
       <c r="B11" s="10">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>8.4285714285714288</v>
+        <v>8.7142857142857135</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -2855,9 +3067,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>[1]Sheet1!A2</f>
-        <v>1/5/2010</v>
+        <v>40183</v>
       </c>
       <c r="B2">
         <f>[1]Sheet1!B2</f>
@@ -2869,9 +3081,9 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="str">
+      <c r="A3">
         <f>[1]Sheet1!A3</f>
-        <v>1/5/2010</v>
+        <v>40183</v>
       </c>
       <c r="B3">
         <f>[1]Sheet1!B3</f>
@@ -2883,9 +3095,9 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="str">
+      <c r="A4">
         <f>[1]Sheet1!A4</f>
-        <v>1/7/2010</v>
+        <v>40185</v>
       </c>
       <c r="B4">
         <f>[1]Sheet1!B4</f>
@@ -2897,9 +3109,9 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="str">
+      <c r="A5">
         <f>[1]Sheet1!A5</f>
-        <v>1/8/2010</v>
+        <v>40186</v>
       </c>
       <c r="B5">
         <f>[1]Sheet1!B5</f>
@@ -2911,9 +3123,9 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="str">
+      <c r="A6">
         <f>[1]Sheet1!A6</f>
-        <v>1/9/2010</v>
+        <v>40187</v>
       </c>
       <c r="B6">
         <f>[1]Sheet1!B6</f>
@@ -3263,49 +3475,49 @@
     <row r="31" spans="1:3">
       <c r="A31">
         <f>[1]Sheet1!A31</f>
-        <v>40229</v>
+        <v>40228</v>
       </c>
       <c r="B31">
         <f>[1]Sheet1!B31</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C31" t="str">
         <f>[1]Sheet1!C31</f>
-        <v>Group Meeting on Skype</v>
+        <v>Solid Modeling of design (span of reading break)</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <f>[1]Sheet1!A32</f>
-        <v>40232</v>
+        <v>40228</v>
       </c>
       <c r="B32">
         <f>[1]Sheet1!B32</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="str">
         <f>[1]Sheet1!C32</f>
-        <v>Group Meeting</v>
+        <v>Joint 1-2 design</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
         <f>[1]Sheet1!A33</f>
-        <v>40239</v>
+        <v>40228</v>
       </c>
       <c r="B33">
         <f>[1]Sheet1!B33</f>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="str">
         <f>[1]Sheet1!C33</f>
-        <v>Group Meeting</v>
+        <v>Bearing selection and research for joint 1-2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
         <f>[1]Sheet1!A34</f>
-        <v>40239</v>
+        <v>40229</v>
       </c>
       <c r="B34">
         <f>[1]Sheet1!B34</f>
@@ -3313,105 +3525,105 @@
       </c>
       <c r="C34" t="str">
         <f>[1]Sheet1!C34</f>
-        <v>Weekly Meeting</v>
+        <v>Group Meeting on Skype</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
         <f>[1]Sheet1!A35</f>
-        <v>0</v>
+        <v>40232</v>
       </c>
       <c r="B35">
         <f>[1]Sheet1!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="str">
         <f>[1]Sheet1!C35</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
         <f>[1]Sheet1!A36</f>
-        <v>0</v>
+        <v>40239</v>
       </c>
       <c r="B36">
         <f>[1]Sheet1!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C36">
+        <v>1.5</v>
+      </c>
+      <c r="C36" t="str">
         <f>[1]Sheet1!C36</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
         <f>[1]Sheet1!A37</f>
-        <v>0</v>
+        <v>40239</v>
       </c>
       <c r="B37">
         <f>[1]Sheet1!B37</f>
-        <v>0</v>
-      </c>
-      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
         <f>[1]Sheet1!C37</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
         <f>[1]Sheet1!A38</f>
-        <v>0</v>
+        <v>40238</v>
       </c>
       <c r="B38">
         <f>[1]Sheet1!B38</f>
-        <v>0</v>
-      </c>
-      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="str">
         <f>[1]Sheet1!C38</f>
-        <v>0</v>
+        <v>Power supply research</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
         <f>[1]Sheet1!A39</f>
-        <v>0</v>
+        <v>40238</v>
       </c>
       <c r="B39">
         <f>[1]Sheet1!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
         <f>[1]Sheet1!C39</f>
-        <v>0</v>
+        <v>Preliminary wiring harness design</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
         <f>[1]Sheet1!A40</f>
-        <v>0</v>
+        <v>40239</v>
       </c>
       <c r="B40">
         <f>[1]Sheet1!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
         <f>[1]Sheet1!C40</f>
-        <v>0</v>
+        <v>Trying to understand the bone mount</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
         <f>[1]Sheet1!A41</f>
-        <v>0</v>
+        <v>40243</v>
       </c>
       <c r="B41">
         <f>[1]Sheet1!B41</f>
-        <v>0</v>
-      </c>
-      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="str">
         <f>[1]Sheet1!C41</f>
-        <v>0</v>
+        <v>Log book catch-up</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4992,15 +5204,15 @@
     <row r="53" spans="1:3">
       <c r="A53" s="6">
         <f>[2]Sheet1!A53</f>
-        <v>0</v>
+        <v>40241</v>
       </c>
       <c r="B53">
         <f>[2]Sheet1!B53</f>
-        <v>0</v>
-      </c>
-      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
         <f>[2]Sheet1!C53</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6007,15 +6219,15 @@
     <row r="24" spans="1:3">
       <c r="A24">
         <f>[3]Sheet1!A24</f>
-        <v>0</v>
+        <v>40241</v>
       </c>
       <c r="B24">
         <f>[3]Sheet1!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="str">
         <f>[3]Sheet1!C24</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7511,15 +7723,15 @@
     <row r="30" spans="1:3">
       <c r="A30">
         <f>[4]Sheet1!A30</f>
-        <v>0</v>
+        <v>40241</v>
       </c>
       <c r="B30">
         <f>[4]Sheet1!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="str">
         <f>[4]Sheet1!C30</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8945,15 +9157,15 @@
     <row r="31" spans="1:3">
       <c r="A31">
         <f>[5]Sheet1!A31</f>
-        <v>0</v>
+        <v>40241</v>
       </c>
       <c r="B31">
         <f>[5]Sheet1!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="str">
         <f>[5]Sheet1!C31</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="32" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -268,7 +268,7 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16.75</c:v>
@@ -392,7 +392,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.5</c:v>
+                  <c:v>120.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>37.75</c:v>
@@ -407,24 +407,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64017920"/>
-        <c:axId val="64019456"/>
+        <c:axId val="127031936"/>
+        <c:axId val="127041920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64017920"/>
+        <c:axId val="127031936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64019456"/>
+        <c:crossAx val="127041920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64019456"/>
+        <c:axId val="127041920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +432,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64017920"/>
+        <c:crossAx val="127031936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -445,7 +445,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1561,6 +1561,28 @@
           </cell>
           <cell r="C53" t="str">
             <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>40243</v>
+          </cell>
+          <cell r="B54">
+            <v>4</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>QNX - Interrupts</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>40244</v>
+          </cell>
+          <cell r="B55">
+            <v>8</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>QNX - Interrupts</v>
           </cell>
         </row>
       </sheetData>
@@ -2894,7 +2916,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
@@ -2902,7 +2924,7 @@
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>108.5</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2962,7 +2984,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>180.75</v>
+        <v>192.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -2970,7 +2992,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>338.25</v>
+        <v>350.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2979,7 +3001,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>36.15</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
@@ -2987,7 +3009,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>67.650000000000006</v>
+        <v>70.05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2996,15 +3018,15 @@
       </c>
       <c r="B9" s="9">
         <f ca="1">B8/$B$11</f>
-        <v>4.1483606557377053</v>
+        <v>4.2833333333333332</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.6147540983606561</v>
+        <v>3.5</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7631147540983623</v>
+        <v>7.7833333333333332</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3017,7 +3039,7 @@
       </c>
       <c r="B11" s="10">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>8.7142857142857135</v>
+        <v>9</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -5218,29 +5240,29 @@
     <row r="54" spans="1:3">
       <c r="A54" s="6">
         <f>[2]Sheet1!A54</f>
-        <v>0</v>
+        <v>40243</v>
       </c>
       <c r="B54">
         <f>[2]Sheet1!B54</f>
-        <v>0</v>
-      </c>
-      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="str">
         <f>[2]Sheet1!C54</f>
-        <v>0</v>
+        <v>QNX - Interrupts</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="6">
         <f>[2]Sheet1!A55</f>
-        <v>0</v>
+        <v>40244</v>
       </c>
       <c r="B55">
         <f>[2]Sheet1!B55</f>
-        <v>0</v>
-      </c>
-      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="C55" t="str">
         <f>[2]Sheet1!C55</f>
-        <v>0</v>
+        <v>QNX - Interrupts</v>
       </c>
     </row>
     <row r="56" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -271,13 +271,13 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.75</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,36 +395,36 @@
                   <c:v>120.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.75</c:v>
+                  <c:v>39.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127031936"/>
-        <c:axId val="127041920"/>
+        <c:axId val="59233792"/>
+        <c:axId val="59235328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127031936"/>
+        <c:axId val="59233792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127041920"/>
+        <c:crossAx val="59235328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127041920"/>
+        <c:axId val="59235328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +432,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127031936"/>
+        <c:crossAx val="59233792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -445,7 +445,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1847,23 +1847,34 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>40239</v>
+            <v>40237</v>
           </cell>
           <cell r="B23">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Weekly Meeting</v>
+            <v>Experimental Procedure</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
+            <v>40239</v>
+          </cell>
+          <cell r="B24">
+            <v>1</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
             <v>40241</v>
           </cell>
-          <cell r="B24">
+          <cell r="B25">
             <v>2</v>
           </cell>
-          <cell r="C24" t="str">
+          <cell r="C25" t="str">
             <v>Group Meeting</v>
           </cell>
         </row>
@@ -2532,46 +2543,134 @@
         </row>
         <row r="28">
           <cell r="A28">
-            <v>40227</v>
+            <v>40223</v>
           </cell>
           <cell r="B28">
             <v>1</v>
           </cell>
           <cell r="C28" t="str">
-            <v>Group Meeting on Skype</v>
+            <v>Rotating base design</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>40229</v>
+            <v>40223</v>
           </cell>
           <cell r="B29">
             <v>1</v>
           </cell>
           <cell r="C29" t="str">
-            <v>Group Meeting on Skype</v>
+            <v>Sizing calculations</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>40232</v>
+            <v>40224</v>
           </cell>
           <cell r="B30">
             <v>3</v>
           </cell>
           <cell r="C30" t="str">
-            <v>Group Meeting</v>
+            <v>Coupling selection</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
+            <v>40227</v>
+          </cell>
+          <cell r="B31">
+            <v>1</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Group Meeting on Skype</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>40228</v>
+          </cell>
+          <cell r="B32">
+            <v>0.5</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Sizing calculations</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>40228</v>
+          </cell>
+          <cell r="B33">
+            <v>0.5</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Gear box calculations</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>40228</v>
+          </cell>
+          <cell r="B34">
+            <v>2</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Motor selection background</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>40229</v>
+          </cell>
+          <cell r="B35">
+            <v>1</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Group Meeting on Skype</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>40232</v>
+          </cell>
+          <cell r="B36">
+            <v>3</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>40232</v>
+          </cell>
+          <cell r="B37">
+            <v>0.5</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Maxon motor types</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
             <v>40241</v>
           </cell>
-          <cell r="B31">
+          <cell r="B38">
             <v>2</v>
           </cell>
-          <cell r="C31" t="str">
+          <cell r="C38" t="str">
             <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>40241</v>
+          </cell>
+          <cell r="B39">
+            <v>1</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Motor precision requirements</v>
           </cell>
         </row>
       </sheetData>
@@ -2933,7 +3032,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>16.75</v>
+        <v>18.75</v>
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
@@ -2941,7 +3040,7 @@
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>37.75</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2967,7 +3066,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>36.5</v>
       </c>
       <c r="C6" s="1">
         <f>SUMIF(nicholas!C:C,"*meeting*",nicholas!B:B)</f>
@@ -2975,7 +3074,7 @@
       </c>
       <c r="D6" s="1">
         <f>SUM(nicholas!B:B)</f>
-        <v>59</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1">
@@ -2984,7 +3083,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>192.75</v>
+        <v>204.25</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -2992,7 +3091,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>350.25</v>
+        <v>361.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3001,7 +3100,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>38.549999999999997</v>
+        <v>40.85</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
@@ -3009,7 +3108,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>70.05</v>
+        <v>72.349999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3018,7 +3117,7 @@
       </c>
       <c r="B9" s="9">
         <f ca="1">B8/$B$11</f>
-        <v>4.2833333333333332</v>
+        <v>4.5388888888888888</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
@@ -3026,7 +3125,7 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7833333333333332</v>
+        <v>8.0388888888888879</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6227,43 +6326,43 @@
     <row r="23" spans="1:3">
       <c r="A23">
         <f>[3]Sheet1!A23</f>
-        <v>40239</v>
+        <v>40237</v>
       </c>
       <c r="B23">
         <f>[3]Sheet1!B23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="str">
         <f>[3]Sheet1!C23</f>
-        <v>Weekly Meeting</v>
+        <v>Experimental Procedure</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
         <f>[3]Sheet1!A24</f>
-        <v>40241</v>
+        <v>40239</v>
       </c>
       <c r="B24">
         <f>[3]Sheet1!B24</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="str">
         <f>[3]Sheet1!C24</f>
-        <v>Group Meeting</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
         <f>[3]Sheet1!A25</f>
-        <v>0</v>
+        <v>40241</v>
       </c>
       <c r="B25">
         <f>[3]Sheet1!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="str">
         <f>[3]Sheet1!C25</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9137,7 +9236,7 @@
     <row r="28" spans="1:3">
       <c r="A28">
         <f>[5]Sheet1!A28</f>
-        <v>40227</v>
+        <v>40223</v>
       </c>
       <c r="B28">
         <f>[5]Sheet1!B28</f>
@@ -9145,13 +9244,13 @@
       </c>
       <c r="C28" t="str">
         <f>[5]Sheet1!C28</f>
-        <v>Group Meeting on Skype</v>
+        <v>Rotating base design</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
         <f>[5]Sheet1!A29</f>
-        <v>40229</v>
+        <v>40223</v>
       </c>
       <c r="B29">
         <f>[5]Sheet1!B29</f>
@@ -9159,13 +9258,13 @@
       </c>
       <c r="C29" t="str">
         <f>[5]Sheet1!C29</f>
-        <v>Group Meeting on Skype</v>
+        <v>Sizing calculations</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <f>[5]Sheet1!A30</f>
-        <v>40232</v>
+        <v>40224</v>
       </c>
       <c r="B30">
         <f>[5]Sheet1!B30</f>
@@ -9173,133 +9272,133 @@
       </c>
       <c r="C30" t="str">
         <f>[5]Sheet1!C30</f>
-        <v>Group Meeting</v>
+        <v>Coupling selection</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
         <f>[5]Sheet1!A31</f>
-        <v>40241</v>
+        <v>40227</v>
       </c>
       <c r="B31">
         <f>[5]Sheet1!B31</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="str">
         <f>[5]Sheet1!C31</f>
-        <v>Group Meeting</v>
+        <v>Group Meeting on Skype</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <f>[5]Sheet1!A32</f>
-        <v>0</v>
+        <v>40228</v>
       </c>
       <c r="B32">
         <f>[5]Sheet1!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="C32" t="str">
         <f>[5]Sheet1!C32</f>
-        <v>0</v>
+        <v>Sizing calculations</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
         <f>[5]Sheet1!A33</f>
-        <v>0</v>
+        <v>40228</v>
       </c>
       <c r="B33">
         <f>[5]Sheet1!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="C33" t="str">
         <f>[5]Sheet1!C33</f>
-        <v>0</v>
+        <v>Gear box calculations</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
         <f>[5]Sheet1!A34</f>
-        <v>0</v>
+        <v>40228</v>
       </c>
       <c r="B34">
         <f>[5]Sheet1!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="str">
         <f>[5]Sheet1!C34</f>
-        <v>0</v>
+        <v>Motor selection background</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
         <f>[5]Sheet1!A35</f>
-        <v>0</v>
+        <v>40229</v>
       </c>
       <c r="B35">
         <f>[5]Sheet1!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
         <f>[5]Sheet1!C35</f>
-        <v>0</v>
+        <v>Group Meeting on Skype</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
         <f>[5]Sheet1!A36</f>
-        <v>0</v>
+        <v>40232</v>
       </c>
       <c r="B36">
         <f>[5]Sheet1!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="str">
         <f>[5]Sheet1!C36</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
         <f>[5]Sheet1!A37</f>
-        <v>0</v>
+        <v>40232</v>
       </c>
       <c r="B37">
         <f>[5]Sheet1!B37</f>
-        <v>0</v>
-      </c>
-      <c r="C37">
+        <v>0.5</v>
+      </c>
+      <c r="C37" t="str">
         <f>[5]Sheet1!C37</f>
-        <v>0</v>
+        <v>Maxon motor types</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
         <f>[5]Sheet1!A38</f>
-        <v>0</v>
+        <v>40241</v>
       </c>
       <c r="B38">
         <f>[5]Sheet1!B38</f>
-        <v>0</v>
-      </c>
-      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="str">
         <f>[5]Sheet1!C38</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
         <f>[5]Sheet1!A39</f>
-        <v>0</v>
+        <v>40241</v>
       </c>
       <c r="B39">
         <f>[5]Sheet1!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="str">
         <f>[5]Sheet1!C39</f>
-        <v>0</v>
+        <v>Motor precision requirements</v>
       </c>
     </row>
     <row r="40" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -81,23 +81,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -105,7 +105,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -114,7 +114,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -122,7 +122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -164,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -193,19 +193,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="通貨" xfId="1" builtinId="7"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,7 +214,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -274,7 +274,7 @@
                   <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>36.5</c:v>
@@ -398,7 +398,7 @@
                   <c:v>39.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>68.5</c:v>
@@ -407,24 +407,34 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="59233792"/>
-        <c:axId val="59235328"/>
+        <c:axId val="93942912"/>
+        <c:axId val="93945216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59233792"/>
+        <c:axId val="93942912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59235328"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93945216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59235328"/>
+        <c:axId val="93945216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +442,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59233792"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93942912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -440,12 +460,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -948,19 +978,29 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="A45"/>
+          <cell r="A45">
+            <v>0</v>
+          </cell>
         </row>
         <row r="46">
-          <cell r="A46"/>
+          <cell r="A46">
+            <v>0</v>
+          </cell>
         </row>
         <row r="47">
-          <cell r="A47"/>
+          <cell r="A47">
+            <v>0</v>
+          </cell>
         </row>
         <row r="48">
-          <cell r="A48"/>
+          <cell r="A48">
+            <v>0</v>
+          </cell>
         </row>
         <row r="49">
-          <cell r="A49"/>
+          <cell r="A49">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -2226,6 +2266,50 @@
             <v>Group Meeting</v>
           </cell>
         </row>
+        <row r="31">
+          <cell r="A31">
+            <v>40243</v>
+          </cell>
+          <cell r="B31">
+            <v>5</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Preliminary Offest Joint Design</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>40245</v>
+          </cell>
+          <cell r="B32">
+            <v>6</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Detailed Offset Link/Link5/Tool Mount Drawings</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>40246</v>
+          </cell>
+          <cell r="B33">
+            <v>3</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Session 1 with Dave (design and solidworks) - Markus Talk</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>40247</v>
+          </cell>
+          <cell r="B34">
+            <v>2</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Session 2 with Dave (design and solidworks)</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2682,7 +2766,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2972,12 +3056,11 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3049,7 +3132,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
@@ -3057,10 +3140,10 @@
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" thickBot="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3077,13 +3160,13 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" thickTop="1">
+    <row r="7" spans="1:4" ht="15.75" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>204.25</v>
+        <v>220.25</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -3091,7 +3174,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>361.75</v>
+        <v>377.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3100,7 +3183,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>40.85</v>
+        <v>44.05</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
@@ -3108,7 +3191,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>72.349999999999994</v>
+        <v>75.55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3117,15 +3200,15 @@
       </c>
       <c r="B9" s="9">
         <f ca="1">B8/$B$11</f>
-        <v>4.5388888888888888</v>
+        <v>4.7438461538461532</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.5</v>
+        <v>3.3923076923076922</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0388888888888879</v>
+        <v>8.1361538461538458</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3138,7 +3221,7 @@
       </c>
       <c r="B11" s="10">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>9</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -3166,11 +3249,11 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4588,10 +4671,10 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6009,10 +6092,10 @@
       <selection sqref="A1:C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7429,10 +7512,10 @@
       <selection sqref="A1:C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7858,57 +7941,57 @@
     <row r="31" spans="1:3">
       <c r="A31">
         <f>[4]Sheet1!A31</f>
-        <v>0</v>
+        <v>40243</v>
       </c>
       <c r="B31">
         <f>[4]Sheet1!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="str">
         <f>[4]Sheet1!C31</f>
-        <v>0</v>
+        <v>Preliminary Offest Joint Design</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <f>[4]Sheet1!A32</f>
-        <v>0</v>
+        <v>40245</v>
       </c>
       <c r="B32">
         <f>[4]Sheet1!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="str">
         <f>[4]Sheet1!C32</f>
-        <v>0</v>
+        <v>Detailed Offset Link/Link5/Tool Mount Drawings</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
         <f>[4]Sheet1!A33</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B33">
         <f>[4]Sheet1!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="str">
         <f>[4]Sheet1!C33</f>
-        <v>0</v>
+        <v>Session 1 with Dave (design and solidworks) - Markus Talk</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
         <f>[4]Sheet1!A34</f>
-        <v>0</v>
+        <v>40247</v>
       </c>
       <c r="B34">
         <f>[4]Sheet1!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="str">
         <f>[4]Sheet1!C34</f>
-        <v>0</v>
+        <v>Session 2 with Dave (design and solidworks)</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8849,10 +8932,10 @@
       <selection sqref="A1:C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -81,23 +81,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="0.0_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -105,7 +105,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -114,7 +114,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -122,7 +122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -164,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -193,19 +193,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="通貨" xfId="1" builtinId="7"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,7 +214,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -268,13 +268,13 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>36.5</c:v>
@@ -392,13 +392,13 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.5</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>39.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>68.5</c:v>
@@ -407,34 +407,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93942912"/>
-        <c:axId val="93945216"/>
+        <c:axId val="64144896"/>
+        <c:axId val="64146432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93942912"/>
+        <c:axId val="64144896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="93945216"/>
+        <c:crossAx val="64146432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93945216"/>
+        <c:axId val="64146432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,17 +432,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="93942912"/>
+        <c:crossAx val="64144896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -460,16 +440,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -978,29 +948,19 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="A45">
-            <v>0</v>
-          </cell>
+          <cell r="A45"/>
         </row>
         <row r="46">
-          <cell r="A46">
-            <v>0</v>
-          </cell>
+          <cell r="A46"/>
         </row>
         <row r="47">
-          <cell r="A47">
-            <v>0</v>
-          </cell>
+          <cell r="A47"/>
         </row>
         <row r="48">
-          <cell r="A48">
-            <v>0</v>
-          </cell>
+          <cell r="A48"/>
         </row>
         <row r="49">
-          <cell r="A49">
-            <v>0</v>
-          </cell>
+          <cell r="A49"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -1625,6 +1585,28 @@
             <v>QNX - Interrupts</v>
           </cell>
         </row>
+        <row r="56">
+          <cell r="A56">
+            <v>40245</v>
+          </cell>
+          <cell r="B56">
+            <v>1</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>RMA/ship motor/encoder</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>40245</v>
+          </cell>
+          <cell r="B57">
+            <v>5</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>QNX - Interrupts</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2266,50 +2248,6 @@
             <v>Group Meeting</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="A31">
-            <v>40243</v>
-          </cell>
-          <cell r="B31">
-            <v>5</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>Preliminary Offest Joint Design</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>40245</v>
-          </cell>
-          <cell r="B32">
-            <v>6</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Detailed Offset Link/Link5/Tool Mount Drawings</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>40246</v>
-          </cell>
-          <cell r="B33">
-            <v>3</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Session 1 with Dave (design and solidworks) - Markus Talk</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>40247</v>
-          </cell>
-          <cell r="B34">
-            <v>2</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>Session 2 with Dave (design and solidworks)</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2766,7 +2704,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3056,11 +2994,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3098,7 +3037,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
@@ -3106,7 +3045,7 @@
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>120.5</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3132,7 +3071,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
@@ -3140,10 +3079,10 @@
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3160,13 +3099,13 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickTop="1">
+    <row r="7" spans="1:4" ht="14.25" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>220.25</v>
+        <v>210.25</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -3174,7 +3113,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>377.75</v>
+        <v>367.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3183,7 +3122,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>44.05</v>
+        <v>42.05</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
@@ -3191,7 +3130,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>75.55</v>
+        <v>73.55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3200,7 +3139,7 @@
       </c>
       <c r="B9" s="9">
         <f ca="1">B8/$B$11</f>
-        <v>4.7438461538461532</v>
+        <v>4.5284615384615376</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
@@ -3208,7 +3147,7 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1361538461538458</v>
+        <v>7.9207692307692295</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3249,11 +3188,11 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4671,10 +4610,10 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5450,29 +5389,29 @@
     <row r="56" spans="1:3">
       <c r="A56" s="6">
         <f>[2]Sheet1!A56</f>
-        <v>0</v>
+        <v>40245</v>
       </c>
       <c r="B56">
         <f>[2]Sheet1!B56</f>
-        <v>0</v>
-      </c>
-      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="str">
         <f>[2]Sheet1!C56</f>
-        <v>0</v>
+        <v>RMA/ship motor/encoder</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="6">
         <f>[2]Sheet1!A57</f>
-        <v>0</v>
+        <v>40245</v>
       </c>
       <c r="B57">
         <f>[2]Sheet1!B57</f>
-        <v>0</v>
-      </c>
-      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="C57" t="str">
         <f>[2]Sheet1!C57</f>
-        <v>0</v>
+        <v>QNX - Interrupts</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6092,10 +6031,10 @@
       <selection sqref="A1:C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7512,10 +7451,10 @@
       <selection sqref="A1:C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7941,57 +7880,57 @@
     <row r="31" spans="1:3">
       <c r="A31">
         <f>[4]Sheet1!A31</f>
-        <v>40243</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <f>[4]Sheet1!B31</f>
-        <v>5</v>
-      </c>
-      <c r="C31" t="str">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <f>[4]Sheet1!C31</f>
-        <v>Preliminary Offest Joint Design</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <f>[4]Sheet1!A32</f>
-        <v>40245</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <f>[4]Sheet1!B32</f>
-        <v>6</v>
-      </c>
-      <c r="C32" t="str">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <f>[4]Sheet1!C32</f>
-        <v>Detailed Offset Link/Link5/Tool Mount Drawings</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
         <f>[4]Sheet1!A33</f>
-        <v>40246</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <f>[4]Sheet1!B33</f>
-        <v>3</v>
-      </c>
-      <c r="C33" t="str">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <f>[4]Sheet1!C33</f>
-        <v>Session 1 with Dave (design and solidworks) - Markus Talk</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
         <f>[4]Sheet1!A34</f>
-        <v>40247</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <f>[4]Sheet1!B34</f>
-        <v>2</v>
-      </c>
-      <c r="C34" t="str">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <f>[4]Sheet1!C34</f>
-        <v>Session 2 with Dave (design and solidworks)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8932,10 +8871,10 @@
       <selection sqref="A1:C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,9 +190,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +197,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -268,13 +271,13 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.75</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>36.5</c:v>
@@ -327,19 +330,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.5</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -389,42 +392,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.5</c:v>
+                  <c:v>133.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.75</c:v>
+                  <c:v>55.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.5</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64144896"/>
-        <c:axId val="64146432"/>
+        <c:axId val="36623872"/>
+        <c:axId val="36625408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64144896"/>
+        <c:axId val="36623872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64146432"/>
+        <c:crossAx val="36625408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64146432"/>
+        <c:axId val="36625408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +435,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64144896"/>
+        <c:crossAx val="36623872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -445,7 +448,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -947,6 +950,28 @@
             <v>Log book catch-up</v>
           </cell>
         </row>
+        <row r="42">
+          <cell r="A42">
+            <v>40246</v>
+          </cell>
+          <cell r="B42">
+            <v>2</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>40246</v>
+          </cell>
+          <cell r="B43">
+            <v>1</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
         <row r="45">
           <cell r="A45"/>
         </row>
@@ -1607,6 +1632,39 @@
             <v>QNX - Interrupts</v>
           </cell>
         </row>
+        <row r="58">
+          <cell r="A58">
+            <v>40246</v>
+          </cell>
+          <cell r="B58">
+            <v>2</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>40246</v>
+          </cell>
+          <cell r="B59">
+            <v>1</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>40247</v>
+          </cell>
+          <cell r="B60">
+            <v>4</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>QNX - Interrupts/Encoder test</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -1869,35 +1927,90 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>40237</v>
+            <v>40235</v>
           </cell>
           <cell r="B23">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Experimental Procedure</v>
+            <v>Order Femurs</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>40239</v>
+            <v>40237</v>
           </cell>
           <cell r="B24">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="C24" t="str">
-            <v>Weekly Meeting</v>
+            <v>Experimental Procedure</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
+            <v>40239</v>
+          </cell>
+          <cell r="B25">
+            <v>1</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
             <v>40241</v>
           </cell>
-          <cell r="B25">
+          <cell r="B26">
             <v>2</v>
           </cell>
-          <cell r="C25" t="str">
+          <cell r="C26" t="str">
             <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>40242</v>
+          </cell>
+          <cell r="B27">
+            <v>2</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Pseudocode writeup</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>40246</v>
+          </cell>
+          <cell r="B28">
+            <v>2</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>40246</v>
+          </cell>
+          <cell r="B29">
+            <v>1</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>40247</v>
+          </cell>
+          <cell r="B30">
+            <v>8</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>QNX &amp; protocol procedure</v>
           </cell>
         </row>
       </sheetData>
@@ -2248,6 +2361,72 @@
             <v>Group Meeting</v>
           </cell>
         </row>
+        <row r="31">
+          <cell r="A31">
+            <v>40243</v>
+          </cell>
+          <cell r="B31">
+            <v>5</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Preliminary Offest Joint Design</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>40245</v>
+          </cell>
+          <cell r="B32">
+            <v>6</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Detailed Offset Link/Link5/Tool Mount Drawings</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>40246</v>
+          </cell>
+          <cell r="B33">
+            <v>2</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>40246</v>
+          </cell>
+          <cell r="B34">
+            <v>1</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>40246</v>
+          </cell>
+          <cell r="B35">
+            <v>3</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Session 1 with Dave (design and solidworks) - Markus Talk</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>40247</v>
+          </cell>
+          <cell r="B36">
+            <v>2</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Session 2 with Dave (design and solidworks)</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2693,6 +2872,28 @@
           </cell>
           <cell r="C39" t="str">
             <v>Motor precision requirements</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>40246</v>
+          </cell>
+          <cell r="B40">
+            <v>1.5</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>40246</v>
+          </cell>
+          <cell r="B41">
+            <v>1</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Weekly Meeting</v>
           </cell>
         </row>
       </sheetData>
@@ -2990,7 +3191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3024,11 +3225,11 @@
       </c>
       <c r="C2">
         <f>SUMIF(david!C:C,"*meeting*",david!B:B)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <f>SUM(david!B:B)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3037,15 +3238,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>126.5</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3054,15 +3255,15 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>18.75</v>
+        <v>31.25</v>
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>39.75</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3071,15 +3272,15 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" thickBot="1">
@@ -3092,11 +3293,11 @@
       </c>
       <c r="C6" s="1">
         <f>SUMIF(nicholas!C:C,"*meeting*",nicholas!B:B)</f>
-        <v>32</v>
+        <v>34.5</v>
       </c>
       <c r="D6" s="1">
         <f>SUM(nicholas!B:B)</f>
-        <v>68.5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1">
@@ -3105,15 +3306,15 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>210.25</v>
+        <v>242.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>157.5</v>
+        <v>172</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>367.75</v>
+        <v>414.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3122,45 +3323,45 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>42.05</v>
+        <v>48.55</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
-        <v>31.5</v>
+        <v>34.4</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>73.55</v>
+        <v>82.95</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>4.5284615384615376</v>
-      </c>
-      <c r="C9" s="9">
+        <v>5.0723880597014928</v>
+      </c>
+      <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.3923076923076922</v>
-      </c>
-      <c r="D9" s="9">
+        <v>3.5940298507462685</v>
+      </c>
+      <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9207692307692295</v>
+        <v>8.6664179104477626</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>9.2857142857142865</v>
+        <v>9.5714285714285712</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -3184,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3210,7 +3411,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="10">
         <f>[1]Sheet1!A2</f>
         <v>40183</v>
       </c>
@@ -3224,7 +3425,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="A3" s="10">
         <f>[1]Sheet1!A3</f>
         <v>40183</v>
       </c>
@@ -3238,7 +3439,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="10">
         <f>[1]Sheet1!A4</f>
         <v>40185</v>
       </c>
@@ -3252,7 +3453,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" s="10">
         <f>[1]Sheet1!A5</f>
         <v>40186</v>
       </c>
@@ -3266,7 +3467,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="A6" s="10">
         <f>[1]Sheet1!A6</f>
         <v>40187</v>
       </c>
@@ -3280,7 +3481,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="A7" s="10">
         <f>[1]Sheet1!A7</f>
         <v>40187</v>
       </c>
@@ -3294,7 +3495,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="10">
         <f>[1]Sheet1!A8</f>
         <v>40192</v>
       </c>
@@ -3308,7 +3509,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="A9" s="10">
         <f>[1]Sheet1!A9</f>
         <v>40192</v>
       </c>
@@ -3322,7 +3523,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="A10" s="10">
         <f>[1]Sheet1!A10</f>
         <v>40192</v>
       </c>
@@ -3336,7 +3537,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" s="10">
         <f>[1]Sheet1!A11</f>
         <v>40192</v>
       </c>
@@ -3350,7 +3551,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="A12" s="10">
         <f>[1]Sheet1!A12</f>
         <v>40193</v>
       </c>
@@ -3364,7 +3565,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="10">
         <f>[1]Sheet1!A13</f>
         <v>40196</v>
       </c>
@@ -3378,7 +3579,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="A14" s="10">
         <f>[1]Sheet1!A14</f>
         <v>40197</v>
       </c>
@@ -3392,7 +3593,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="A15" s="10">
         <f>[1]Sheet1!A15</f>
         <v>40197</v>
       </c>
@@ -3406,7 +3607,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="A16" s="10">
         <f>[1]Sheet1!A16</f>
         <v>40198</v>
       </c>
@@ -3420,7 +3621,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="A17" s="10">
         <f>[1]Sheet1!A17</f>
         <v>40199</v>
       </c>
@@ -3434,7 +3635,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="A18" s="10">
         <f>[1]Sheet1!A18</f>
         <v>40204</v>
       </c>
@@ -3448,7 +3649,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="A19" s="10">
         <f>[1]Sheet1!A19</f>
         <v>40204</v>
       </c>
@@ -3462,7 +3663,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="A20" s="10">
         <f>[1]Sheet1!A20</f>
         <v>40206</v>
       </c>
@@ -3476,7 +3677,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" s="10">
         <f>[1]Sheet1!A21</f>
         <v>40207</v>
       </c>
@@ -3490,7 +3691,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
+      <c r="A22" s="10">
         <f>[1]Sheet1!A22</f>
         <v>40207</v>
       </c>
@@ -3504,7 +3705,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="A23" s="10">
         <f>[1]Sheet1!A23</f>
         <v>40210</v>
       </c>
@@ -3518,7 +3719,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="A24" s="10">
         <f>[1]Sheet1!A24</f>
         <v>40210</v>
       </c>
@@ -3532,7 +3733,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="A25" s="10">
         <f>[1]Sheet1!A25</f>
         <v>40211</v>
       </c>
@@ -3546,7 +3747,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
+      <c r="A26" s="10">
         <f>[1]Sheet1!A26</f>
         <v>40213</v>
       </c>
@@ -3560,7 +3761,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="A27" s="10">
         <f>[1]Sheet1!A27</f>
         <v>40217</v>
       </c>
@@ -3574,7 +3775,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="A28" s="10">
         <f>[1]Sheet1!A28</f>
         <v>40217</v>
       </c>
@@ -3588,7 +3789,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="A29" s="10">
         <f>[1]Sheet1!A29</f>
         <v>40220</v>
       </c>
@@ -3602,7 +3803,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="A30" s="10">
         <f>[1]Sheet1!A30</f>
         <v>40227</v>
       </c>
@@ -3616,7 +3817,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="A31" s="10">
         <f>[1]Sheet1!A31</f>
         <v>40228</v>
       </c>
@@ -3630,7 +3831,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
+      <c r="A32" s="10">
         <f>[1]Sheet1!A32</f>
         <v>40228</v>
       </c>
@@ -3644,7 +3845,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="A33" s="10">
         <f>[1]Sheet1!A33</f>
         <v>40228</v>
       </c>
@@ -3658,7 +3859,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
+      <c r="A34" s="10">
         <f>[1]Sheet1!A34</f>
         <v>40229</v>
       </c>
@@ -3672,7 +3873,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
+      <c r="A35" s="10">
         <f>[1]Sheet1!A35</f>
         <v>40232</v>
       </c>
@@ -3686,7 +3887,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
+      <c r="A36" s="10">
         <f>[1]Sheet1!A36</f>
         <v>40239</v>
       </c>
@@ -3700,7 +3901,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37">
+      <c r="A37" s="10">
         <f>[1]Sheet1!A37</f>
         <v>40239</v>
       </c>
@@ -3714,7 +3915,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="A38" s="10">
         <f>[1]Sheet1!A38</f>
         <v>40238</v>
       </c>
@@ -3728,7 +3929,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
+      <c r="A39" s="10">
         <f>[1]Sheet1!A39</f>
         <v>40238</v>
       </c>
@@ -3742,7 +3943,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
+      <c r="A40" s="10">
         <f>[1]Sheet1!A40</f>
         <v>40239</v>
       </c>
@@ -3756,7 +3957,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
+      <c r="A41" s="10">
         <f>[1]Sheet1!A41</f>
         <v>40243</v>
       </c>
@@ -3770,35 +3971,35 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
+      <c r="A42" s="10">
         <f>[1]Sheet1!A42</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B42">
         <f>[1]Sheet1!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="str">
         <f>[1]Sheet1!C42</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
+      <c r="A43" s="10">
         <f>[1]Sheet1!A43</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B43">
         <f>[1]Sheet1!B43</f>
-        <v>0</v>
-      </c>
-      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="str">
         <f>[1]Sheet1!C43</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
+      <c r="A44" s="10">
         <f>[1]Sheet1!A44</f>
         <v>0</v>
       </c>
@@ -3812,7 +4013,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
+      <c r="A45" s="10">
         <f>[1]Sheet1!A45</f>
         <v>0</v>
       </c>
@@ -3826,7 +4027,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
+      <c r="A46" s="10">
         <f>[1]Sheet1!A46</f>
         <v>0</v>
       </c>
@@ -3840,7 +4041,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
+      <c r="A47" s="10">
         <f>[1]Sheet1!A47</f>
         <v>0</v>
       </c>
@@ -3854,7 +4055,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
+      <c r="A48" s="10">
         <f>[1]Sheet1!A48</f>
         <v>0</v>
       </c>
@@ -3868,7 +4069,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
+      <c r="A49" s="10">
         <f>[1]Sheet1!A49</f>
         <v>0</v>
       </c>
@@ -3882,7 +4083,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
+      <c r="A50" s="10">
         <f>[1]Sheet1!A50</f>
         <v>0</v>
       </c>
@@ -3896,7 +4097,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
+      <c r="A51" s="10">
         <f>[1]Sheet1!A51</f>
         <v>0</v>
       </c>
@@ -3910,7 +4111,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52">
+      <c r="A52" s="10">
         <f>[1]Sheet1!A52</f>
         <v>0</v>
       </c>
@@ -3924,7 +4125,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
+      <c r="A53" s="10">
         <f>[1]Sheet1!A53</f>
         <v>0</v>
       </c>
@@ -3938,7 +4139,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54">
+      <c r="A54" s="10">
         <f>[1]Sheet1!A54</f>
         <v>0</v>
       </c>
@@ -3952,7 +4153,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55">
+      <c r="A55" s="10">
         <f>[1]Sheet1!A55</f>
         <v>0</v>
       </c>
@@ -3966,7 +4167,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56">
+      <c r="A56" s="10">
         <f>[1]Sheet1!A56</f>
         <v>0</v>
       </c>
@@ -3980,7 +4181,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57">
+      <c r="A57" s="10">
         <f>[1]Sheet1!A57</f>
         <v>0</v>
       </c>
@@ -3994,7 +4195,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58">
+      <c r="A58" s="10">
         <f>[1]Sheet1!A58</f>
         <v>0</v>
       </c>
@@ -4008,7 +4209,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59">
+      <c r="A59" s="10">
         <f>[1]Sheet1!A59</f>
         <v>0</v>
       </c>
@@ -4022,7 +4223,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
+      <c r="A60" s="10">
         <f>[1]Sheet1!A60</f>
         <v>0</v>
       </c>
@@ -4036,7 +4237,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
+      <c r="A61" s="10">
         <f>[1]Sheet1!A61</f>
         <v>0</v>
       </c>
@@ -4050,7 +4251,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
+      <c r="A62" s="10">
         <f>[1]Sheet1!A62</f>
         <v>0</v>
       </c>
@@ -4064,7 +4265,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
+      <c r="A63" s="10">
         <f>[1]Sheet1!A63</f>
         <v>0</v>
       </c>
@@ -4078,7 +4279,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64">
+      <c r="A64" s="10">
         <f>[1]Sheet1!A64</f>
         <v>0</v>
       </c>
@@ -4092,7 +4293,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
+      <c r="A65" s="10">
         <f>[1]Sheet1!A65</f>
         <v>0</v>
       </c>
@@ -4106,7 +4307,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66">
+      <c r="A66" s="10">
         <f>[1]Sheet1!A66</f>
         <v>0</v>
       </c>
@@ -4120,7 +4321,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67">
+      <c r="A67" s="10">
         <f>[1]Sheet1!A67</f>
         <v>0</v>
       </c>
@@ -4134,7 +4335,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
+      <c r="A68" s="10">
         <f>[1]Sheet1!A68</f>
         <v>0</v>
       </c>
@@ -4148,7 +4349,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
+      <c r="A69" s="10">
         <f>[1]Sheet1!A69</f>
         <v>0</v>
       </c>
@@ -4162,7 +4363,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
+      <c r="A70" s="10">
         <f>[1]Sheet1!A70</f>
         <v>0</v>
       </c>
@@ -4176,7 +4377,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71">
+      <c r="A71" s="10">
         <f>[1]Sheet1!A71</f>
         <v>0</v>
       </c>
@@ -4190,7 +4391,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
+      <c r="A72" s="10">
         <f>[1]Sheet1!A72</f>
         <v>0</v>
       </c>
@@ -4204,7 +4405,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
+      <c r="A73" s="10">
         <f>[1]Sheet1!A73</f>
         <v>0</v>
       </c>
@@ -4218,7 +4419,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
+      <c r="A74" s="10">
         <f>[1]Sheet1!A74</f>
         <v>0</v>
       </c>
@@ -4232,7 +4433,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75">
+      <c r="A75" s="10">
         <f>[1]Sheet1!A75</f>
         <v>0</v>
       </c>
@@ -4246,7 +4447,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76">
+      <c r="A76" s="10">
         <f>[1]Sheet1!A76</f>
         <v>0</v>
       </c>
@@ -4260,7 +4461,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77">
+      <c r="A77" s="10">
         <f>[1]Sheet1!A77</f>
         <v>0</v>
       </c>
@@ -4274,7 +4475,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78">
+      <c r="A78" s="10">
         <f>[1]Sheet1!A78</f>
         <v>0</v>
       </c>
@@ -4288,7 +4489,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79">
+      <c r="A79" s="10">
         <f>[1]Sheet1!A79</f>
         <v>0</v>
       </c>
@@ -4302,7 +4503,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
+      <c r="A80" s="10">
         <f>[1]Sheet1!A80</f>
         <v>0</v>
       </c>
@@ -4316,7 +4517,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
+      <c r="A81" s="10">
         <f>[1]Sheet1!A81</f>
         <v>0</v>
       </c>
@@ -4330,7 +4531,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82">
+      <c r="A82" s="10">
         <f>[1]Sheet1!A82</f>
         <v>0</v>
       </c>
@@ -4344,7 +4545,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83">
+      <c r="A83" s="10">
         <f>[1]Sheet1!A83</f>
         <v>0</v>
       </c>
@@ -4358,7 +4559,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84">
+      <c r="A84" s="10">
         <f>[1]Sheet1!A84</f>
         <v>0</v>
       </c>
@@ -4372,7 +4573,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
+      <c r="A85" s="10">
         <f>[1]Sheet1!A85</f>
         <v>0</v>
       </c>
@@ -4386,7 +4587,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86">
+      <c r="A86" s="10">
         <f>[1]Sheet1!A86</f>
         <v>0</v>
       </c>
@@ -4400,7 +4601,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87">
+      <c r="A87" s="10">
         <f>[1]Sheet1!A87</f>
         <v>0</v>
       </c>
@@ -4414,7 +4615,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88">
+      <c r="A88" s="10">
         <f>[1]Sheet1!A88</f>
         <v>0</v>
       </c>
@@ -4428,7 +4629,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89">
+      <c r="A89" s="10">
         <f>[1]Sheet1!A89</f>
         <v>0</v>
       </c>
@@ -4442,7 +4643,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90">
+      <c r="A90" s="10">
         <f>[1]Sheet1!A90</f>
         <v>0</v>
       </c>
@@ -4456,7 +4657,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91">
+      <c r="A91" s="10">
         <f>[1]Sheet1!A91</f>
         <v>0</v>
       </c>
@@ -4470,7 +4671,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92">
+      <c r="A92" s="10">
         <f>[1]Sheet1!A92</f>
         <v>0</v>
       </c>
@@ -4484,7 +4685,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
+      <c r="A93" s="10">
         <f>[1]Sheet1!A93</f>
         <v>0</v>
       </c>
@@ -4498,7 +4699,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
+      <c r="A94" s="10">
         <f>[1]Sheet1!A94</f>
         <v>0</v>
       </c>
@@ -4512,7 +4713,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95">
+      <c r="A95" s="10">
         <f>[1]Sheet1!A95</f>
         <v>0</v>
       </c>
@@ -4526,7 +4727,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96">
+      <c r="A96" s="10">
         <f>[1]Sheet1!A96</f>
         <v>0</v>
       </c>
@@ -4540,7 +4741,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97">
+      <c r="A97" s="10">
         <f>[1]Sheet1!A97</f>
         <v>0</v>
       </c>
@@ -4554,7 +4755,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
+      <c r="A98" s="10">
         <f>[1]Sheet1!A98</f>
         <v>0</v>
       </c>
@@ -4568,7 +4769,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
+      <c r="A99" s="10">
         <f>[1]Sheet1!A99</f>
         <v>0</v>
       </c>
@@ -4582,7 +4783,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100">
+      <c r="A100" s="10">
         <f>[1]Sheet1!A100</f>
         <v>0</v>
       </c>
@@ -4606,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4631,7 +4832,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7">
+      <c r="A2" s="11">
         <f>[2]Sheet1!A2</f>
         <v>40180</v>
       </c>
@@ -4645,7 +4846,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <f>[2]Sheet1!A3</f>
         <v>40181</v>
       </c>
@@ -4659,7 +4860,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <f>[2]Sheet1!A4</f>
         <v>40183</v>
       </c>
@@ -4673,7 +4874,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <f>[2]Sheet1!A5</f>
         <v>40183</v>
       </c>
@@ -4687,7 +4888,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <f>[2]Sheet1!A6</f>
         <v>40184</v>
       </c>
@@ -4701,7 +4902,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <f>[2]Sheet1!A7</f>
         <v>40185</v>
       </c>
@@ -4715,7 +4916,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6">
+      <c r="A8" s="10">
         <f>[2]Sheet1!A8</f>
         <v>40186</v>
       </c>
@@ -4729,7 +4930,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="10">
         <f>[2]Sheet1!A9</f>
         <v>40186</v>
       </c>
@@ -4743,7 +4944,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <f>[2]Sheet1!A10</f>
         <v>40187</v>
       </c>
@@ -4757,7 +4958,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6">
+      <c r="A11" s="10">
         <f>[2]Sheet1!A11</f>
         <v>40187</v>
       </c>
@@ -4771,7 +4972,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6">
+      <c r="A12" s="10">
         <f>[2]Sheet1!A12</f>
         <v>40189</v>
       </c>
@@ -4785,7 +4986,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="10">
         <f>[2]Sheet1!A13</f>
         <v>40189</v>
       </c>
@@ -4799,7 +5000,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6">
+      <c r="A14" s="10">
         <f>[2]Sheet1!A14</f>
         <v>40190</v>
       </c>
@@ -4813,7 +5014,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6">
+      <c r="A15" s="10">
         <f>[2]Sheet1!A15</f>
         <v>40190</v>
       </c>
@@ -4827,7 +5028,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6">
+      <c r="A16" s="10">
         <f>[2]Sheet1!A16</f>
         <v>40192</v>
       </c>
@@ -4841,7 +5042,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6">
+      <c r="A17" s="10">
         <f>[2]Sheet1!A17</f>
         <v>40195</v>
       </c>
@@ -4855,7 +5056,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6">
+      <c r="A18" s="10">
         <f>[2]Sheet1!A18</f>
         <v>40197</v>
       </c>
@@ -4869,7 +5070,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6">
+      <c r="A19" s="10">
         <f>[2]Sheet1!A19</f>
         <v>40197</v>
       </c>
@@ -4883,7 +5084,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6">
+      <c r="A20" s="10">
         <f>[2]Sheet1!A20</f>
         <v>40199</v>
       </c>
@@ -4897,7 +5098,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6">
+      <c r="A21" s="10">
         <f>[2]Sheet1!A21</f>
         <v>40200</v>
       </c>
@@ -4911,7 +5112,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6">
+      <c r="A22" s="10">
         <f>[2]Sheet1!A22</f>
         <v>40202</v>
       </c>
@@ -4925,7 +5126,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6">
+      <c r="A23" s="10">
         <f>[2]Sheet1!A23</f>
         <v>40202</v>
       </c>
@@ -4939,7 +5140,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6">
+      <c r="A24" s="10">
         <f>[2]Sheet1!A24</f>
         <v>40202</v>
       </c>
@@ -4953,7 +5154,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6">
+      <c r="A25" s="10">
         <f>[2]Sheet1!A25</f>
         <v>40203</v>
       </c>
@@ -4967,7 +5168,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6">
+      <c r="A26" s="10">
         <f>[2]Sheet1!A26</f>
         <v>40204</v>
       </c>
@@ -4981,7 +5182,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6">
+      <c r="A27" s="10">
         <f>[2]Sheet1!A27</f>
         <v>40204</v>
       </c>
@@ -4995,7 +5196,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6">
+      <c r="A28" s="10">
         <f>[2]Sheet1!A28</f>
         <v>40204</v>
       </c>
@@ -5009,7 +5210,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6">
+      <c r="A29" s="10">
         <f>[2]Sheet1!A29</f>
         <v>40205</v>
       </c>
@@ -5023,7 +5224,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6">
+      <c r="A30" s="10">
         <f>[2]Sheet1!A30</f>
         <v>40206</v>
       </c>
@@ -5037,7 +5238,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6">
+      <c r="A31" s="10">
         <f>[2]Sheet1!A31</f>
         <v>40206</v>
       </c>
@@ -5051,7 +5252,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6">
+      <c r="A32" s="10">
         <f>[2]Sheet1!A32</f>
         <v>40210</v>
       </c>
@@ -5065,7 +5266,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6">
+      <c r="A33" s="10">
         <f>[2]Sheet1!A33</f>
         <v>40210</v>
       </c>
@@ -5079,7 +5280,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6">
+      <c r="A34" s="10">
         <f>[2]Sheet1!A34</f>
         <v>40211</v>
       </c>
@@ -5093,7 +5294,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6">
+      <c r="A35" s="10">
         <f>[2]Sheet1!A35</f>
         <v>40217</v>
       </c>
@@ -5107,7 +5308,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="6">
+      <c r="A36" s="10">
         <f>[2]Sheet1!A36</f>
         <v>40217</v>
       </c>
@@ -5121,7 +5322,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="6">
+      <c r="A37" s="10">
         <f>[2]Sheet1!A37</f>
         <v>40220</v>
       </c>
@@ -5135,7 +5336,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="6">
+      <c r="A38" s="10">
         <f>[2]Sheet1!A38</f>
         <v>40222</v>
       </c>
@@ -5149,7 +5350,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="6">
+      <c r="A39" s="10">
         <f>[2]Sheet1!A39</f>
         <v>40223</v>
       </c>
@@ -5163,7 +5364,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="6">
+      <c r="A40" s="10">
         <f>[2]Sheet1!A40</f>
         <v>40223</v>
       </c>
@@ -5177,7 +5378,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="6">
+      <c r="A41" s="10">
         <f>[2]Sheet1!A41</f>
         <v>40224</v>
       </c>
@@ -5191,7 +5392,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="6">
+      <c r="A42" s="10">
         <f>[2]Sheet1!A42</f>
         <v>40227</v>
       </c>
@@ -5205,7 +5406,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="6">
+      <c r="A43" s="10">
         <f>[2]Sheet1!A43</f>
         <v>40227</v>
       </c>
@@ -5219,7 +5420,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="6">
+      <c r="A44" s="10">
         <f>[2]Sheet1!A44</f>
         <v>40229</v>
       </c>
@@ -5233,7 +5434,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="6">
+      <c r="A45" s="10">
         <f>[2]Sheet1!A45</f>
         <v>40230</v>
       </c>
@@ -5247,7 +5448,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="6">
+      <c r="A46" s="10">
         <f>[2]Sheet1!A46</f>
         <v>40231</v>
       </c>
@@ -5261,7 +5462,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="6">
+      <c r="A47" s="10">
         <f>[2]Sheet1!A47</f>
         <v>40231</v>
       </c>
@@ -5275,7 +5476,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="6">
+      <c r="A48" s="10">
         <f>[2]Sheet1!A48</f>
         <v>40232</v>
       </c>
@@ -5289,7 +5490,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="6">
+      <c r="A49" s="10">
         <f>[2]Sheet1!A49</f>
         <v>40233</v>
       </c>
@@ -5303,7 +5504,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="6">
+      <c r="A50" s="10">
         <f>[2]Sheet1!A50</f>
         <v>40239</v>
       </c>
@@ -5317,7 +5518,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="6">
+      <c r="A51" s="10">
         <f>[2]Sheet1!A51</f>
         <v>40239</v>
       </c>
@@ -5331,7 +5532,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="6">
+      <c r="A52" s="10">
         <f>[2]Sheet1!A52</f>
         <v>40240</v>
       </c>
@@ -5345,7 +5546,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="6">
+      <c r="A53" s="10">
         <f>[2]Sheet1!A53</f>
         <v>40241</v>
       </c>
@@ -5359,7 +5560,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="6">
+      <c r="A54" s="10">
         <f>[2]Sheet1!A54</f>
         <v>40243</v>
       </c>
@@ -5373,7 +5574,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="6">
+      <c r="A55" s="10">
         <f>[2]Sheet1!A55</f>
         <v>40244</v>
       </c>
@@ -5387,7 +5588,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="6">
+      <c r="A56" s="10">
         <f>[2]Sheet1!A56</f>
         <v>40245</v>
       </c>
@@ -5401,7 +5602,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="6">
+      <c r="A57" s="10">
         <f>[2]Sheet1!A57</f>
         <v>40245</v>
       </c>
@@ -5415,49 +5616,49 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="6">
+      <c r="A58" s="10">
         <f>[2]Sheet1!A58</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B58">
         <f>[2]Sheet1!B58</f>
-        <v>0</v>
-      </c>
-      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="str">
         <f>[2]Sheet1!C58</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="6">
+      <c r="A59" s="10">
         <f>[2]Sheet1!A59</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B59">
         <f>[2]Sheet1!B59</f>
-        <v>0</v>
-      </c>
-      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="str">
         <f>[2]Sheet1!C59</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="6">
+      <c r="A60" s="10">
         <f>[2]Sheet1!A60</f>
-        <v>0</v>
+        <v>40247</v>
       </c>
       <c r="B60">
         <f>[2]Sheet1!B60</f>
-        <v>0</v>
-      </c>
-      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="str">
         <f>[2]Sheet1!C60</f>
-        <v>0</v>
+        <v>QNX - Interrupts/Encoder test</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="6">
+      <c r="A61" s="10">
         <f>[2]Sheet1!A61</f>
         <v>0</v>
       </c>
@@ -5471,7 +5672,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="6">
+      <c r="A62" s="10">
         <f>[2]Sheet1!A62</f>
         <v>0</v>
       </c>
@@ -5485,7 +5686,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="6">
+      <c r="A63" s="10">
         <f>[2]Sheet1!A63</f>
         <v>0</v>
       </c>
@@ -5499,7 +5700,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="6">
+      <c r="A64" s="10">
         <f>[2]Sheet1!A64</f>
         <v>0</v>
       </c>
@@ -5513,7 +5714,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="6">
+      <c r="A65" s="10">
         <f>[2]Sheet1!A65</f>
         <v>0</v>
       </c>
@@ -5527,7 +5728,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="6">
+      <c r="A66" s="10">
         <f>[2]Sheet1!A66</f>
         <v>0</v>
       </c>
@@ -5541,7 +5742,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="6">
+      <c r="A67" s="10">
         <f>[2]Sheet1!A67</f>
         <v>0</v>
       </c>
@@ -5555,7 +5756,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="6">
+      <c r="A68" s="10">
         <f>[2]Sheet1!A68</f>
         <v>0</v>
       </c>
@@ -5569,7 +5770,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="6">
+      <c r="A69" s="10">
         <f>[2]Sheet1!A69</f>
         <v>0</v>
       </c>
@@ -5583,7 +5784,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="6">
+      <c r="A70" s="10">
         <f>[2]Sheet1!A70</f>
         <v>0</v>
       </c>
@@ -5597,7 +5798,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="6">
+      <c r="A71" s="10">
         <f>[2]Sheet1!A71</f>
         <v>0</v>
       </c>
@@ -5611,7 +5812,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="6">
+      <c r="A72" s="10">
         <f>[2]Sheet1!A72</f>
         <v>0</v>
       </c>
@@ -5625,7 +5826,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="6">
+      <c r="A73" s="10">
         <f>[2]Sheet1!A73</f>
         <v>0</v>
       </c>
@@ -5639,7 +5840,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="6">
+      <c r="A74" s="10">
         <f>[2]Sheet1!A74</f>
         <v>0</v>
       </c>
@@ -5653,7 +5854,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="6">
+      <c r="A75" s="10">
         <f>[2]Sheet1!A75</f>
         <v>0</v>
       </c>
@@ -5667,7 +5868,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="6">
+      <c r="A76" s="10">
         <f>[2]Sheet1!A76</f>
         <v>0</v>
       </c>
@@ -5681,7 +5882,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="6">
+      <c r="A77" s="10">
         <f>[2]Sheet1!A77</f>
         <v>0</v>
       </c>
@@ -5695,7 +5896,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="6">
+      <c r="A78" s="10">
         <f>[2]Sheet1!A78</f>
         <v>0</v>
       </c>
@@ -5709,7 +5910,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="6">
+      <c r="A79" s="10">
         <f>[2]Sheet1!A79</f>
         <v>0</v>
       </c>
@@ -5723,7 +5924,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="6">
+      <c r="A80" s="10">
         <f>[2]Sheet1!A80</f>
         <v>0</v>
       </c>
@@ -5737,7 +5938,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="6">
+      <c r="A81" s="10">
         <f>[2]Sheet1!A81</f>
         <v>0</v>
       </c>
@@ -5751,7 +5952,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="6">
+      <c r="A82" s="10">
         <f>[2]Sheet1!A82</f>
         <v>0</v>
       </c>
@@ -5765,7 +5966,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="6">
+      <c r="A83" s="10">
         <f>[2]Sheet1!A83</f>
         <v>0</v>
       </c>
@@ -5779,7 +5980,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="6">
+      <c r="A84" s="10">
         <f>[2]Sheet1!A84</f>
         <v>0</v>
       </c>
@@ -5793,7 +5994,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="6">
+      <c r="A85" s="10">
         <f>[2]Sheet1!A85</f>
         <v>0</v>
       </c>
@@ -5807,7 +6008,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="6">
+      <c r="A86" s="10">
         <f>[2]Sheet1!A86</f>
         <v>0</v>
       </c>
@@ -5821,7 +6022,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="6">
+      <c r="A87" s="10">
         <f>[2]Sheet1!A87</f>
         <v>0</v>
       </c>
@@ -5835,7 +6036,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="6">
+      <c r="A88" s="10">
         <f>[2]Sheet1!A88</f>
         <v>0</v>
       </c>
@@ -5849,7 +6050,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="6">
+      <c r="A89" s="10">
         <f>[2]Sheet1!A89</f>
         <v>0</v>
       </c>
@@ -5863,7 +6064,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="6">
+      <c r="A90" s="10">
         <f>[2]Sheet1!A90</f>
         <v>0</v>
       </c>
@@ -5877,7 +6078,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="6">
+      <c r="A91" s="10">
         <f>[2]Sheet1!A91</f>
         <v>0</v>
       </c>
@@ -5891,7 +6092,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="6">
+      <c r="A92" s="10">
         <f>[2]Sheet1!A92</f>
         <v>0</v>
       </c>
@@ -5905,7 +6106,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="6">
+      <c r="A93" s="10">
         <f>[2]Sheet1!A93</f>
         <v>0</v>
       </c>
@@ -5919,7 +6120,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="6">
+      <c r="A94" s="10">
         <f>[2]Sheet1!A94</f>
         <v>0</v>
       </c>
@@ -5933,7 +6134,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="6">
+      <c r="A95" s="10">
         <f>[2]Sheet1!A95</f>
         <v>0</v>
       </c>
@@ -5947,7 +6148,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="6">
+      <c r="A96" s="10">
         <f>[2]Sheet1!A96</f>
         <v>0</v>
       </c>
@@ -5961,7 +6162,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="6">
+      <c r="A97" s="10">
         <f>[2]Sheet1!A97</f>
         <v>0</v>
       </c>
@@ -5975,7 +6176,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="6">
+      <c r="A98" s="10">
         <f>[2]Sheet1!A98</f>
         <v>0</v>
       </c>
@@ -5989,7 +6190,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="6">
+      <c r="A99" s="10">
         <f>[2]Sheet1!A99</f>
         <v>0</v>
       </c>
@@ -6003,7 +6204,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="6">
+      <c r="A100" s="10">
         <f>[2]Sheet1!A100</f>
         <v>0</v>
       </c>
@@ -6028,7 +6229,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C100"/>
+      <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6052,7 +6253,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="10">
         <f>[3]Sheet1!A2</f>
         <v>40183</v>
       </c>
@@ -6066,7 +6267,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="A3" s="10">
         <f>[3]Sheet1!A3</f>
         <v>40185</v>
       </c>
@@ -6080,7 +6281,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="10">
         <f>[3]Sheet1!A4</f>
         <v>40187</v>
       </c>
@@ -6094,7 +6295,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" s="10">
         <f>[3]Sheet1!A5</f>
         <v>40190</v>
       </c>
@@ -6108,7 +6309,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="A6" s="10">
         <f>[3]Sheet1!A6</f>
         <v>40190</v>
       </c>
@@ -6122,7 +6323,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="A7" s="10">
         <f>[3]Sheet1!A7</f>
         <v>40192</v>
       </c>
@@ -6136,7 +6337,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="10">
         <f>[3]Sheet1!A8</f>
         <v>40194</v>
       </c>
@@ -6150,7 +6351,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="A9" s="10">
         <f>[3]Sheet1!A9</f>
         <v>40197</v>
       </c>
@@ -6164,7 +6365,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="A10" s="10">
         <f>[3]Sheet1!A10</f>
         <v>40197</v>
       </c>
@@ -6178,7 +6379,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" s="10">
         <f>[3]Sheet1!A11</f>
         <v>40199</v>
       </c>
@@ -6192,7 +6393,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="A12" s="10">
         <f>[3]Sheet1!A12</f>
         <v>40202</v>
       </c>
@@ -6206,7 +6407,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="10">
         <f>[3]Sheet1!A13</f>
         <v>40204</v>
       </c>
@@ -6220,7 +6421,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="A14" s="10">
         <f>[3]Sheet1!A14</f>
         <v>40205</v>
       </c>
@@ -6234,7 +6435,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="A15" s="10">
         <f>[3]Sheet1!A15</f>
         <v>40206</v>
       </c>
@@ -6248,7 +6449,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="A16" s="10">
         <f>[3]Sheet1!A16</f>
         <v>40210</v>
       </c>
@@ -6262,7 +6463,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="A17" s="10">
         <f>[3]Sheet1!A17</f>
         <v>40210</v>
       </c>
@@ -6276,7 +6477,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="A18" s="10">
         <f>[3]Sheet1!A18</f>
         <v>40211</v>
       </c>
@@ -6290,7 +6491,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="A19" s="10">
         <f>[3]Sheet1!A19</f>
         <v>40212</v>
       </c>
@@ -6304,7 +6505,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="A20" s="10">
         <f>[3]Sheet1!A20</f>
         <v>40215</v>
       </c>
@@ -6318,7 +6519,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" s="10">
         <f>[3]Sheet1!A21</f>
         <v>40229</v>
       </c>
@@ -6332,7 +6533,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
+      <c r="A22" s="10">
         <f>[3]Sheet1!A22</f>
         <v>40232</v>
       </c>
@@ -6346,119 +6547,119 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="A23" s="10">
         <f>[3]Sheet1!A23</f>
-        <v>40237</v>
+        <v>40235</v>
       </c>
       <c r="B23">
         <f>[3]Sheet1!B23</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C23" t="str">
         <f>[3]Sheet1!C23</f>
-        <v>Experimental Procedure</v>
+        <v>Order Femurs</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="A24" s="10">
         <f>[3]Sheet1!A24</f>
-        <v>40239</v>
+        <v>40237</v>
       </c>
       <c r="B24">
         <f>[3]Sheet1!B24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="str">
         <f>[3]Sheet1!C24</f>
-        <v>Weekly Meeting</v>
+        <v>Experimental Procedure</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="A25" s="10">
         <f>[3]Sheet1!A25</f>
-        <v>40241</v>
+        <v>40239</v>
       </c>
       <c r="B25">
         <f>[3]Sheet1!B25</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="str">
         <f>[3]Sheet1!C25</f>
-        <v>Group Meeting</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
+      <c r="A26" s="10">
         <f>[3]Sheet1!A26</f>
-        <v>0</v>
+        <v>40241</v>
       </c>
       <c r="B26">
         <f>[3]Sheet1!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="str">
         <f>[3]Sheet1!C26</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="A27" s="10">
         <f>[3]Sheet1!A27</f>
-        <v>0</v>
+        <v>40242</v>
       </c>
       <c r="B27">
         <f>[3]Sheet1!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="str">
         <f>[3]Sheet1!C27</f>
-        <v>0</v>
+        <v>Pseudocode writeup</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="A28" s="10">
         <f>[3]Sheet1!A28</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B28">
         <f>[3]Sheet1!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="str">
         <f>[3]Sheet1!C28</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="A29" s="10">
         <f>[3]Sheet1!A29</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B29">
         <f>[3]Sheet1!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="str">
         <f>[3]Sheet1!C29</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="A30" s="10">
         <f>[3]Sheet1!A30</f>
-        <v>0</v>
+        <v>40247</v>
       </c>
       <c r="B30">
         <f>[3]Sheet1!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="str">
         <f>[3]Sheet1!C30</f>
-        <v>0</v>
+        <v>QNX &amp; protocol procedure</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="A31" s="10">
         <f>[3]Sheet1!A31</f>
         <v>0</v>
       </c>
@@ -6472,7 +6673,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
+      <c r="A32" s="10">
         <f>[3]Sheet1!A32</f>
         <v>0</v>
       </c>
@@ -6486,7 +6687,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="A33" s="10">
         <f>[3]Sheet1!A33</f>
         <v>0</v>
       </c>
@@ -6500,7 +6701,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
+      <c r="A34" s="10">
         <f>[3]Sheet1!A34</f>
         <v>0</v>
       </c>
@@ -6514,7 +6715,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
+      <c r="A35" s="10">
         <f>[3]Sheet1!A35</f>
         <v>0</v>
       </c>
@@ -6528,7 +6729,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
+      <c r="A36" s="10">
         <f>[3]Sheet1!A36</f>
         <v>0</v>
       </c>
@@ -6542,7 +6743,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37">
+      <c r="A37" s="10">
         <f>[3]Sheet1!A37</f>
         <v>0</v>
       </c>
@@ -6556,7 +6757,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="A38" s="10">
         <f>[3]Sheet1!A38</f>
         <v>0</v>
       </c>
@@ -6570,7 +6771,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
+      <c r="A39" s="10">
         <f>[3]Sheet1!A39</f>
         <v>0</v>
       </c>
@@ -6584,7 +6785,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
+      <c r="A40" s="10">
         <f>[3]Sheet1!A40</f>
         <v>0</v>
       </c>
@@ -6598,7 +6799,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
+      <c r="A41" s="10">
         <f>[3]Sheet1!A41</f>
         <v>0</v>
       </c>
@@ -6612,7 +6813,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
+      <c r="A42" s="10">
         <f>[3]Sheet1!A42</f>
         <v>0</v>
       </c>
@@ -6626,7 +6827,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
+      <c r="A43" s="10">
         <f>[3]Sheet1!A43</f>
         <v>0</v>
       </c>
@@ -6640,7 +6841,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
+      <c r="A44" s="10">
         <f>[3]Sheet1!A44</f>
         <v>0</v>
       </c>
@@ -6654,7 +6855,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
+      <c r="A45" s="10">
         <f>[3]Sheet1!A45</f>
         <v>0</v>
       </c>
@@ -6668,7 +6869,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
+      <c r="A46" s="10">
         <f>[3]Sheet1!A46</f>
         <v>0</v>
       </c>
@@ -6682,7 +6883,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
+      <c r="A47" s="10">
         <f>[3]Sheet1!A47</f>
         <v>0</v>
       </c>
@@ -6696,7 +6897,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
+      <c r="A48" s="10">
         <f>[3]Sheet1!A48</f>
         <v>0</v>
       </c>
@@ -6710,7 +6911,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
+      <c r="A49" s="10">
         <f>[3]Sheet1!A49</f>
         <v>0</v>
       </c>
@@ -6724,7 +6925,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
+      <c r="A50" s="10">
         <f>[3]Sheet1!A50</f>
         <v>0</v>
       </c>
@@ -6738,7 +6939,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
+      <c r="A51" s="10">
         <f>[3]Sheet1!A51</f>
         <v>0</v>
       </c>
@@ -6752,7 +6953,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52">
+      <c r="A52" s="10">
         <f>[3]Sheet1!A52</f>
         <v>0</v>
       </c>
@@ -6766,7 +6967,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
+      <c r="A53" s="10">
         <f>[3]Sheet1!A53</f>
         <v>0</v>
       </c>
@@ -6780,7 +6981,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54">
+      <c r="A54" s="10">
         <f>[3]Sheet1!A54</f>
         <v>0</v>
       </c>
@@ -6794,7 +6995,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55">
+      <c r="A55" s="10">
         <f>[3]Sheet1!A55</f>
         <v>0</v>
       </c>
@@ -6808,7 +7009,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56">
+      <c r="A56" s="10">
         <f>[3]Sheet1!A56</f>
         <v>0</v>
       </c>
@@ -6822,7 +7023,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57">
+      <c r="A57" s="10">
         <f>[3]Sheet1!A57</f>
         <v>0</v>
       </c>
@@ -6836,7 +7037,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58">
+      <c r="A58" s="10">
         <f>[3]Sheet1!A58</f>
         <v>0</v>
       </c>
@@ -6850,7 +7051,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59">
+      <c r="A59" s="10">
         <f>[3]Sheet1!A59</f>
         <v>0</v>
       </c>
@@ -6864,7 +7065,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
+      <c r="A60" s="10">
         <f>[3]Sheet1!A60</f>
         <v>0</v>
       </c>
@@ -6878,7 +7079,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
+      <c r="A61" s="10">
         <f>[3]Sheet1!A61</f>
         <v>0</v>
       </c>
@@ -6892,7 +7093,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
+      <c r="A62" s="10">
         <f>[3]Sheet1!A62</f>
         <v>0</v>
       </c>
@@ -6906,7 +7107,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
+      <c r="A63" s="10">
         <f>[3]Sheet1!A63</f>
         <v>0</v>
       </c>
@@ -6920,7 +7121,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64">
+      <c r="A64" s="10">
         <f>[3]Sheet1!A64</f>
         <v>0</v>
       </c>
@@ -6934,7 +7135,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
+      <c r="A65" s="10">
         <f>[3]Sheet1!A65</f>
         <v>0</v>
       </c>
@@ -6948,7 +7149,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66">
+      <c r="A66" s="10">
         <f>[3]Sheet1!A66</f>
         <v>0</v>
       </c>
@@ -6962,7 +7163,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67">
+      <c r="A67" s="10">
         <f>[3]Sheet1!A67</f>
         <v>0</v>
       </c>
@@ -6976,7 +7177,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
+      <c r="A68" s="10">
         <f>[3]Sheet1!A68</f>
         <v>0</v>
       </c>
@@ -6990,7 +7191,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
+      <c r="A69" s="10">
         <f>[3]Sheet1!A69</f>
         <v>0</v>
       </c>
@@ -7004,7 +7205,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
+      <c r="A70" s="10">
         <f>[3]Sheet1!A70</f>
         <v>0</v>
       </c>
@@ -7018,7 +7219,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71">
+      <c r="A71" s="10">
         <f>[3]Sheet1!A71</f>
         <v>0</v>
       </c>
@@ -7032,7 +7233,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
+      <c r="A72" s="10">
         <f>[3]Sheet1!A72</f>
         <v>0</v>
       </c>
@@ -7046,7 +7247,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
+      <c r="A73" s="10">
         <f>[3]Sheet1!A73</f>
         <v>0</v>
       </c>
@@ -7060,7 +7261,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
+      <c r="A74" s="10">
         <f>[3]Sheet1!A74</f>
         <v>0</v>
       </c>
@@ -7074,7 +7275,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75">
+      <c r="A75" s="10">
         <f>[3]Sheet1!A75</f>
         <v>0</v>
       </c>
@@ -7088,7 +7289,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76">
+      <c r="A76" s="10">
         <f>[3]Sheet1!A76</f>
         <v>0</v>
       </c>
@@ -7102,7 +7303,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77">
+      <c r="A77" s="10">
         <f>[3]Sheet1!A77</f>
         <v>0</v>
       </c>
@@ -7116,7 +7317,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78">
+      <c r="A78" s="10">
         <f>[3]Sheet1!A78</f>
         <v>0</v>
       </c>
@@ -7130,7 +7331,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79">
+      <c r="A79" s="10">
         <f>[3]Sheet1!A79</f>
         <v>0</v>
       </c>
@@ -7144,7 +7345,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
+      <c r="A80" s="10">
         <f>[3]Sheet1!A80</f>
         <v>0</v>
       </c>
@@ -7158,7 +7359,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
+      <c r="A81" s="10">
         <f>[3]Sheet1!A81</f>
         <v>0</v>
       </c>
@@ -7172,7 +7373,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82">
+      <c r="A82" s="10">
         <f>[3]Sheet1!A82</f>
         <v>0</v>
       </c>
@@ -7186,7 +7387,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83">
+      <c r="A83" s="10">
         <f>[3]Sheet1!A83</f>
         <v>0</v>
       </c>
@@ -7200,7 +7401,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84">
+      <c r="A84" s="10">
         <f>[3]Sheet1!A84</f>
         <v>0</v>
       </c>
@@ -7214,7 +7415,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
+      <c r="A85" s="10">
         <f>[3]Sheet1!A85</f>
         <v>0</v>
       </c>
@@ -7228,7 +7429,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86">
+      <c r="A86" s="10">
         <f>[3]Sheet1!A86</f>
         <v>0</v>
       </c>
@@ -7242,7 +7443,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87">
+      <c r="A87" s="10">
         <f>[3]Sheet1!A87</f>
         <v>0</v>
       </c>
@@ -7256,7 +7457,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88">
+      <c r="A88" s="10">
         <f>[3]Sheet1!A88</f>
         <v>0</v>
       </c>
@@ -7270,7 +7471,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89">
+      <c r="A89" s="10">
         <f>[3]Sheet1!A89</f>
         <v>0</v>
       </c>
@@ -7284,7 +7485,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90">
+      <c r="A90" s="10">
         <f>[3]Sheet1!A90</f>
         <v>0</v>
       </c>
@@ -7298,7 +7499,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91">
+      <c r="A91" s="10">
         <f>[3]Sheet1!A91</f>
         <v>0</v>
       </c>
@@ -7312,7 +7513,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92">
+      <c r="A92" s="10">
         <f>[3]Sheet1!A92</f>
         <v>0</v>
       </c>
@@ -7326,7 +7527,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
+      <c r="A93" s="10">
         <f>[3]Sheet1!A93</f>
         <v>0</v>
       </c>
@@ -7340,7 +7541,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
+      <c r="A94" s="10">
         <f>[3]Sheet1!A94</f>
         <v>0</v>
       </c>
@@ -7354,7 +7555,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95">
+      <c r="A95" s="10">
         <f>[3]Sheet1!A95</f>
         <v>0</v>
       </c>
@@ -7368,7 +7569,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96">
+      <c r="A96" s="10">
         <f>[3]Sheet1!A96</f>
         <v>0</v>
       </c>
@@ -7382,7 +7583,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97">
+      <c r="A97" s="10">
         <f>[3]Sheet1!A97</f>
         <v>0</v>
       </c>
@@ -7396,7 +7597,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
+      <c r="A98" s="10">
         <f>[3]Sheet1!A98</f>
         <v>0</v>
       </c>
@@ -7410,7 +7611,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
+      <c r="A99" s="10">
         <f>[3]Sheet1!A99</f>
         <v>0</v>
       </c>
@@ -7424,7 +7625,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100">
+      <c r="A100" s="10">
         <f>[3]Sheet1!A100</f>
         <v>0</v>
       </c>
@@ -7448,7 +7649,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C100"/>
+      <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7472,7 +7673,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="10">
         <f>[4]Sheet1!A2</f>
         <v>40183</v>
       </c>
@@ -7486,7 +7687,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="A3" s="10">
         <f>[4]Sheet1!A3</f>
         <v>40185</v>
       </c>
@@ -7500,7 +7701,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="10">
         <f>[4]Sheet1!A4</f>
         <v>40186</v>
       </c>
@@ -7514,7 +7715,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" s="10">
         <f>[4]Sheet1!A5</f>
         <v>40187</v>
       </c>
@@ -7528,7 +7729,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="A6" s="10">
         <f>[4]Sheet1!A6</f>
         <v>40189</v>
       </c>
@@ -7542,7 +7743,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="A7" s="10">
         <f>[4]Sheet1!A7</f>
         <v>40190</v>
       </c>
@@ -7556,7 +7757,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="10">
         <f>[4]Sheet1!A8</f>
         <v>40190</v>
       </c>
@@ -7570,7 +7771,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="A9" s="10">
         <f>[4]Sheet1!A9</f>
         <v>40197</v>
       </c>
@@ -7584,7 +7785,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="A10" s="10">
         <f>[4]Sheet1!A10</f>
         <v>40197</v>
       </c>
@@ -7598,7 +7799,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" s="10">
         <f>[4]Sheet1!A11</f>
         <v>40199</v>
       </c>
@@ -7612,7 +7813,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="A12" s="10">
         <f>[4]Sheet1!A12</f>
         <v>40202</v>
       </c>
@@ -7626,7 +7827,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="10">
         <f>[4]Sheet1!A13</f>
         <v>40204</v>
       </c>
@@ -7640,7 +7841,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="A14" s="10">
         <f>[4]Sheet1!A14</f>
         <v>40204</v>
       </c>
@@ -7654,7 +7855,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="A15" s="10">
         <f>[4]Sheet1!A15</f>
         <v>40205</v>
       </c>
@@ -7668,7 +7869,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="A16" s="10">
         <f>[4]Sheet1!A16</f>
         <v>40206</v>
       </c>
@@ -7682,7 +7883,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="A17" s="10">
         <f>[4]Sheet1!A17</f>
         <v>40210</v>
       </c>
@@ -7696,7 +7897,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="A18" s="10">
         <f>[4]Sheet1!A18</f>
         <v>40210</v>
       </c>
@@ -7710,7 +7911,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="A19" s="10">
         <f>[4]Sheet1!A19</f>
         <v>40210</v>
       </c>
@@ -7724,7 +7925,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="A20" s="10">
         <f>[4]Sheet1!A20</f>
         <v>40211</v>
       </c>
@@ -7738,7 +7939,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" s="10">
         <f>[4]Sheet1!A21</f>
         <v>40213</v>
       </c>
@@ -7752,7 +7953,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
+      <c r="A22" s="10">
         <f>[4]Sheet1!A22</f>
         <v>40217</v>
       </c>
@@ -7766,7 +7967,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="A23" s="10">
         <f>[4]Sheet1!A23</f>
         <v>40217</v>
       </c>
@@ -7780,7 +7981,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="A24" s="10">
         <f>[4]Sheet1!A24</f>
         <v>40220</v>
       </c>
@@ -7794,7 +7995,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="A25" s="10">
         <f>[4]Sheet1!A25</f>
         <v>40227</v>
       </c>
@@ -7808,7 +8009,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
+      <c r="A26" s="10">
         <f>[4]Sheet1!A26</f>
         <v>40231</v>
       </c>
@@ -7822,7 +8023,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="A27" s="10">
         <f>[4]Sheet1!A27</f>
         <v>40232</v>
       </c>
@@ -7836,7 +8037,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="A28" s="10">
         <f>[4]Sheet1!A28</f>
         <v>40239</v>
       </c>
@@ -7850,7 +8051,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="A29" s="10">
         <f>[4]Sheet1!A29</f>
         <v>40239</v>
       </c>
@@ -7864,7 +8065,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="A30" s="10">
         <f>[4]Sheet1!A30</f>
         <v>40241</v>
       </c>
@@ -7878,91 +8079,91 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="A31" s="10">
         <f>[4]Sheet1!A31</f>
-        <v>0</v>
+        <v>40243</v>
       </c>
       <c r="B31">
         <f>[4]Sheet1!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="str">
         <f>[4]Sheet1!C31</f>
-        <v>0</v>
+        <v>Preliminary Offest Joint Design</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
+      <c r="A32" s="10">
         <f>[4]Sheet1!A32</f>
-        <v>0</v>
+        <v>40245</v>
       </c>
       <c r="B32">
         <f>[4]Sheet1!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="str">
         <f>[4]Sheet1!C32</f>
-        <v>0</v>
+        <v>Detailed Offset Link/Link5/Tool Mount Drawings</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="A33" s="10">
         <f>[4]Sheet1!A33</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B33">
         <f>[4]Sheet1!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
         <f>[4]Sheet1!C33</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
+      <c r="A34" s="10">
         <f>[4]Sheet1!A34</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B34">
         <f>[4]Sheet1!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="str">
         <f>[4]Sheet1!C34</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
+      <c r="A35" s="10">
         <f>[4]Sheet1!A35</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B35">
         <f>[4]Sheet1!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="str">
         <f>[4]Sheet1!C35</f>
-        <v>0</v>
+        <v>Session 1 with Dave (design and solidworks) - Markus Talk</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
+      <c r="A36" s="10">
         <f>[4]Sheet1!A36</f>
-        <v>0</v>
+        <v>40247</v>
       </c>
       <c r="B36">
         <f>[4]Sheet1!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="str">
         <f>[4]Sheet1!C36</f>
-        <v>0</v>
+        <v>Session 2 with Dave (design and solidworks)</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37">
+      <c r="A37" s="10">
         <f>[4]Sheet1!A37</f>
         <v>0</v>
       </c>
@@ -7976,7 +8177,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="A38" s="10">
         <f>[4]Sheet1!A38</f>
         <v>0</v>
       </c>
@@ -7990,7 +8191,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
+      <c r="A39" s="10">
         <f>[4]Sheet1!A39</f>
         <v>0</v>
       </c>
@@ -8004,7 +8205,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
+      <c r="A40" s="10">
         <f>[4]Sheet1!A40</f>
         <v>0</v>
       </c>
@@ -8018,7 +8219,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
+      <c r="A41" s="10">
         <f>[4]Sheet1!A41</f>
         <v>0</v>
       </c>
@@ -8032,7 +8233,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
+      <c r="A42" s="10">
         <f>[4]Sheet1!A42</f>
         <v>0</v>
       </c>
@@ -8046,7 +8247,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
+      <c r="A43" s="10">
         <f>[4]Sheet1!A43</f>
         <v>0</v>
       </c>
@@ -8060,7 +8261,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
+      <c r="A44" s="10">
         <f>[4]Sheet1!A44</f>
         <v>0</v>
       </c>
@@ -8074,7 +8275,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
+      <c r="A45" s="10">
         <f>[4]Sheet1!A45</f>
         <v>0</v>
       </c>
@@ -8088,7 +8289,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
+      <c r="A46" s="10">
         <f>[4]Sheet1!A46</f>
         <v>0</v>
       </c>
@@ -8102,7 +8303,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
+      <c r="A47" s="10">
         <f>[4]Sheet1!A47</f>
         <v>0</v>
       </c>
@@ -8116,7 +8317,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
+      <c r="A48" s="10">
         <f>[4]Sheet1!A48</f>
         <v>0</v>
       </c>
@@ -8130,7 +8331,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
+      <c r="A49" s="10">
         <f>[4]Sheet1!A49</f>
         <v>0</v>
       </c>
@@ -8144,7 +8345,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
+      <c r="A50" s="10">
         <f>[4]Sheet1!A50</f>
         <v>0</v>
       </c>
@@ -8158,7 +8359,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
+      <c r="A51" s="10">
         <f>[4]Sheet1!A51</f>
         <v>0</v>
       </c>
@@ -8172,7 +8373,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52">
+      <c r="A52" s="10">
         <f>[4]Sheet1!A52</f>
         <v>0</v>
       </c>
@@ -8186,7 +8387,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
+      <c r="A53" s="10">
         <f>[4]Sheet1!A53</f>
         <v>0</v>
       </c>
@@ -8200,7 +8401,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54">
+      <c r="A54" s="10">
         <f>[4]Sheet1!A54</f>
         <v>0</v>
       </c>
@@ -8214,7 +8415,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55">
+      <c r="A55" s="10">
         <f>[4]Sheet1!A55</f>
         <v>0</v>
       </c>
@@ -8228,7 +8429,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56">
+      <c r="A56" s="10">
         <f>[4]Sheet1!A56</f>
         <v>0</v>
       </c>
@@ -8242,7 +8443,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57">
+      <c r="A57" s="10">
         <f>[4]Sheet1!A57</f>
         <v>0</v>
       </c>
@@ -8256,7 +8457,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58">
+      <c r="A58" s="10">
         <f>[4]Sheet1!A58</f>
         <v>0</v>
       </c>
@@ -8270,7 +8471,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59">
+      <c r="A59" s="10">
         <f>[4]Sheet1!A59</f>
         <v>0</v>
       </c>
@@ -8284,7 +8485,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
+      <c r="A60" s="10">
         <f>[4]Sheet1!A60</f>
         <v>0</v>
       </c>
@@ -8298,7 +8499,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
+      <c r="A61" s="10">
         <f>[4]Sheet1!A61</f>
         <v>0</v>
       </c>
@@ -8312,7 +8513,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
+      <c r="A62" s="10">
         <f>[4]Sheet1!A62</f>
         <v>0</v>
       </c>
@@ -8326,7 +8527,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
+      <c r="A63" s="10">
         <f>[4]Sheet1!A63</f>
         <v>0</v>
       </c>
@@ -8340,7 +8541,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64">
+      <c r="A64" s="10">
         <f>[4]Sheet1!A64</f>
         <v>0</v>
       </c>
@@ -8354,7 +8555,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
+      <c r="A65" s="10">
         <f>[4]Sheet1!A65</f>
         <v>0</v>
       </c>
@@ -8368,7 +8569,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66">
+      <c r="A66" s="10">
         <f>[4]Sheet1!A66</f>
         <v>0</v>
       </c>
@@ -8382,7 +8583,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67">
+      <c r="A67" s="10">
         <f>[4]Sheet1!A67</f>
         <v>0</v>
       </c>
@@ -8396,7 +8597,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
+      <c r="A68" s="10">
         <f>[4]Sheet1!A68</f>
         <v>0</v>
       </c>
@@ -8410,7 +8611,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
+      <c r="A69" s="10">
         <f>[4]Sheet1!A69</f>
         <v>0</v>
       </c>
@@ -8424,7 +8625,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
+      <c r="A70" s="10">
         <f>[4]Sheet1!A70</f>
         <v>0</v>
       </c>
@@ -8438,7 +8639,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71">
+      <c r="A71" s="10">
         <f>[4]Sheet1!A71</f>
         <v>0</v>
       </c>
@@ -8452,7 +8653,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
+      <c r="A72" s="10">
         <f>[4]Sheet1!A72</f>
         <v>0</v>
       </c>
@@ -8466,7 +8667,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
+      <c r="A73" s="10">
         <f>[4]Sheet1!A73</f>
         <v>0</v>
       </c>
@@ -8480,7 +8681,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
+      <c r="A74" s="10">
         <f>[4]Sheet1!A74</f>
         <v>0</v>
       </c>
@@ -8494,7 +8695,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75">
+      <c r="A75" s="10">
         <f>[4]Sheet1!A75</f>
         <v>0</v>
       </c>
@@ -8508,7 +8709,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76">
+      <c r="A76" s="10">
         <f>[4]Sheet1!A76</f>
         <v>0</v>
       </c>
@@ -8522,7 +8723,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77">
+      <c r="A77" s="10">
         <f>[4]Sheet1!A77</f>
         <v>0</v>
       </c>
@@ -8536,7 +8737,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78">
+      <c r="A78" s="10">
         <f>[4]Sheet1!A78</f>
         <v>0</v>
       </c>
@@ -8550,7 +8751,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79">
+      <c r="A79" s="10">
         <f>[4]Sheet1!A79</f>
         <v>0</v>
       </c>
@@ -8564,7 +8765,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
+      <c r="A80" s="10">
         <f>[4]Sheet1!A80</f>
         <v>0</v>
       </c>
@@ -8578,7 +8779,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
+      <c r="A81" s="10">
         <f>[4]Sheet1!A81</f>
         <v>0</v>
       </c>
@@ -8592,7 +8793,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82">
+      <c r="A82" s="10">
         <f>[4]Sheet1!A82</f>
         <v>0</v>
       </c>
@@ -8606,7 +8807,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83">
+      <c r="A83" s="10">
         <f>[4]Sheet1!A83</f>
         <v>0</v>
       </c>
@@ -8620,7 +8821,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84">
+      <c r="A84" s="10">
         <f>[4]Sheet1!A84</f>
         <v>0</v>
       </c>
@@ -8634,7 +8835,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
+      <c r="A85" s="10">
         <f>[4]Sheet1!A85</f>
         <v>0</v>
       </c>
@@ -8648,7 +8849,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86">
+      <c r="A86" s="10">
         <f>[4]Sheet1!A86</f>
         <v>0</v>
       </c>
@@ -8662,7 +8863,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87">
+      <c r="A87" s="10">
         <f>[4]Sheet1!A87</f>
         <v>0</v>
       </c>
@@ -8676,7 +8877,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88">
+      <c r="A88" s="10">
         <f>[4]Sheet1!A88</f>
         <v>0</v>
       </c>
@@ -8690,7 +8891,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89">
+      <c r="A89" s="10">
         <f>[4]Sheet1!A89</f>
         <v>0</v>
       </c>
@@ -8704,7 +8905,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90">
+      <c r="A90" s="10">
         <f>[4]Sheet1!A90</f>
         <v>0</v>
       </c>
@@ -8718,7 +8919,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91">
+      <c r="A91" s="10">
         <f>[4]Sheet1!A91</f>
         <v>0</v>
       </c>
@@ -8732,7 +8933,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92">
+      <c r="A92" s="10">
         <f>[4]Sheet1!A92</f>
         <v>0</v>
       </c>
@@ -8746,7 +8947,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
+      <c r="A93" s="10">
         <f>[4]Sheet1!A93</f>
         <v>0</v>
       </c>
@@ -8760,7 +8961,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
+      <c r="A94" s="10">
         <f>[4]Sheet1!A94</f>
         <v>0</v>
       </c>
@@ -8774,7 +8975,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95">
+      <c r="A95" s="10">
         <f>[4]Sheet1!A95</f>
         <v>0</v>
       </c>
@@ -8788,7 +8989,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96">
+      <c r="A96" s="10">
         <f>[4]Sheet1!A96</f>
         <v>0</v>
       </c>
@@ -8802,7 +9003,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97">
+      <c r="A97" s="10">
         <f>[4]Sheet1!A97</f>
         <v>0</v>
       </c>
@@ -8816,7 +9017,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
+      <c r="A98" s="10">
         <f>[4]Sheet1!A98</f>
         <v>0</v>
       </c>
@@ -8830,7 +9031,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
+      <c r="A99" s="10">
         <f>[4]Sheet1!A99</f>
         <v>0</v>
       </c>
@@ -8844,7 +9045,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100">
+      <c r="A100" s="10">
         <f>[4]Sheet1!A100</f>
         <v>0</v>
       </c>
@@ -8867,8 +9068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8892,7 +9093,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="10">
         <f>[5]Sheet1!A2</f>
         <v>40183</v>
       </c>
@@ -8906,7 +9107,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="A3" s="10">
         <f>[5]Sheet1!A3</f>
         <v>40183</v>
       </c>
@@ -8920,7 +9121,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="10">
         <f>[5]Sheet1!A4</f>
         <v>40185</v>
       </c>
@@ -8934,7 +9135,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" s="10">
         <f>[5]Sheet1!A5</f>
         <v>40185</v>
       </c>
@@ -8948,7 +9149,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="A6" s="10">
         <f>[5]Sheet1!A6</f>
         <v>40186</v>
       </c>
@@ -8962,7 +9163,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="A7" s="10">
         <f>[5]Sheet1!A7</f>
         <v>40187</v>
       </c>
@@ -8976,7 +9177,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="10">
         <f>[5]Sheet1!A8</f>
         <v>40188</v>
       </c>
@@ -8990,7 +9191,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="A9" s="10">
         <f>[5]Sheet1!A9</f>
         <v>40190</v>
       </c>
@@ -9004,7 +9205,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="A10" s="10">
         <f>[5]Sheet1!A10</f>
         <v>40197</v>
       </c>
@@ -9018,7 +9219,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" s="10">
         <f>[5]Sheet1!A11</f>
         <v>40197</v>
       </c>
@@ -9032,7 +9233,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="A12" s="10">
         <f>[5]Sheet1!A12</f>
         <v>40197</v>
       </c>
@@ -9046,7 +9247,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="10">
         <f>[5]Sheet1!A13</f>
         <v>40198</v>
       </c>
@@ -9060,7 +9261,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="A14" s="10">
         <f>[5]Sheet1!A14</f>
         <v>40199</v>
       </c>
@@ -9074,7 +9275,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="A15" s="10">
         <f>[5]Sheet1!A15</f>
         <v>40201</v>
       </c>
@@ -9088,7 +9289,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="A16" s="10">
         <f>[5]Sheet1!A16</f>
         <v>40202</v>
       </c>
@@ -9102,7 +9303,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="A17" s="10">
         <f>[5]Sheet1!A17</f>
         <v>40204</v>
       </c>
@@ -9116,7 +9317,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="A18" s="10">
         <f>[5]Sheet1!A18</f>
         <v>40204</v>
       </c>
@@ -9130,7 +9331,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="A19" s="10">
         <f>[5]Sheet1!A19</f>
         <v>40205</v>
       </c>
@@ -9144,7 +9345,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="A20" s="10">
         <f>[5]Sheet1!A20</f>
         <v>40206</v>
       </c>
@@ -9158,7 +9359,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" s="10">
         <f>[5]Sheet1!A21</f>
         <v>40210</v>
       </c>
@@ -9172,7 +9373,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
+      <c r="A22" s="10">
         <f>[5]Sheet1!A22</f>
         <v>40210</v>
       </c>
@@ -9186,7 +9387,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="A23" s="10">
         <f>[5]Sheet1!A23</f>
         <v>40211</v>
       </c>
@@ -9200,7 +9401,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="A24" s="10">
         <f>[5]Sheet1!A24</f>
         <v>40213</v>
       </c>
@@ -9214,7 +9415,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="A25" s="10">
         <f>[5]Sheet1!A25</f>
         <v>40217</v>
       </c>
@@ -9228,7 +9429,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
+      <c r="A26" s="10">
         <f>[5]Sheet1!A26</f>
         <v>40217</v>
       </c>
@@ -9242,7 +9443,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="A27" s="10">
         <f>[5]Sheet1!A27</f>
         <v>40220</v>
       </c>
@@ -9256,7 +9457,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="A28" s="10">
         <f>[5]Sheet1!A28</f>
         <v>40223</v>
       </c>
@@ -9270,7 +9471,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="A29" s="10">
         <f>[5]Sheet1!A29</f>
         <v>40223</v>
       </c>
@@ -9284,7 +9485,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="A30" s="10">
         <f>[5]Sheet1!A30</f>
         <v>40224</v>
       </c>
@@ -9298,7 +9499,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="A31" s="10">
         <f>[5]Sheet1!A31</f>
         <v>40227</v>
       </c>
@@ -9312,7 +9513,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
+      <c r="A32" s="10">
         <f>[5]Sheet1!A32</f>
         <v>40228</v>
       </c>
@@ -9326,7 +9527,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="A33" s="10">
         <f>[5]Sheet1!A33</f>
         <v>40228</v>
       </c>
@@ -9340,7 +9541,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
+      <c r="A34" s="10">
         <f>[5]Sheet1!A34</f>
         <v>40228</v>
       </c>
@@ -9354,7 +9555,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
+      <c r="A35" s="10">
         <f>[5]Sheet1!A35</f>
         <v>40229</v>
       </c>
@@ -9368,7 +9569,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
+      <c r="A36" s="10">
         <f>[5]Sheet1!A36</f>
         <v>40232</v>
       </c>
@@ -9382,7 +9583,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37">
+      <c r="A37" s="10">
         <f>[5]Sheet1!A37</f>
         <v>40232</v>
       </c>
@@ -9396,7 +9597,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="A38" s="10">
         <f>[5]Sheet1!A38</f>
         <v>40241</v>
       </c>
@@ -9410,7 +9611,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
+      <c r="A39" s="10">
         <f>[5]Sheet1!A39</f>
         <v>40241</v>
       </c>
@@ -9424,35 +9625,35 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
+      <c r="A40" s="10">
         <f>[5]Sheet1!A40</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B40">
         <f>[5]Sheet1!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C40">
+        <v>1.5</v>
+      </c>
+      <c r="C40" t="str">
         <f>[5]Sheet1!C40</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
+      <c r="A41" s="10">
         <f>[5]Sheet1!A41</f>
-        <v>0</v>
+        <v>40246</v>
       </c>
       <c r="B41">
         <f>[5]Sheet1!B41</f>
-        <v>0</v>
-      </c>
-      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="str">
         <f>[5]Sheet1!C41</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
+      <c r="A42" s="10">
         <f>[5]Sheet1!A42</f>
         <v>0</v>
       </c>
@@ -9466,7 +9667,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
+      <c r="A43" s="10">
         <f>[5]Sheet1!A43</f>
         <v>0</v>
       </c>
@@ -9480,7 +9681,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
+      <c r="A44" s="10">
         <f>[5]Sheet1!A44</f>
         <v>0</v>
       </c>
@@ -9494,7 +9695,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
+      <c r="A45" s="10">
         <f>[5]Sheet1!A45</f>
         <v>0</v>
       </c>
@@ -9508,7 +9709,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
+      <c r="A46" s="10">
         <f>[5]Sheet1!A46</f>
         <v>0</v>
       </c>
@@ -9522,7 +9723,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
+      <c r="A47" s="10">
         <f>[5]Sheet1!A47</f>
         <v>0</v>
       </c>
@@ -9536,7 +9737,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
+      <c r="A48" s="10">
         <f>[5]Sheet1!A48</f>
         <v>0</v>
       </c>
@@ -9550,7 +9751,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
+      <c r="A49" s="10">
         <f>[5]Sheet1!A49</f>
         <v>0</v>
       </c>
@@ -9564,7 +9765,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
+      <c r="A50" s="10">
         <f>[5]Sheet1!A50</f>
         <v>0</v>
       </c>
@@ -9578,7 +9779,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
+      <c r="A51" s="10">
         <f>[5]Sheet1!A51</f>
         <v>0</v>
       </c>
@@ -9592,7 +9793,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52">
+      <c r="A52" s="10">
         <f>[5]Sheet1!A52</f>
         <v>0</v>
       </c>
@@ -9606,7 +9807,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
+      <c r="A53" s="10">
         <f>[5]Sheet1!A53</f>
         <v>0</v>
       </c>
@@ -9620,7 +9821,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54">
+      <c r="A54" s="10">
         <f>[5]Sheet1!A54</f>
         <v>0</v>
       </c>
@@ -9634,7 +9835,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55">
+      <c r="A55" s="10">
         <f>[5]Sheet1!A55</f>
         <v>0</v>
       </c>
@@ -9648,7 +9849,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56">
+      <c r="A56" s="10">
         <f>[5]Sheet1!A56</f>
         <v>0</v>
       </c>
@@ -9662,7 +9863,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57">
+      <c r="A57" s="10">
         <f>[5]Sheet1!A57</f>
         <v>0</v>
       </c>
@@ -9676,7 +9877,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58">
+      <c r="A58" s="10">
         <f>[5]Sheet1!A58</f>
         <v>0</v>
       </c>
@@ -9690,7 +9891,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59">
+      <c r="A59" s="10">
         <f>[5]Sheet1!A59</f>
         <v>0</v>
       </c>
@@ -9704,7 +9905,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
+      <c r="A60" s="10">
         <f>[5]Sheet1!A60</f>
         <v>0</v>
       </c>
@@ -9718,7 +9919,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
+      <c r="A61" s="10">
         <f>[5]Sheet1!A61</f>
         <v>0</v>
       </c>
@@ -9732,7 +9933,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
+      <c r="A62" s="10">
         <f>[5]Sheet1!A62</f>
         <v>0</v>
       </c>
@@ -9746,7 +9947,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
+      <c r="A63" s="10">
         <f>[5]Sheet1!A63</f>
         <v>0</v>
       </c>
@@ -9760,7 +9961,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64">
+      <c r="A64" s="10">
         <f>[5]Sheet1!A64</f>
         <v>0</v>
       </c>
@@ -9774,7 +9975,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
+      <c r="A65" s="10">
         <f>[5]Sheet1!A65</f>
         <v>0</v>
       </c>
@@ -9788,7 +9989,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66">
+      <c r="A66" s="10">
         <f>[5]Sheet1!A66</f>
         <v>0</v>
       </c>
@@ -9802,7 +10003,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67">
+      <c r="A67" s="10">
         <f>[5]Sheet1!A67</f>
         <v>0</v>
       </c>
@@ -9816,7 +10017,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
+      <c r="A68" s="10">
         <f>[5]Sheet1!A68</f>
         <v>0</v>
       </c>
@@ -9830,7 +10031,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
+      <c r="A69" s="10">
         <f>[5]Sheet1!A69</f>
         <v>0</v>
       </c>
@@ -9844,7 +10045,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
+      <c r="A70" s="10">
         <f>[5]Sheet1!A70</f>
         <v>0</v>
       </c>
@@ -9858,7 +10059,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71">
+      <c r="A71" s="10">
         <f>[5]Sheet1!A71</f>
         <v>0</v>
       </c>
@@ -9872,7 +10073,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
+      <c r="A72" s="10">
         <f>[5]Sheet1!A72</f>
         <v>0</v>
       </c>
@@ -9886,7 +10087,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
+      <c r="A73" s="10">
         <f>[5]Sheet1!A73</f>
         <v>0</v>
       </c>
@@ -9900,7 +10101,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
+      <c r="A74" s="10">
         <f>[5]Sheet1!A74</f>
         <v>0</v>
       </c>
@@ -9914,7 +10115,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75">
+      <c r="A75" s="10">
         <f>[5]Sheet1!A75</f>
         <v>0</v>
       </c>
@@ -9928,7 +10129,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76">
+      <c r="A76" s="10">
         <f>[5]Sheet1!A76</f>
         <v>0</v>
       </c>
@@ -9942,7 +10143,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77">
+      <c r="A77" s="10">
         <f>[5]Sheet1!A77</f>
         <v>0</v>
       </c>
@@ -9956,7 +10157,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78">
+      <c r="A78" s="10">
         <f>[5]Sheet1!A78</f>
         <v>0</v>
       </c>
@@ -9970,7 +10171,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79">
+      <c r="A79" s="10">
         <f>[5]Sheet1!A79</f>
         <v>0</v>
       </c>
@@ -9984,7 +10185,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
+      <c r="A80" s="10">
         <f>[5]Sheet1!A80</f>
         <v>0</v>
       </c>
@@ -9998,7 +10199,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
+      <c r="A81" s="10">
         <f>[5]Sheet1!A81</f>
         <v>0</v>
       </c>
@@ -10012,7 +10213,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82">
+      <c r="A82" s="10">
         <f>[5]Sheet1!A82</f>
         <v>0</v>
       </c>
@@ -10026,7 +10227,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83">
+      <c r="A83" s="10">
         <f>[5]Sheet1!A83</f>
         <v>0</v>
       </c>
@@ -10040,7 +10241,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84">
+      <c r="A84" s="10">
         <f>[5]Sheet1!A84</f>
         <v>0</v>
       </c>
@@ -10054,7 +10255,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
+      <c r="A85" s="10">
         <f>[5]Sheet1!A85</f>
         <v>0</v>
       </c>
@@ -10068,7 +10269,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86">
+      <c r="A86" s="10">
         <f>[5]Sheet1!A86</f>
         <v>0</v>
       </c>
@@ -10082,7 +10283,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87">
+      <c r="A87" s="10">
         <f>[5]Sheet1!A87</f>
         <v>0</v>
       </c>
@@ -10096,7 +10297,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88">
+      <c r="A88" s="10">
         <f>[5]Sheet1!A88</f>
         <v>0</v>
       </c>
@@ -10110,7 +10311,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89">
+      <c r="A89" s="10">
         <f>[5]Sheet1!A89</f>
         <v>0</v>
       </c>
@@ -10124,7 +10325,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90">
+      <c r="A90" s="10">
         <f>[5]Sheet1!A90</f>
         <v>0</v>
       </c>
@@ -10138,7 +10339,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91">
+      <c r="A91" s="10">
         <f>[5]Sheet1!A91</f>
         <v>0</v>
       </c>
@@ -10152,7 +10353,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92">
+      <c r="A92" s="10">
         <f>[5]Sheet1!A92</f>
         <v>0</v>
       </c>
@@ -10166,7 +10367,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
+      <c r="A93" s="10">
         <f>[5]Sheet1!A93</f>
         <v>0</v>
       </c>
@@ -10180,7 +10381,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
+      <c r="A94" s="10">
         <f>[5]Sheet1!A94</f>
         <v>0</v>
       </c>
@@ -10194,7 +10395,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95">
+      <c r="A95" s="10">
         <f>[5]Sheet1!A95</f>
         <v>0</v>
       </c>
@@ -10208,7 +10409,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96">
+      <c r="A96" s="10">
         <f>[5]Sheet1!A96</f>
         <v>0</v>
       </c>
@@ -10222,7 +10423,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97">
+      <c r="A97" s="10">
         <f>[5]Sheet1!A97</f>
         <v>0</v>
       </c>
@@ -10236,7 +10437,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
+      <c r="A98" s="10">
         <f>[5]Sheet1!A98</f>
         <v>0</v>
       </c>
@@ -10250,7 +10451,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
+      <c r="A99" s="10">
         <f>[5]Sheet1!A99</f>
         <v>0</v>
       </c>
@@ -10264,7 +10465,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100">
+      <c r="A100" s="10">
         <f>[5]Sheet1!A100</f>
         <v>0</v>
       </c>

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -271,10 +271,10 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>92.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.25</c:v>
+                  <c:v>41.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35</c:v>
@@ -395,10 +395,10 @@
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.25</c:v>
+                  <c:v>65.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>73</c:v>
@@ -410,24 +410,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="36623872"/>
-        <c:axId val="36625408"/>
+        <c:axId val="79611392"/>
+        <c:axId val="79612928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36623872"/>
+        <c:axId val="79611392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36625408"/>
+        <c:crossAx val="79612928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36625408"/>
+        <c:axId val="79612928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +435,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36623872"/>
+        <c:crossAx val="79611392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -448,7 +448,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1665,6 +1665,17 @@
             <v>QNX - Interrupts/Encoder test</v>
           </cell>
         </row>
+        <row r="61">
+          <cell r="A61">
+            <v>40249</v>
+          </cell>
+          <cell r="B61">
+            <v>1.5</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Encoder/motor controller interface order</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2011,6 +2022,28 @@
           </cell>
           <cell r="C30" t="str">
             <v>QNX &amp; protocol procedure</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>40248</v>
+          </cell>
+          <cell r="B31">
+            <v>7</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Hard Constrait Programming</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>40250</v>
+          </cell>
+          <cell r="B32">
+            <v>3</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Hard Constrait Programming</v>
           </cell>
         </row>
       </sheetData>
@@ -3191,7 +3224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3238,7 +3271,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>91</v>
+        <v>92.5</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
@@ -3246,7 +3279,7 @@
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>133.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3255,7 +3288,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>31.25</v>
+        <v>41.25</v>
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
@@ -3263,7 +3296,7 @@
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>55.25</v>
+        <v>65.25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3306,7 +3339,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>242.75</v>
+        <v>254.25</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -3314,7 +3347,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>414.75</v>
+        <v>426.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3323,7 +3356,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>48.55</v>
+        <v>50.85</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
@@ -3331,7 +3364,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>82.95</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3340,15 +3373,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>5.0723880597014928</v>
+        <v>5.0133802816901412</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.5940298507462685</v>
+        <v>3.3915492957746478</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6664179104477626</v>
+        <v>8.4049295774647899</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3361,7 +3394,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>9.5714285714285712</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -5660,15 +5693,15 @@
     <row r="61" spans="1:3">
       <c r="A61" s="10">
         <f>[2]Sheet1!A61</f>
-        <v>0</v>
+        <v>40249</v>
       </c>
       <c r="B61">
         <f>[2]Sheet1!B61</f>
-        <v>0</v>
-      </c>
-      <c r="C61">
+        <v>1.5</v>
+      </c>
+      <c r="C61" t="str">
         <f>[2]Sheet1!C61</f>
-        <v>0</v>
+        <v>Encoder/motor controller interface order</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6661,29 +6694,29 @@
     <row r="31" spans="1:3">
       <c r="A31" s="10">
         <f>[3]Sheet1!A31</f>
-        <v>0</v>
+        <v>40248</v>
       </c>
       <c r="B31">
         <f>[3]Sheet1!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="str">
         <f>[3]Sheet1!C31</f>
-        <v>0</v>
+        <v>Hard Constrait Programming</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="10">
         <f>[3]Sheet1!A32</f>
-        <v>0</v>
+        <v>40250</v>
       </c>
       <c r="B32">
         <f>[3]Sheet1!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="str">
         <f>[3]Sheet1!C32</f>
-        <v>0</v>
+        <v>Hard Constrait Programming</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9068,7 +9101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -330,19 +330,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.5</c:v>
+                  <c:v>44.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.5</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,42 +392,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.25</c:v>
+                  <c:v>66.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79611392"/>
-        <c:axId val="79612928"/>
+        <c:axId val="80991744"/>
+        <c:axId val="80993280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79611392"/>
+        <c:axId val="80991744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79612928"/>
+        <c:crossAx val="80993280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79612928"/>
+        <c:axId val="80993280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +435,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79611392"/>
+        <c:crossAx val="80991744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -448,7 +448,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -972,6 +972,17 @@
             <v>Weekly Meeting</v>
           </cell>
         </row>
+        <row r="44">
+          <cell r="A44">
+            <v>40253</v>
+          </cell>
+          <cell r="B44">
+            <v>2</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
         <row r="45">
           <cell r="A45"/>
         </row>
@@ -1676,6 +1687,17 @@
             <v>Encoder/motor controller interface order</v>
           </cell>
         </row>
+        <row r="62">
+          <cell r="A62">
+            <v>40253</v>
+          </cell>
+          <cell r="B62">
+            <v>2</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2046,6 +2068,17 @@
             <v>Hard Constrait Programming</v>
           </cell>
         </row>
+        <row r="33">
+          <cell r="A33">
+            <v>40253</v>
+          </cell>
+          <cell r="B33">
+            <v>1</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2460,6 +2493,17 @@
             <v>Session 2 with Dave (design and solidworks)</v>
           </cell>
         </row>
+        <row r="37">
+          <cell r="A37">
+            <v>40253</v>
+          </cell>
+          <cell r="B37">
+            <v>2</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2927,6 +2971,17 @@
           </cell>
           <cell r="C41" t="str">
             <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>40253</v>
+          </cell>
+          <cell r="B42">
+            <v>2</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Group Meeting</v>
           </cell>
         </row>
       </sheetData>
@@ -3258,11 +3313,11 @@
       </c>
       <c r="C2">
         <f>SUMIF(david!C:C,"*meeting*",david!B:B)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <f>SUM(david!B:B)</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3275,11 +3330,11 @@
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3292,11 +3347,11 @@
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>65.25</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3309,11 +3364,11 @@
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" thickBot="1">
@@ -3326,11 +3381,11 @@
       </c>
       <c r="C6" s="1">
         <f>SUMIF(nicholas!C:C,"*meeting*",nicholas!B:B)</f>
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="D6" s="1">
         <f>SUM(nicholas!B:B)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1">
@@ -3343,11 +3398,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>426.25</v>
+        <v>435.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3360,11 +3415,11 @@
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
-        <v>34.4</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>85.25</v>
+        <v>87.05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3373,15 +3428,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>5.0133802816901412</v>
+        <v>4.8760273972602741</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.3915492957746478</v>
+        <v>3.4712328767123291</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4049295774647899</v>
+        <v>8.3472602739726014</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3394,7 +3449,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>10.142857142857142</v>
+        <v>10.428571428571429</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -4034,15 +4089,15 @@
     <row r="44" spans="1:3">
       <c r="A44" s="10">
         <f>[1]Sheet1!A44</f>
-        <v>0</v>
+        <v>40253</v>
       </c>
       <c r="B44">
         <f>[1]Sheet1!B44</f>
-        <v>0</v>
-      </c>
-      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
         <f>[1]Sheet1!C44</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5707,15 +5762,15 @@
     <row r="62" spans="1:3">
       <c r="A62" s="10">
         <f>[2]Sheet1!A62</f>
-        <v>0</v>
+        <v>40253</v>
       </c>
       <c r="B62">
         <f>[2]Sheet1!B62</f>
-        <v>0</v>
-      </c>
-      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="str">
         <f>[2]Sheet1!C62</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -6722,15 +6777,15 @@
     <row r="33" spans="1:3">
       <c r="A33" s="10">
         <f>[3]Sheet1!A33</f>
-        <v>0</v>
+        <v>40253</v>
       </c>
       <c r="B33">
         <f>[3]Sheet1!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="str">
         <f>[3]Sheet1!C33</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8198,15 +8253,15 @@
     <row r="37" spans="1:3">
       <c r="A37" s="10">
         <f>[4]Sheet1!A37</f>
-        <v>0</v>
+        <v>40253</v>
       </c>
       <c r="B37">
         <f>[4]Sheet1!B37</f>
-        <v>0</v>
-      </c>
-      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="str">
         <f>[4]Sheet1!C37</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9688,15 +9743,15 @@
     <row r="42" spans="1:3">
       <c r="A42" s="10">
         <f>[5]Sheet1!A42</f>
-        <v>0</v>
+        <v>40253</v>
       </c>
       <c r="B42">
         <f>[5]Sheet1!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="str">
         <f>[5]Sheet1!C42</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="43" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -81,23 +81,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -105,7 +105,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -114,7 +114,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -122,7 +122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -164,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -190,13 +190,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -207,8 +207,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="通貨" xfId="1" builtinId="7"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,7 +217,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -410,24 +410,34 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80991744"/>
-        <c:axId val="80993280"/>
+        <c:axId val="94069888"/>
+        <c:axId val="94071424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80991744"/>
+        <c:axId val="94069888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80993280"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94071424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80993280"/>
+        <c:axId val="94071424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +445,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80991744"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94069888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -443,12 +463,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -984,19 +1014,29 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="A45"/>
+          <cell r="A45">
+            <v>0</v>
+          </cell>
         </row>
         <row r="46">
-          <cell r="A46"/>
+          <cell r="A46">
+            <v>0</v>
+          </cell>
         </row>
         <row r="47">
-          <cell r="A47"/>
+          <cell r="A47">
+            <v>0</v>
+          </cell>
         </row>
         <row r="48">
-          <cell r="A48"/>
+          <cell r="A48">
+            <v>0</v>
+          </cell>
         </row>
         <row r="49">
-          <cell r="A49"/>
+          <cell r="A49">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -2993,7 +3033,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3283,12 +3323,11 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3371,7 +3410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3388,7 +3427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" thickTop="1">
+    <row r="7" spans="1:4" ht="15.75" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3428,15 +3467,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>4.8760273972602741</v>
+        <v>4.8101351351351358</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.4712328767123291</v>
+        <v>3.4243243243243247</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3472602739726014</v>
+        <v>8.23445945945946</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3449,7 +3488,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>10.428571428571429</v>
+        <v>10.571428571428571</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -3477,11 +3516,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4899,10 +4938,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6320,10 +6359,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7740,10 +7779,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9160,10 +9199,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -81,23 +81,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="0.0_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -105,7 +105,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -114,7 +114,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -122,7 +122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -164,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -190,13 +190,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -207,8 +207,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="通貨" xfId="1" builtinId="7"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,7 +217,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -271,13 +271,13 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.5</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>41.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>36.5</c:v>
@@ -395,13 +395,13 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>66.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>73</c:v>
@@ -410,11 +410,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94069888"/>
-        <c:axId val="94071424"/>
+        <c:axId val="75176576"/>
+        <c:axId val="75194752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94069888"/>
+        <c:axId val="75176576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,17 +427,17 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94071424"/>
+        <c:crossAx val="75194752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94071424"/>
+        <c:axId val="75194752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,10 +452,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94069888"/>
+        <c:crossAx val="75176576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -470,7 +470,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -478,7 +478,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1014,29 +1014,19 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="A45">
-            <v>0</v>
-          </cell>
+          <cell r="A45"/>
         </row>
         <row r="46">
-          <cell r="A46">
-            <v>0</v>
-          </cell>
+          <cell r="A46"/>
         </row>
         <row r="47">
-          <cell r="A47">
-            <v>0</v>
-          </cell>
+          <cell r="A47"/>
         </row>
         <row r="48">
-          <cell r="A48">
-            <v>0</v>
-          </cell>
+          <cell r="A48"/>
         </row>
         <row r="49">
-          <cell r="A49">
-            <v>0</v>
-          </cell>
+          <cell r="A49"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -1738,6 +1728,28 @@
             <v>Group Meeting</v>
           </cell>
         </row>
+        <row r="63">
+          <cell r="A63">
+            <v>40256</v>
+          </cell>
+          <cell r="B63">
+            <v>2</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>OMAP UART documentation</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>40259</v>
+          </cell>
+          <cell r="B64">
+            <v>3</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>QNX 3D implementation design</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2535,14 +2547,45 @@
         </row>
         <row r="37">
           <cell r="A37">
+            <v>40248</v>
+          </cell>
+          <cell r="B37">
+            <v>4</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Final Tool Mount/Offset Drawings and Part research/listing</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>40249</v>
+          </cell>
+          <cell r="B38">
+            <v>3</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Final Tool Mount/Offset Drawings and Part research/listing cont'd</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
             <v>40253</v>
           </cell>
-          <cell r="B37">
+          <cell r="B39">
             <v>2</v>
           </cell>
-          <cell r="C37" t="str">
+          <cell r="C39" t="str">
             <v>Group Meeting</v>
           </cell>
+        </row>
+        <row r="40">
+          <cell r="A40"/>
+        </row>
+        <row r="41">
+          <cell r="A41"/>
+        </row>
+        <row r="42">
+          <cell r="A42"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -3033,7 +3076,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3323,11 +3366,11 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3365,7 +3408,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>92.5</v>
+        <v>97.5</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
@@ -3373,7 +3416,7 @@
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3399,7 +3442,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
@@ -3407,10 +3450,10 @@
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3427,13 +3470,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickTop="1">
+    <row r="7" spans="1:4" ht="14.25" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>254.25</v>
+        <v>266.25</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -3441,7 +3484,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>435.25</v>
+        <v>447.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3450,7 +3493,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>50.85</v>
+        <v>53.25</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
@@ -3458,7 +3501,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>87.05</v>
+        <v>89.45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3467,15 +3510,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>4.8101351351351358</v>
+        <v>4.7788461538461542</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.4243243243243247</v>
+        <v>3.2487179487179492</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.23445945945946</v>
+        <v>8.0275641025641029</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3488,7 +3531,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>10.571428571428571</v>
+        <v>11.142857142857142</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -3516,11 +3559,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4938,10 +4981,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5815,29 +5858,29 @@
     <row r="63" spans="1:3">
       <c r="A63" s="10">
         <f>[2]Sheet1!A63</f>
-        <v>0</v>
+        <v>40256</v>
       </c>
       <c r="B63">
         <f>[2]Sheet1!B63</f>
-        <v>0</v>
-      </c>
-      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="str">
         <f>[2]Sheet1!C63</f>
-        <v>0</v>
+        <v>OMAP UART documentation</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="10">
         <f>[2]Sheet1!A64</f>
-        <v>0</v>
+        <v>40259</v>
       </c>
       <c r="B64">
         <f>[2]Sheet1!B64</f>
-        <v>0</v>
-      </c>
-      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="str">
         <f>[2]Sheet1!C64</f>
-        <v>0</v>
+        <v>QNX 3D implementation design</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -6359,10 +6402,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7779,10 +7822,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8292,43 +8335,43 @@
     <row r="37" spans="1:3">
       <c r="A37" s="10">
         <f>[4]Sheet1!A37</f>
-        <v>40253</v>
+        <v>40248</v>
       </c>
       <c r="B37">
         <f>[4]Sheet1!B37</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" t="str">
         <f>[4]Sheet1!C37</f>
-        <v>Group Meeting</v>
+        <v>Final Tool Mount/Offset Drawings and Part research/listing</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="10">
         <f>[4]Sheet1!A38</f>
-        <v>0</v>
+        <v>40249</v>
       </c>
       <c r="B38">
         <f>[4]Sheet1!B38</f>
-        <v>0</v>
-      </c>
-      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="str">
         <f>[4]Sheet1!C38</f>
-        <v>0</v>
+        <v>Final Tool Mount/Offset Drawings and Part research/listing cont'd</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="10">
         <f>[4]Sheet1!A39</f>
-        <v>0</v>
+        <v>40253</v>
       </c>
       <c r="B39">
         <f>[4]Sheet1!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
         <f>[4]Sheet1!C39</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9199,10 +9242,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -271,7 +271,7 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.5</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>41.25</c:v>
@@ -330,19 +330,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.5</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,29 +392,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142</c:v>
+                  <c:v>165.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.25</c:v>
+                  <c:v>70.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75176576"/>
-        <c:axId val="75194752"/>
+        <c:axId val="65542784"/>
+        <c:axId val="65560960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75176576"/>
+        <c:axId val="65542784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,14 +430,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75194752"/>
+        <c:crossAx val="65560960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75194752"/>
+        <c:axId val="65560960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +455,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75176576"/>
+        <c:crossAx val="65542784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -478,7 +478,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1014,10 +1014,26 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="A45"/>
+          <cell r="A45">
+            <v>40260</v>
+          </cell>
+          <cell r="B45">
+            <v>2.5</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Group Meeting</v>
+          </cell>
         </row>
         <row r="46">
-          <cell r="A46"/>
+          <cell r="A46">
+            <v>40260</v>
+          </cell>
+          <cell r="B46">
+            <v>1</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="A47"/>
@@ -1750,6 +1766,83 @@
             <v>QNX 3D implementation design</v>
           </cell>
         </row>
+        <row r="65">
+          <cell r="A65">
+            <v>40260</v>
+          </cell>
+          <cell r="B65">
+            <v>2.5</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>40260</v>
+          </cell>
+          <cell r="B66">
+            <v>1</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>40261</v>
+          </cell>
+          <cell r="B67">
+            <v>3.5</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Physical interface board design</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>40262</v>
+          </cell>
+          <cell r="B68">
+            <v>2</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>QNX - Encoder Test</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>40263</v>
+          </cell>
+          <cell r="B69">
+            <v>0.5</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Skype Meeting</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>40263</v>
+          </cell>
+          <cell r="B70">
+            <v>6</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>QNX - Encoder Test</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>40264</v>
+          </cell>
+          <cell r="B71">
+            <v>8</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>QNX - Encoder Test</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2131,6 +2224,39 @@
             <v>Group Meeting</v>
           </cell>
         </row>
+        <row r="34">
+          <cell r="A34">
+            <v>40260</v>
+          </cell>
+          <cell r="B34">
+            <v>2.5</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>40260</v>
+          </cell>
+          <cell r="B35">
+            <v>1</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>40263</v>
+          </cell>
+          <cell r="B36">
+            <v>0.5</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Skype Meeting</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2579,13 +2705,37 @@
           </cell>
         </row>
         <row r="40">
-          <cell r="A40"/>
+          <cell r="A40">
+            <v>40260</v>
+          </cell>
+          <cell r="B40">
+            <v>2.5</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Group Meeting</v>
+          </cell>
         </row>
         <row r="41">
-          <cell r="A41"/>
+          <cell r="A41">
+            <v>40260</v>
+          </cell>
+          <cell r="B41">
+            <v>1</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
         </row>
         <row r="42">
-          <cell r="A42"/>
+          <cell r="A42">
+            <v>40263</v>
+          </cell>
+          <cell r="B42">
+            <v>0.5</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Skype Meeting</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -3065,6 +3215,39 @@
           </cell>
           <cell r="C42" t="str">
             <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>40260</v>
+          </cell>
+          <cell r="B43">
+            <v>2.5</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>40260</v>
+          </cell>
+          <cell r="B44">
+            <v>1</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>40263</v>
+          </cell>
+          <cell r="B45">
+            <v>0.5</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Skype Meeting</v>
           </cell>
         </row>
       </sheetData>
@@ -3363,7 +3546,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3395,11 +3578,11 @@
       </c>
       <c r="C2">
         <f>SUMIF(david!C:C,"*meeting*",david!B:B)</f>
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="D2">
         <f>SUM(david!B:B)</f>
-        <v>84</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3408,15 +3591,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>97.5</v>
+        <v>117</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
-        <v>44.5</v>
+        <v>48.5</v>
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>142</v>
+        <v>165.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3429,11 +3612,11 @@
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>66.25</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3446,11 +3629,11 @@
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" thickBot="1">
@@ -3463,11 +3646,11 @@
       </c>
       <c r="C6" s="1">
         <f>SUMIF(nicholas!C:C,"*meeting*",nicholas!B:B)</f>
-        <v>36.5</v>
+        <v>40.5</v>
       </c>
       <c r="D6" s="1">
         <f>SUM(nicholas!B:B)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1">
@@ -3476,15 +3659,15 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>266.25</v>
+        <v>285.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>181</v>
+        <v>200.5</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>447.25</v>
+        <v>486.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3493,15 +3676,15 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>53.25</v>
+        <v>57.15</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
-        <v>36.200000000000003</v>
+        <v>40.1</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>89.45</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3510,15 +3693,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>4.7788461538461542</v>
+        <v>4.7625000000000002</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.2487179487179492</v>
+        <v>3.3416666666666668</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0275641025641029</v>
+        <v>8.1041666666666661</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3531,7 +3714,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>11.142857142857142</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -4185,29 +4368,29 @@
     <row r="45" spans="1:3">
       <c r="A45" s="10">
         <f>[1]Sheet1!A45</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B45">
         <f>[1]Sheet1!B45</f>
-        <v>0</v>
-      </c>
-      <c r="C45">
+        <v>2.5</v>
+      </c>
+      <c r="C45" t="str">
         <f>[1]Sheet1!C45</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="10">
         <f>[1]Sheet1!A46</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B46">
         <f>[1]Sheet1!B46</f>
-        <v>0</v>
-      </c>
-      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
         <f>[1]Sheet1!C46</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5886,99 +6069,99 @@
     <row r="65" spans="1:3">
       <c r="A65" s="10">
         <f>[2]Sheet1!A65</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B65">
         <f>[2]Sheet1!B65</f>
-        <v>0</v>
-      </c>
-      <c r="C65">
+        <v>2.5</v>
+      </c>
+      <c r="C65" t="str">
         <f>[2]Sheet1!C65</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="10">
         <f>[2]Sheet1!A66</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B66">
         <f>[2]Sheet1!B66</f>
-        <v>0</v>
-      </c>
-      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="str">
         <f>[2]Sheet1!C66</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="10">
         <f>[2]Sheet1!A67</f>
-        <v>0</v>
+        <v>40261</v>
       </c>
       <c r="B67">
         <f>[2]Sheet1!B67</f>
-        <v>0</v>
-      </c>
-      <c r="C67">
+        <v>3.5</v>
+      </c>
+      <c r="C67" t="str">
         <f>[2]Sheet1!C67</f>
-        <v>0</v>
+        <v>Physical interface board design</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="10">
         <f>[2]Sheet1!A68</f>
-        <v>0</v>
+        <v>40262</v>
       </c>
       <c r="B68">
         <f>[2]Sheet1!B68</f>
-        <v>0</v>
-      </c>
-      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="str">
         <f>[2]Sheet1!C68</f>
-        <v>0</v>
+        <v>QNX - Encoder Test</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="10">
         <f>[2]Sheet1!A69</f>
-        <v>0</v>
+        <v>40263</v>
       </c>
       <c r="B69">
         <f>[2]Sheet1!B69</f>
-        <v>0</v>
-      </c>
-      <c r="C69">
+        <v>0.5</v>
+      </c>
+      <c r="C69" t="str">
         <f>[2]Sheet1!C69</f>
-        <v>0</v>
+        <v>Skype Meeting</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="10">
         <f>[2]Sheet1!A70</f>
-        <v>0</v>
+        <v>40263</v>
       </c>
       <c r="B70">
         <f>[2]Sheet1!B70</f>
-        <v>0</v>
-      </c>
-      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="C70" t="str">
         <f>[2]Sheet1!C70</f>
-        <v>0</v>
+        <v>QNX - Encoder Test</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="10">
         <f>[2]Sheet1!A71</f>
-        <v>0</v>
+        <v>40264</v>
       </c>
       <c r="B71">
         <f>[2]Sheet1!B71</f>
-        <v>0</v>
-      </c>
-      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="C71" t="str">
         <f>[2]Sheet1!C71</f>
-        <v>0</v>
+        <v>QNX - Encoder Test</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6873,43 +7056,43 @@
     <row r="34" spans="1:3">
       <c r="A34" s="10">
         <f>[3]Sheet1!A34</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B34">
         <f>[3]Sheet1!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
+        <v>2.5</v>
+      </c>
+      <c r="C34" t="str">
         <f>[3]Sheet1!C34</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="10">
         <f>[3]Sheet1!A35</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B35">
         <f>[3]Sheet1!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
         <f>[3]Sheet1!C35</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="10">
         <f>[3]Sheet1!A36</f>
-        <v>0</v>
+        <v>40263</v>
       </c>
       <c r="B36">
         <f>[3]Sheet1!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="C36" t="str">
         <f>[3]Sheet1!C36</f>
-        <v>0</v>
+        <v>Skype Meeting</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8377,43 +8560,43 @@
     <row r="40" spans="1:3">
       <c r="A40" s="10">
         <f>[4]Sheet1!A40</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B40">
         <f>[4]Sheet1!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C40">
+        <v>2.5</v>
+      </c>
+      <c r="C40" t="str">
         <f>[4]Sheet1!C40</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="10">
         <f>[4]Sheet1!A41</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B41">
         <f>[4]Sheet1!B41</f>
-        <v>0</v>
-      </c>
-      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="str">
         <f>[4]Sheet1!C41</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="10">
         <f>[4]Sheet1!A42</f>
-        <v>0</v>
+        <v>40263</v>
       </c>
       <c r="B42">
         <f>[4]Sheet1!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="C42" t="str">
         <f>[4]Sheet1!C42</f>
-        <v>0</v>
+        <v>Skype Meeting</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9839,43 +10022,43 @@
     <row r="43" spans="1:3">
       <c r="A43" s="10">
         <f>[5]Sheet1!A43</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B43">
         <f>[5]Sheet1!B43</f>
-        <v>0</v>
-      </c>
-      <c r="C43">
+        <v>2.5</v>
+      </c>
+      <c r="C43" t="str">
         <f>[5]Sheet1!C43</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="10">
         <f>[5]Sheet1!A44</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B44">
         <f>[5]Sheet1!B44</f>
-        <v>0</v>
-      </c>
-      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="str">
         <f>[5]Sheet1!C44</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="10">
         <f>[5]Sheet1!A45</f>
-        <v>0</v>
+        <v>40263</v>
       </c>
       <c r="B45">
         <f>[5]Sheet1!B45</f>
-        <v>0</v>
-      </c>
-      <c r="C45">
+        <v>0.5</v>
+      </c>
+      <c r="C45" t="str">
         <f>[5]Sheet1!C45</f>
-        <v>0</v>
+        <v>Skype Meeting</v>
       </c>
     </row>
     <row r="46" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -81,23 +81,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -105,7 +105,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -114,7 +114,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -122,7 +122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -164,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -190,13 +190,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -207,8 +207,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="通貨" xfId="1" builtinId="7"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,7 +217,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -410,11 +410,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65542784"/>
-        <c:axId val="65560960"/>
+        <c:axId val="94275840"/>
+        <c:axId val="94289920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65542784"/>
+        <c:axId val="94275840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,17 +427,17 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65560960"/>
+        <c:crossAx val="94289920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65560960"/>
+        <c:axId val="94289920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,10 +452,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65542784"/>
+        <c:crossAx val="94275840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -470,7 +470,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -478,7 +478,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1036,13 +1036,19 @@
           </cell>
         </row>
         <row r="47">
-          <cell r="A47"/>
+          <cell r="A47">
+            <v>0</v>
+          </cell>
         </row>
         <row r="48">
-          <cell r="A48"/>
+          <cell r="A48">
+            <v>0</v>
+          </cell>
         </row>
         <row r="49">
-          <cell r="A49"/>
+          <cell r="A49">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -3259,7 +3265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3549,11 +3555,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3636,7 +3642,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" thickTop="1">
+    <row r="7" spans="1:4" ht="15.75" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3693,15 +3699,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>4.7625000000000002</v>
+        <v>4.7064705882352946</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.3416666666666668</v>
+        <v>3.3023529411764709</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1041666666666661</v>
+        <v>8.0088235294117656</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3714,7 +3720,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>12</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -3742,11 +3748,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5164,10 +5170,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6585,10 +6591,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8005,10 +8011,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9425,10 +9431,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -81,23 +81,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="0.0_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -105,7 +105,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -114,7 +114,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -122,7 +122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -164,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -190,13 +190,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -207,8 +207,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="通貨" xfId="1" builtinId="7"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,7 +217,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -271,13 +271,13 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.25</c:v>
+                  <c:v>48.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>36.5</c:v>
@@ -330,19 +330,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>38.5</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.5</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,29 +392,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>87.5</c:v>
+                  <c:v>88.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165.5</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.25</c:v>
+                  <c:v>77.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86</c:v>
+                  <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94275840"/>
-        <c:axId val="94289920"/>
+        <c:axId val="136187904"/>
+        <c:axId val="136189440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94275840"/>
+        <c:axId val="136187904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,17 +427,17 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94289920"/>
+        <c:crossAx val="136189440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94289920"/>
+        <c:axId val="136189440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,10 +452,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94275840"/>
+        <c:crossAx val="136187904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -470,7 +470,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -478,7 +478,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1037,18 +1037,20 @@
         </row>
         <row r="47">
           <cell r="A47">
-            <v>0</v>
+            <v>40267</v>
+          </cell>
+          <cell r="B47">
+            <v>1</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Weekly Meeting</v>
           </cell>
         </row>
         <row r="48">
-          <cell r="A48">
-            <v>0</v>
-          </cell>
+          <cell r="A48"/>
         </row>
         <row r="49">
-          <cell r="A49">
-            <v>0</v>
-          </cell>
+          <cell r="A49"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -1849,6 +1851,50 @@
             <v>QNX - Encoder Test</v>
           </cell>
         </row>
+        <row r="72">
+          <cell r="A72">
+            <v>40267</v>
+          </cell>
+          <cell r="B72">
+            <v>1.5</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>40267</v>
+          </cell>
+          <cell r="B73">
+            <v>1</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>40270</v>
+          </cell>
+          <cell r="B74">
+            <v>2</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Beagleboard diagnostic</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>40271</v>
+          </cell>
+          <cell r="B75">
+            <v>5</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>AVR-CAN interface</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2263,6 +2309,17 @@
             <v>Skype Meeting</v>
           </cell>
         </row>
+        <row r="37">
+          <cell r="A37">
+            <v>40270</v>
+          </cell>
+          <cell r="B37">
+            <v>7</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Hard Constrait Programming</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2690,32 +2747,32 @@
         </row>
         <row r="38">
           <cell r="A38">
-            <v>40249</v>
+            <v>40248</v>
           </cell>
           <cell r="B38">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="C38" t="str">
-            <v>Final Tool Mount/Offset Drawings and Part research/listing cont'd</v>
+            <v>Lecture in Scarfe</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>40253</v>
+            <v>40249</v>
           </cell>
           <cell r="B39">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="C39" t="str">
-            <v>Group Meeting</v>
+            <v>Final Tool Mount/Offset Drawings and Part research/listing cont'd</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>40260</v>
+            <v>40253</v>
           </cell>
           <cell r="B40">
-            <v>2.5</v>
+            <v>2</v>
           </cell>
           <cell r="C40" t="str">
             <v>Group Meeting</v>
@@ -2723,24 +2780,90 @@
         </row>
         <row r="41">
           <cell r="A41">
-            <v>40260</v>
+            <v>40253</v>
           </cell>
           <cell r="B41">
             <v>1</v>
           </cell>
           <cell r="C41" t="str">
-            <v>Weekly Meeting</v>
+            <v>Material Ordering</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
+            <v>40255</v>
+          </cell>
+          <cell r="B42">
+            <v>2</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Fastener Ordering and checkup with Perry</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>40256</v>
+          </cell>
+          <cell r="B43">
+            <v>3</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Bearing ordering-chechup-switch-reordering</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>40260</v>
+          </cell>
+          <cell r="B44">
+            <v>2.5</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>40260</v>
+          </cell>
+          <cell r="B45">
+            <v>1</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
             <v>40263</v>
           </cell>
-          <cell r="B42">
+          <cell r="B46">
             <v>0.5</v>
           </cell>
-          <cell r="C42" t="str">
+          <cell r="C46" t="str">
             <v>Skype Meeting</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>40267</v>
+          </cell>
+          <cell r="B47">
+            <v>1.5</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>40267</v>
+          </cell>
+          <cell r="B48">
+            <v>1</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Weekly Meeting</v>
           </cell>
         </row>
       </sheetData>
@@ -3256,6 +3379,28 @@
             <v>Skype Meeting</v>
           </cell>
         </row>
+        <row r="46">
+          <cell r="A46">
+            <v>40267</v>
+          </cell>
+          <cell r="B46">
+            <v>1.5</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>40267</v>
+          </cell>
+          <cell r="B47">
+            <v>1</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -3265,7 +3410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3555,11 +3700,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3584,11 +3729,11 @@
       </c>
       <c r="C2">
         <f>SUMIF(david!C:C,"*meeting*",david!B:B)</f>
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
       <c r="D2">
         <f>SUM(david!B:B)</f>
-        <v>87.5</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3597,15 +3742,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
-        <v>48.5</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>165.5</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3614,7 +3759,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>41.25</v>
+        <v>48.25</v>
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
@@ -3622,7 +3767,7 @@
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>70.25</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3631,18 +3776,18 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
-        <v>44</v>
+        <v>46.5</v>
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3652,28 +3797,28 @@
       </c>
       <c r="C6" s="1">
         <f>SUMIF(nicholas!C:C,"*meeting*",nicholas!B:B)</f>
-        <v>40.5</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <f>SUM(nicholas!B:B)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickTop="1">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>285.75</v>
+        <v>306.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>200.5</v>
+        <v>209</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>486.25</v>
+        <v>515.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3682,15 +3827,15 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>57.15</v>
+        <v>61.35</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
-        <v>40.1</v>
+        <v>41.8</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>97.25</v>
+        <v>103.15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3699,15 +3844,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>4.7064705882352946</v>
+        <v>4.8252808988764047</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.3023529411764709</v>
+        <v>3.2876404494382023</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0088235294117656</v>
+        <v>8.1129213483146074</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3720,7 +3865,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>12.142857142857142</v>
+        <v>12.714285714285714</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -3748,11 +3893,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4402,15 +4547,15 @@
     <row r="47" spans="1:3">
       <c r="A47" s="10">
         <f>[1]Sheet1!A47</f>
-        <v>0</v>
+        <v>40267</v>
       </c>
       <c r="B47">
         <f>[1]Sheet1!B47</f>
-        <v>0</v>
-      </c>
-      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="str">
         <f>[1]Sheet1!C47</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5170,10 +5315,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6173,57 +6318,57 @@
     <row r="72" spans="1:3">
       <c r="A72" s="10">
         <f>[2]Sheet1!A72</f>
-        <v>0</v>
+        <v>40267</v>
       </c>
       <c r="B72">
         <f>[2]Sheet1!B72</f>
-        <v>0</v>
-      </c>
-      <c r="C72">
+        <v>1.5</v>
+      </c>
+      <c r="C72" t="str">
         <f>[2]Sheet1!C72</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="10">
         <f>[2]Sheet1!A73</f>
-        <v>0</v>
+        <v>40267</v>
       </c>
       <c r="B73">
         <f>[2]Sheet1!B73</f>
-        <v>0</v>
-      </c>
-      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="str">
         <f>[2]Sheet1!C73</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="10">
         <f>[2]Sheet1!A74</f>
-        <v>0</v>
+        <v>40270</v>
       </c>
       <c r="B74">
         <f>[2]Sheet1!B74</f>
-        <v>0</v>
-      </c>
-      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="str">
         <f>[2]Sheet1!C74</f>
-        <v>0</v>
+        <v>Beagleboard diagnostic</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="10">
         <f>[2]Sheet1!A75</f>
-        <v>0</v>
+        <v>40271</v>
       </c>
       <c r="B75">
         <f>[2]Sheet1!B75</f>
-        <v>0</v>
-      </c>
-      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="str">
         <f>[2]Sheet1!C75</f>
-        <v>0</v>
+        <v>AVR-CAN interface</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -6591,10 +6736,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7104,15 +7249,15 @@
     <row r="37" spans="1:3">
       <c r="A37" s="10">
         <f>[3]Sheet1!A37</f>
-        <v>0</v>
+        <v>40270</v>
       </c>
       <c r="B37">
         <f>[3]Sheet1!B37</f>
-        <v>0</v>
-      </c>
-      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="C37" t="str">
         <f>[3]Sheet1!C37</f>
-        <v>0</v>
+        <v>Hard Constrait Programming</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8011,10 +8156,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8538,39 +8683,39 @@
     <row r="38" spans="1:3">
       <c r="A38" s="10">
         <f>[4]Sheet1!A38</f>
-        <v>40249</v>
+        <v>40248</v>
       </c>
       <c r="B38">
         <f>[4]Sheet1!B38</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="str">
         <f>[4]Sheet1!C38</f>
-        <v>Final Tool Mount/Offset Drawings and Part research/listing cont'd</v>
+        <v>Lecture in Scarfe</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="10">
         <f>[4]Sheet1!A39</f>
-        <v>40253</v>
+        <v>40249</v>
       </c>
       <c r="B39">
         <f>[4]Sheet1!B39</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" t="str">
         <f>[4]Sheet1!C39</f>
-        <v>Group Meeting</v>
+        <v>Final Tool Mount/Offset Drawings and Part research/listing cont'd</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="10">
         <f>[4]Sheet1!A40</f>
-        <v>40260</v>
+        <v>40253</v>
       </c>
       <c r="B40">
         <f>[4]Sheet1!B40</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C40" t="str">
         <f>[4]Sheet1!C40</f>
@@ -8580,7 +8725,7 @@
     <row r="41" spans="1:3">
       <c r="A41" s="10">
         <f>[4]Sheet1!A41</f>
-        <v>40260</v>
+        <v>40253</v>
       </c>
       <c r="B41">
         <f>[4]Sheet1!B41</f>
@@ -8588,105 +8733,105 @@
       </c>
       <c r="C41" t="str">
         <f>[4]Sheet1!C41</f>
-        <v>Weekly Meeting</v>
+        <v>Material Ordering</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="10">
         <f>[4]Sheet1!A42</f>
-        <v>40263</v>
+        <v>40255</v>
       </c>
       <c r="B42">
         <f>[4]Sheet1!B42</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C42" t="str">
         <f>[4]Sheet1!C42</f>
-        <v>Skype Meeting</v>
+        <v>Fastener Ordering and checkup with Perry</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="10">
         <f>[4]Sheet1!A43</f>
-        <v>0</v>
+        <v>40256</v>
       </c>
       <c r="B43">
         <f>[4]Sheet1!B43</f>
-        <v>0</v>
-      </c>
-      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="str">
         <f>[4]Sheet1!C43</f>
-        <v>0</v>
+        <v>Bearing ordering-chechup-switch-reordering</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="10">
         <f>[4]Sheet1!A44</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B44">
         <f>[4]Sheet1!B44</f>
-        <v>0</v>
-      </c>
-      <c r="C44">
+        <v>2.5</v>
+      </c>
+      <c r="C44" t="str">
         <f>[4]Sheet1!C44</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="10">
         <f>[4]Sheet1!A45</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B45">
         <f>[4]Sheet1!B45</f>
-        <v>0</v>
-      </c>
-      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="str">
         <f>[4]Sheet1!C45</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="10">
         <f>[4]Sheet1!A46</f>
-        <v>0</v>
+        <v>40263</v>
       </c>
       <c r="B46">
         <f>[4]Sheet1!B46</f>
-        <v>0</v>
-      </c>
-      <c r="C46">
+        <v>0.5</v>
+      </c>
+      <c r="C46" t="str">
         <f>[4]Sheet1!C46</f>
-        <v>0</v>
+        <v>Skype Meeting</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="10">
         <f>[4]Sheet1!A47</f>
-        <v>0</v>
+        <v>40267</v>
       </c>
       <c r="B47">
         <f>[4]Sheet1!B47</f>
-        <v>0</v>
-      </c>
-      <c r="C47">
+        <v>1.5</v>
+      </c>
+      <c r="C47" t="str">
         <f>[4]Sheet1!C47</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="10">
         <f>[4]Sheet1!A48</f>
-        <v>0</v>
+        <v>40267</v>
       </c>
       <c r="B48">
         <f>[4]Sheet1!B48</f>
-        <v>0</v>
-      </c>
-      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
         <f>[4]Sheet1!C48</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -9431,10 +9576,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10070,29 +10215,29 @@
     <row r="46" spans="1:3">
       <c r="A46" s="10">
         <f>[5]Sheet1!A46</f>
-        <v>0</v>
+        <v>40267</v>
       </c>
       <c r="B46">
         <f>[5]Sheet1!B46</f>
-        <v>0</v>
-      </c>
-      <c r="C46">
+        <v>1.5</v>
+      </c>
+      <c r="C46" t="str">
         <f>[5]Sheet1!C46</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="10">
         <f>[5]Sheet1!A47</f>
-        <v>0</v>
+        <v>40267</v>
       </c>
       <c r="B47">
         <f>[5]Sheet1!B47</f>
-        <v>0</v>
-      </c>
-      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="str">
         <f>[5]Sheet1!C47</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="48" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -81,23 +81,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -105,7 +105,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -114,7 +114,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -122,7 +122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -164,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -190,13 +190,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -207,8 +207,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="通貨" xfId="1" builtinId="7"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,7 +217,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -410,11 +410,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="136187904"/>
-        <c:axId val="136189440"/>
+        <c:axId val="94148864"/>
+        <c:axId val="94162944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136187904"/>
+        <c:axId val="94148864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,17 +427,17 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136189440"/>
+        <c:crossAx val="94162944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136189440"/>
+        <c:axId val="94162944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,10 +452,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136187904"/>
+        <c:crossAx val="94148864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -470,7 +470,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -478,7 +478,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1047,10 +1047,14 @@
           </cell>
         </row>
         <row r="48">
-          <cell r="A48"/>
+          <cell r="A48">
+            <v>0</v>
+          </cell>
         </row>
         <row r="49">
-          <cell r="A49"/>
+          <cell r="A49">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -3410,7 +3414,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3697,14 +3701,14 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3787,7 +3791,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" thickTop="1">
+    <row r="7" spans="1:4" ht="15.75" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3844,15 +3848,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>4.8252808988764047</v>
+        <v>4.7716666666666665</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.2876404494382023</v>
+        <v>3.2511111111111108</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1129213483146074</v>
+        <v>8.0227777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3865,7 +3869,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>12.714285714285714</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -3893,11 +3897,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5315,10 +5319,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6736,10 +6740,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8156,10 +8160,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9576,10 +9580,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -81,23 +81,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="0.0_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -105,7 +105,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -114,7 +114,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -122,7 +122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -164,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -190,13 +190,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -207,8 +207,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="通貨" xfId="1" builtinId="7"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,7 +217,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -268,16 +268,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>36.5</c:v>
@@ -392,16 +392,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>88.5</c:v>
+                  <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>77.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.5</c:v>
+                  <c:v>99.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>79.5</c:v>
@@ -410,11 +410,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94148864"/>
-        <c:axId val="94162944"/>
+        <c:axId val="65550976"/>
+        <c:axId val="65569152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94148864"/>
+        <c:axId val="65550976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,17 +427,17 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94162944"/>
+        <c:crossAx val="65569152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94162944"/>
+        <c:axId val="65569152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,10 +452,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94148864"/>
+        <c:crossAx val="65550976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -470,7 +470,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -478,7 +478,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1048,12 +1048,57 @@
         </row>
         <row r="48">
           <cell r="A48">
-            <v>0</v>
+            <v>40269</v>
+          </cell>
+          <cell r="B48">
+            <v>9</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Finalizing Design and Modelling</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>0</v>
+            <v>40270</v>
+          </cell>
+          <cell r="B49">
+            <v>4</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Documenting Design</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>40273</v>
+          </cell>
+          <cell r="B50">
+            <v>2</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Producing Manufacturing Drawings</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>40274</v>
+          </cell>
+          <cell r="B51">
+            <v>3</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Producing Manufacturing Drawings</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>40274</v>
+          </cell>
+          <cell r="B52">
+            <v>6</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Lathe Work</v>
           </cell>
         </row>
       </sheetData>
@@ -1899,9 +1944,31 @@
             <v>AVR-CAN interface</v>
           </cell>
         </row>
+        <row r="76">
+          <cell r="A76">
+            <v>40272</v>
+          </cell>
+          <cell r="B76">
+            <v>8</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>beagleboard avr-can interface</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>40273</v>
+          </cell>
+          <cell r="B77">
+            <v>8</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>beagleboard avr-can interface</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2870,6 +2937,17 @@
             <v>Weekly Meeting</v>
           </cell>
         </row>
+        <row r="49">
+          <cell r="A49">
+            <v>40269</v>
+          </cell>
+          <cell r="B49">
+            <v>4</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Machine Shop: Rotating Base cutting and milling</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -3414,7 +3492,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3701,14 +3779,14 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3729,7 +3807,7 @@
       </c>
       <c r="B2">
         <f>D2-C2</f>
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <f>SUMIF(david!C:C,"*meeting*",david!B:B)</f>
@@ -3737,7 +3815,7 @@
       </c>
       <c r="D2">
         <f>SUM(david!B:B)</f>
-        <v>88.5</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3746,7 +3824,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
@@ -3754,7 +3832,7 @@
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3780,7 +3858,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
@@ -3788,10 +3866,10 @@
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3808,13 +3886,13 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickTop="1">
+    <row r="7" spans="1:4" ht="14.25" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>306.75</v>
+        <v>350.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -3822,7 +3900,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>515.75</v>
+        <v>559.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3831,7 +3909,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>61.35</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
@@ -3839,7 +3917,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>103.15</v>
+        <v>111.95</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3848,15 +3926,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>4.7716666666666665</v>
+        <v>5.2801075268817206</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.2511111111111108</v>
+        <v>3.1462365591397847</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0227777777777778</v>
+        <v>8.4263440860215049</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3869,7 +3947,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>12.857142857142858</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -3897,11 +3975,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4565,71 +4643,71 @@
     <row r="48" spans="1:3">
       <c r="A48" s="10">
         <f>[1]Sheet1!A48</f>
-        <v>0</v>
+        <v>40269</v>
       </c>
       <c r="B48">
         <f>[1]Sheet1!B48</f>
-        <v>0</v>
-      </c>
-      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="C48" t="str">
         <f>[1]Sheet1!C48</f>
-        <v>0</v>
+        <v>Finalizing Design and Modelling</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="10">
         <f>[1]Sheet1!A49</f>
-        <v>0</v>
+        <v>40270</v>
       </c>
       <c r="B49">
         <f>[1]Sheet1!B49</f>
-        <v>0</v>
-      </c>
-      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="str">
         <f>[1]Sheet1!C49</f>
-        <v>0</v>
+        <v>Documenting Design</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="10">
         <f>[1]Sheet1!A50</f>
-        <v>0</v>
+        <v>40273</v>
       </c>
       <c r="B50">
         <f>[1]Sheet1!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="str">
         <f>[1]Sheet1!C50</f>
-        <v>0</v>
+        <v>Producing Manufacturing Drawings</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="10">
         <f>[1]Sheet1!A51</f>
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="B51">
         <f>[1]Sheet1!B51</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="str">
         <f>[1]Sheet1!C51</f>
-        <v>0</v>
+        <v>Producing Manufacturing Drawings</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="10">
         <f>[1]Sheet1!A52</f>
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="B52">
         <f>[1]Sheet1!B52</f>
-        <v>0</v>
-      </c>
-      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="C52" t="str">
         <f>[1]Sheet1!C52</f>
-        <v>0</v>
+        <v>Lathe Work</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5319,10 +5397,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6378,29 +6456,29 @@
     <row r="76" spans="1:3">
       <c r="A76" s="10">
         <f>[2]Sheet1!A76</f>
-        <v>0</v>
+        <v>40272</v>
       </c>
       <c r="B76">
         <f>[2]Sheet1!B76</f>
-        <v>0</v>
-      </c>
-      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="C76" t="str">
         <f>[2]Sheet1!C76</f>
-        <v>0</v>
+        <v>beagleboard avr-can interface</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="10">
         <f>[2]Sheet1!A77</f>
-        <v>0</v>
+        <v>40273</v>
       </c>
       <c r="B77">
         <f>[2]Sheet1!B77</f>
-        <v>0</v>
-      </c>
-      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="C77" t="str">
         <f>[2]Sheet1!C77</f>
-        <v>0</v>
+        <v>beagleboard avr-can interface</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -6740,10 +6818,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8160,10 +8238,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8841,15 +8919,15 @@
     <row r="49" spans="1:3">
       <c r="A49" s="10">
         <f>[4]Sheet1!A49</f>
-        <v>0</v>
+        <v>40269</v>
       </c>
       <c r="B49">
         <f>[4]Sheet1!B49</f>
-        <v>0</v>
-      </c>
-      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="str">
         <f>[4]Sheet1!C49</f>
-        <v>0</v>
+        <v>Machine Shop: Rotating Base cutting and milling</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -9580,10 +9658,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -268,10 +268,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>170.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48.25</c:v>
@@ -333,10 +333,10 @@
                   <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>46.5</c:v>
@@ -392,13 +392,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>112.5</c:v>
+                  <c:v>134.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.25</c:v>
+                  <c:v>78.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>99.5</c:v>
@@ -410,11 +410,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65550976"/>
-        <c:axId val="65569152"/>
+        <c:axId val="71453312"/>
+        <c:axId val="71471488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65550976"/>
+        <c:axId val="71453312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,14 +430,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65569152"/>
+        <c:crossAx val="71471488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65569152"/>
+        <c:axId val="71471488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +455,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65550976"/>
+        <c:crossAx val="71453312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -478,7 +478,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1101,6 +1101,112 @@
             <v>Lathe Work</v>
           </cell>
         </row>
+        <row r="53">
+          <cell r="A53">
+            <v>40275</v>
+          </cell>
+          <cell r="B53">
+            <v>3</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Producing Manufacturing Drawings</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>40276</v>
+          </cell>
+          <cell r="B54">
+            <v>4</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Lathe Work</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>40276</v>
+          </cell>
+          <cell r="B55">
+            <v>3</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Updating Models and Producing Manufacting Drawings</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>40277</v>
+          </cell>
+          <cell r="B56">
+            <v>2</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Lathe Work</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>40279</v>
+          </cell>
+          <cell r="B57">
+            <v>4</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Updating backed up models after models became corrupt</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>40280</v>
+          </cell>
+          <cell r="B58">
+            <v>1</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Listed parts w/ status and estimated time required to finish</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>40280</v>
+          </cell>
+          <cell r="B59">
+            <v>1</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Reviewed parts list to ensure everything has been ordered</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>40280</v>
+          </cell>
+          <cell r="B60">
+            <v>4</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Lathe Work</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61"/>
+        </row>
+        <row r="62">
+          <cell r="A62"/>
+        </row>
+        <row r="63">
+          <cell r="A63"/>
+        </row>
+        <row r="64">
+          <cell r="A64"/>
+        </row>
+        <row r="65">
+          <cell r="A65"/>
+        </row>
+        <row r="66">
+          <cell r="A66"/>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -1966,9 +2072,97 @@
             <v>beagleboard avr-can interface</v>
           </cell>
         </row>
+        <row r="78">
+          <cell r="A78">
+            <v>40274</v>
+          </cell>
+          <cell r="B78">
+            <v>1.5</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>40274</v>
+          </cell>
+          <cell r="B79">
+            <v>1</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>40275</v>
+          </cell>
+          <cell r="B80">
+            <v>6</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>beagleboard avr-can interface</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>40277</v>
+          </cell>
+          <cell r="B81">
+            <v>1</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>buying parts for interface board</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>40277</v>
+          </cell>
+          <cell r="B82">
+            <v>6.5</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>interface board soldering and assembly</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>40278</v>
+          </cell>
+          <cell r="B83">
+            <v>8</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>interface board debug</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>40279</v>
+          </cell>
+          <cell r="B84">
+            <v>3</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>pair programming with Erica</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>40279</v>
+          </cell>
+          <cell r="B85">
+            <v>6</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>serial interface debug</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2389,6 +2583,17 @@
           </cell>
           <cell r="C37" t="str">
             <v>Hard Constrait Programming</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>40274</v>
+          </cell>
+          <cell r="B38">
+            <v>1</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Weekly Meeting</v>
           </cell>
         </row>
       </sheetData>
@@ -3807,7 +4012,7 @@
       </c>
       <c r="B2">
         <f>D2-C2</f>
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <f>SUMIF(david!C:C,"*meeting*",david!B:B)</f>
@@ -3815,7 +4020,7 @@
       </c>
       <c r="D2">
         <f>SUM(david!B:B)</f>
-        <v>112.5</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3824,15 +4029,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>140</v>
+        <v>170.5</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
-        <v>51</v>
+        <v>53.5</v>
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>191</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3845,11 +4050,11 @@
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>77.25</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3892,15 +4097,15 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>350.75</v>
+        <v>403.25</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>209</v>
+        <v>212.5</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>559.75</v>
+        <v>615.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3909,15 +4114,15 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>70.150000000000006</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
-        <v>41.8</v>
+        <v>42.5</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>111.95</v>
+        <v>123.15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3926,15 +4131,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>5.2801075268817206</v>
+        <v>5.7025252525252528</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.1462365591397847</v>
+        <v>3.0050505050505052</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4263440860215049</v>
+        <v>8.7075757575757589</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3947,7 +4152,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>13.285714285714286</v>
+        <v>14.142857142857142</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -4713,113 +4918,113 @@
     <row r="53" spans="1:3">
       <c r="A53" s="10">
         <f>[1]Sheet1!A53</f>
-        <v>0</v>
+        <v>40275</v>
       </c>
       <c r="B53">
         <f>[1]Sheet1!B53</f>
-        <v>0</v>
-      </c>
-      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="str">
         <f>[1]Sheet1!C53</f>
-        <v>0</v>
+        <v>Producing Manufacturing Drawings</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="10">
         <f>[1]Sheet1!A54</f>
-        <v>0</v>
+        <v>40276</v>
       </c>
       <c r="B54">
         <f>[1]Sheet1!B54</f>
-        <v>0</v>
-      </c>
-      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="str">
         <f>[1]Sheet1!C54</f>
-        <v>0</v>
+        <v>Lathe Work</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="10">
         <f>[1]Sheet1!A55</f>
-        <v>0</v>
+        <v>40276</v>
       </c>
       <c r="B55">
         <f>[1]Sheet1!B55</f>
-        <v>0</v>
-      </c>
-      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="str">
         <f>[1]Sheet1!C55</f>
-        <v>0</v>
+        <v>Updating Models and Producing Manufacting Drawings</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="10">
         <f>[1]Sheet1!A56</f>
-        <v>0</v>
+        <v>40277</v>
       </c>
       <c r="B56">
         <f>[1]Sheet1!B56</f>
-        <v>0</v>
-      </c>
-      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="str">
         <f>[1]Sheet1!C56</f>
-        <v>0</v>
+        <v>Lathe Work</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="10">
         <f>[1]Sheet1!A57</f>
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="B57">
         <f>[1]Sheet1!B57</f>
-        <v>0</v>
-      </c>
-      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="str">
         <f>[1]Sheet1!C57</f>
-        <v>0</v>
+        <v>Updating backed up models after models became corrupt</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="10">
         <f>[1]Sheet1!A58</f>
-        <v>0</v>
+        <v>40280</v>
       </c>
       <c r="B58">
         <f>[1]Sheet1!B58</f>
-        <v>0</v>
-      </c>
-      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="str">
         <f>[1]Sheet1!C58</f>
-        <v>0</v>
+        <v>Listed parts w/ status and estimated time required to finish</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="10">
         <f>[1]Sheet1!A59</f>
-        <v>0</v>
+        <v>40280</v>
       </c>
       <c r="B59">
         <f>[1]Sheet1!B59</f>
-        <v>0</v>
-      </c>
-      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="str">
         <f>[1]Sheet1!C59</f>
-        <v>0</v>
+        <v>Reviewed parts list to ensure everything has been ordered</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="10">
         <f>[1]Sheet1!A60</f>
-        <v>0</v>
+        <v>40280</v>
       </c>
       <c r="B60">
         <f>[1]Sheet1!B60</f>
-        <v>0</v>
-      </c>
-      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="str">
         <f>[1]Sheet1!C60</f>
-        <v>0</v>
+        <v>Lathe Work</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6484,113 +6689,113 @@
     <row r="78" spans="1:3">
       <c r="A78" s="10">
         <f>[2]Sheet1!A78</f>
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="B78">
         <f>[2]Sheet1!B78</f>
-        <v>0</v>
-      </c>
-      <c r="C78">
+        <v>1.5</v>
+      </c>
+      <c r="C78" t="str">
         <f>[2]Sheet1!C78</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="10">
         <f>[2]Sheet1!A79</f>
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="B79">
         <f>[2]Sheet1!B79</f>
-        <v>0</v>
-      </c>
-      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="str">
         <f>[2]Sheet1!C79</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="10">
         <f>[2]Sheet1!A80</f>
-        <v>0</v>
+        <v>40275</v>
       </c>
       <c r="B80">
         <f>[2]Sheet1!B80</f>
-        <v>0</v>
-      </c>
-      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="C80" t="str">
         <f>[2]Sheet1!C80</f>
-        <v>0</v>
+        <v>beagleboard avr-can interface</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="10">
         <f>[2]Sheet1!A81</f>
-        <v>0</v>
+        <v>40277</v>
       </c>
       <c r="B81">
         <f>[2]Sheet1!B81</f>
-        <v>0</v>
-      </c>
-      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="str">
         <f>[2]Sheet1!C81</f>
-        <v>0</v>
+        <v>buying parts for interface board</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="10">
         <f>[2]Sheet1!A82</f>
-        <v>0</v>
+        <v>40277</v>
       </c>
       <c r="B82">
         <f>[2]Sheet1!B82</f>
-        <v>0</v>
-      </c>
-      <c r="C82">
+        <v>6.5</v>
+      </c>
+      <c r="C82" t="str">
         <f>[2]Sheet1!C82</f>
-        <v>0</v>
+        <v>interface board soldering and assembly</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="10">
         <f>[2]Sheet1!A83</f>
-        <v>0</v>
+        <v>40278</v>
       </c>
       <c r="B83">
         <f>[2]Sheet1!B83</f>
-        <v>0</v>
-      </c>
-      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="C83" t="str">
         <f>[2]Sheet1!C83</f>
-        <v>0</v>
+        <v>interface board debug</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="10">
         <f>[2]Sheet1!A84</f>
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="B84">
         <f>[2]Sheet1!B84</f>
-        <v>0</v>
-      </c>
-      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="str">
         <f>[2]Sheet1!C84</f>
-        <v>0</v>
+        <v>pair programming with Erica</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="10">
         <f>[2]Sheet1!A85</f>
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="B85">
         <f>[2]Sheet1!B85</f>
-        <v>0</v>
-      </c>
-      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="C85" t="str">
         <f>[2]Sheet1!C85</f>
-        <v>0</v>
+        <v>serial interface debug</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -7345,15 +7550,15 @@
     <row r="38" spans="1:3">
       <c r="A38" s="10">
         <f>[3]Sheet1!A38</f>
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="B38">
         <f>[3]Sheet1!B38</f>
-        <v>0</v>
-      </c>
-      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="str">
         <f>[3]Sheet1!C38</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="39" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -8,25 +8,26 @@
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="david" sheetId="2" r:id="rId2"/>
-    <sheet name="davy" sheetId="3" r:id="rId3"/>
-    <sheet name="erica" sheetId="4" r:id="rId4"/>
-    <sheet name="ibrahim" sheetId="5" r:id="rId5"/>
-    <sheet name="nicholas" sheetId="6" r:id="rId6"/>
+    <sheet name="weekly" sheetId="7" r:id="rId2"/>
+    <sheet name="david" sheetId="2" r:id="rId3"/>
+    <sheet name="davy" sheetId="3" r:id="rId4"/>
+    <sheet name="erica" sheetId="4" r:id="rId5"/>
+    <sheet name="ibrahim" sheetId="5" r:id="rId6"/>
+    <sheet name="nicholas" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Davy</t>
     <phoneticPr fontId="1"/>
@@ -168,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +206,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
@@ -271,16 +275,16 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170.5</c:v>
+                  <c:v>193.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.25</c:v>
+                  <c:v>51.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,10 +337,10 @@
                   <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.5</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>46.5</c:v>
@@ -395,26 +399,26 @@
                   <c:v>134.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224</c:v>
+                  <c:v>249.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.25</c:v>
+                  <c:v>83.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.5</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.5</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71453312"/>
-        <c:axId val="71471488"/>
+        <c:axId val="70929408"/>
+        <c:axId val="70939392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71453312"/>
+        <c:axId val="70929408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,14 +434,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71471488"/>
+        <c:crossAx val="70939392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71471488"/>
+        <c:axId val="70939392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +459,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71453312"/>
+        <c:crossAx val="70929408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -478,7 +482,810 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekly!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>David</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weekly!$B$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>40188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40230</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40293</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weekly!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekly!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Davy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weekly!$B$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>40188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40230</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40293</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weekly!$B$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekly!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weekly!$B$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>40188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40230</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40293</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weekly!$B$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekly!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ibrahim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weekly!$B$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>40188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40230</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40293</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weekly!$B$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekly!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nich</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weekly!$B$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>40188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40230</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40293</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weekly!$B$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="69508096"/>
+        <c:axId val="81046528"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="69508096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy/mm/dd" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81046528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="81046528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69508096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -516,6 +1323,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2107,13 +2944,13 @@
         </row>
         <row r="81">
           <cell r="A81">
-            <v>40277</v>
+            <v>40276</v>
           </cell>
           <cell r="B81">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="C81" t="str">
-            <v>buying parts for interface board</v>
+            <v>Group Meeting</v>
           </cell>
         </row>
         <row r="82">
@@ -2121,32 +2958,32 @@
             <v>40277</v>
           </cell>
           <cell r="B82">
-            <v>6.5</v>
+            <v>1</v>
           </cell>
           <cell r="C82" t="str">
-            <v>interface board soldering and assembly</v>
+            <v>buying parts for interface board</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>40278</v>
+            <v>40277</v>
           </cell>
           <cell r="B83">
-            <v>8</v>
+            <v>6.5</v>
           </cell>
           <cell r="C83" t="str">
-            <v>interface board debug</v>
+            <v>interface board soldering and assembly</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>40279</v>
+            <v>40278</v>
           </cell>
           <cell r="B84">
-            <v>3</v>
+            <v>8</v>
           </cell>
           <cell r="C84" t="str">
-            <v>pair programming with Erica</v>
+            <v>interface board debug</v>
           </cell>
         </row>
         <row r="85">
@@ -2154,10 +2991,98 @@
             <v>40279</v>
           </cell>
           <cell r="B85">
+            <v>3</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>pair programming with Erica</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>40279</v>
+          </cell>
+          <cell r="B86">
             <v>6</v>
           </cell>
-          <cell r="C85" t="str">
+          <cell r="C86" t="str">
             <v>serial interface debug</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>40280</v>
+          </cell>
+          <cell r="B87">
+            <v>1</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>Ordering encoder and misc parts</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>40280</v>
+          </cell>
+          <cell r="B88">
+            <v>7</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>serial interface debug</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>40281</v>
+          </cell>
+          <cell r="B89">
+            <v>0.5</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>40281</v>
+          </cell>
+          <cell r="B90">
+            <v>5</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>serial interface debug</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>40282</v>
+          </cell>
+          <cell r="B91">
+            <v>1</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>Buying parts for AVR board</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>40282</v>
+          </cell>
+          <cell r="B92">
+            <v>5</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>Soldering AVR interface board/making cables</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>40283</v>
+          </cell>
+          <cell r="B93">
+            <v>4</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>Helping out with machining</v>
           </cell>
         </row>
       </sheetData>
@@ -2596,6 +3521,28 @@
             <v>Weekly Meeting</v>
           </cell>
         </row>
+        <row r="39">
+          <cell r="A39">
+            <v>40276</v>
+          </cell>
+          <cell r="B39">
+            <v>2</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>40279</v>
+          </cell>
+          <cell r="B40">
+            <v>3</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Pair Programming Hard Constraint</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -3153,6 +4100,17 @@
             <v>Machine Shop: Rotating Base cutting and milling</v>
           </cell>
         </row>
+        <row r="50">
+          <cell r="A50">
+            <v>40283</v>
+          </cell>
+          <cell r="B50">
+            <v>4</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Machine Shop</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -3686,6 +4644,17 @@
           </cell>
           <cell r="C47" t="str">
             <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>40283</v>
+          </cell>
+          <cell r="B48">
+            <v>4</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Machining</v>
           </cell>
         </row>
       </sheetData>
@@ -3984,7 +4953,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4029,15 +4998,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>170.5</v>
+        <v>193.5</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
-        <v>53.5</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>224</v>
+        <v>249.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4046,15 +5015,15 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>48.25</v>
+        <v>51.25</v>
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>78.25</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4063,7 +5032,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
@@ -4071,7 +5040,7 @@
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>99.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" thickBot="1">
@@ -4080,7 +5049,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>40.5</v>
       </c>
       <c r="C6" s="1">
         <f>SUMIF(nicholas!C:C,"*meeting*",nicholas!B:B)</f>
@@ -4088,7 +5057,7 @@
       </c>
       <c r="D6" s="1">
         <f>SUM(nicholas!B:B)</f>
-        <v>79.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1">
@@ -4097,15 +5066,15 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>403.25</v>
+        <v>437.25</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>212.5</v>
+        <v>217</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>615.75</v>
+        <v>654.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4114,15 +5083,15 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>80.650000000000006</v>
+        <v>87.45</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
-        <v>42.5</v>
+        <v>43.4</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>123.15</v>
+        <v>130.85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4131,15 +5100,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>5.7025252525252528</v>
+        <v>6.0014705882352946</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>3.0050505050505052</v>
+        <v>2.9784313725490197</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7075757575757589</v>
+        <v>8.9799019607843142</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4152,7 +5121,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>14.142857142857142</v>
+        <v>14.571428571428571</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -4173,6 +5142,499 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B1" s="10">
+        <v>40188</v>
+      </c>
+      <c r="C1" s="10">
+        <v>40195</v>
+      </c>
+      <c r="D1" s="10">
+        <v>40202</v>
+      </c>
+      <c r="E1" s="10">
+        <v>40209</v>
+      </c>
+      <c r="F1" s="10">
+        <v>40216</v>
+      </c>
+      <c r="G1" s="10">
+        <v>40223</v>
+      </c>
+      <c r="H1" s="10">
+        <v>40230</v>
+      </c>
+      <c r="I1" s="10">
+        <v>40237</v>
+      </c>
+      <c r="J1" s="10">
+        <v>40244</v>
+      </c>
+      <c r="K1" s="10">
+        <v>40251</v>
+      </c>
+      <c r="L1" s="10">
+        <v>40258</v>
+      </c>
+      <c r="M1" s="10">
+        <v>40265</v>
+      </c>
+      <c r="N1" s="10">
+        <v>40272</v>
+      </c>
+      <c r="O1" s="10">
+        <v>40279</v>
+      </c>
+      <c r="P1" s="10">
+        <v>40286</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>40293</v>
+      </c>
+      <c r="R1" s="10">
+        <v>40300</v>
+      </c>
+      <c r="S1" s="10">
+        <v>40307</v>
+      </c>
+      <c r="T1" s="10">
+        <v>40314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;B1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;A1,david!$B$2:$B$100)</f>
+        <v>12.5</v>
+      </c>
+      <c r="C2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;C1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;B1,david!$B$2:$B$100)</f>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;D1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;C1,david!$B$2:$B$100)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;E1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;D1,david!$B$2:$B$100)</f>
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;F1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;E1,david!$B$2:$B$100)</f>
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;G1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;F1,david!$B$2:$B$100)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;H1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;G1,david!$B$2:$B$100)</f>
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;I1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;H1,david!$B$2:$B$100)</f>
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;J1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;I1,david!$B$2:$B$100)</f>
+        <v>10.5</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;K1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;J1,david!$B$2:$B$100)</f>
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;L1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;K1,david!$B$2:$B$100)</f>
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;M1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;L1,david!$B$2:$B$100)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;N1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;M1,david!$B$2:$B$100)</f>
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;O1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;N1,david!$B$2:$B$100)</f>
+        <v>27</v>
+      </c>
+      <c r="P2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;P1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;O1,david!$B$2:$B$100)</f>
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;Q1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;P1,david!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;R1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;Q1,david!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;S1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;R1,david!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;T1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;S1,david!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;B$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;A$1,davy!$B$2:$B$100)</f>
+        <v>24.5</v>
+      </c>
+      <c r="C3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;C$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;B$1,davy!$B$2:$B$100)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;D$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;C$1,davy!$B$2:$B$100)</f>
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;E$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;D$1,davy!$B$2:$B$100)</f>
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;F$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;E$1,davy!$B$2:$B$100)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;G$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;F$1,davy!$B$2:$B$100)</f>
+        <v>9.5</v>
+      </c>
+      <c r="H3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;H$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;G$1,davy!$B$2:$B$100)</f>
+        <v>10.5</v>
+      </c>
+      <c r="I3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;I$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;H$1,davy!$B$2:$B$100)</f>
+        <v>11.5</v>
+      </c>
+      <c r="J3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;J$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;I$1,davy!$B$2:$B$100)</f>
+        <v>24.5</v>
+      </c>
+      <c r="K3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;K$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;J$1,davy!$B$2:$B$100)</f>
+        <v>22.5</v>
+      </c>
+      <c r="L3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;L$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;K$1,davy!$B$2:$B$100)</f>
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;M$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;L$1,davy!$B$2:$B$100)</f>
+        <v>26.5</v>
+      </c>
+      <c r="N3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;N$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;M$1,davy!$B$2:$B$100)</f>
+        <v>17.5</v>
+      </c>
+      <c r="O3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;O$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;N$1,davy!$B$2:$B$100)</f>
+        <v>51</v>
+      </c>
+      <c r="P3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;P$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;O$1,davy!$B$2:$B$100)</f>
+        <v>32.5</v>
+      </c>
+      <c r="Q3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;Q$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;P$1,davy!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;R$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;Q$1,davy!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;S$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;R$1,davy!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;T$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;S$1,davy!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;B$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;A$1,erica!$B$2:$B$100)</f>
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;C$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;B$1,erica!$B$2:$B$100)</f>
+        <v>5.5</v>
+      </c>
+      <c r="D4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;D$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;C$1,erica!$B$2:$B$100)</f>
+        <v>4.75</v>
+      </c>
+      <c r="E4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;E$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;D$1,erica!$B$2:$B$100)</f>
+        <v>6.75</v>
+      </c>
+      <c r="F4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;F$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;E$1,erica!$B$2:$B$100)</f>
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;G$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;F$1,erica!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;H$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;G$1,erica!$B$2:$B$100)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;I$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;H$1,erica!$B$2:$B$100)</f>
+        <v>6.5</v>
+      </c>
+      <c r="J4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;J$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;I$1,erica!$B$2:$B$100)</f>
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;K$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;J$1,erica!$B$2:$B$100)</f>
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;L$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;K$1,erica!$B$2:$B$100)</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;M$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;L$1,erica!$B$2:$B$100)</f>
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;N$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;M$1,erica!$B$2:$B$100)</f>
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;O$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;N$1,erica!$B$2:$B$100)</f>
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;P$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;O$1,erica!$B$2:$B$100)</f>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;Q$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;P$1,erica!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;R$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;Q$1,erica!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;S$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;R$1,erica!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;T$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;S$1,erica!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;B$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;A$1,ibrahim!$B$2:$B$100)</f>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;C$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;B$1,ibrahim!$B$2:$B$100)</f>
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;D$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;C$1,ibrahim!$B$2:$B$100)</f>
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;E$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;D$1,ibrahim!$B$2:$B$100)</f>
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;F$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;E$1,ibrahim!$B$2:$B$100)</f>
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;G$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;F$1,ibrahim!$B$2:$B$100)</f>
+        <v>5.5</v>
+      </c>
+      <c r="H5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;H$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;G$1,ibrahim!$B$2:$B$100)</f>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;I$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;H$1,ibrahim!$B$2:$B$100)</f>
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;J$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;I$1,ibrahim!$B$2:$B$100)</f>
+        <v>9.5</v>
+      </c>
+      <c r="K5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;K$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;J$1,ibrahim!$B$2:$B$100)</f>
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;L$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;K$1,ibrahim!$B$2:$B$100)</f>
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;M$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;L$1,ibrahim!$B$2:$B$100)</f>
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;N$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;M$1,ibrahim!$B$2:$B$100)</f>
+        <v>6.5</v>
+      </c>
+      <c r="O5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;O$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;N$1,ibrahim!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;P$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;O$1,ibrahim!$B$2:$B$100)</f>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;Q$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;P$1,ibrahim!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;R$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;Q$1,ibrahim!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;S$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;R$1,ibrahim!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;T$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;S$1,ibrahim!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;B$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;A$1,nicholas!$B$2:$B$100)</f>
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;C$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;B$1,nicholas!$B$2:$B$100)</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;D$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;C$1,nicholas!$B$2:$B$100)</f>
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;E$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;D$1,nicholas!$B$2:$B$100)</f>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;F$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;E$1,nicholas!$B$2:$B$100)</f>
+        <v>6.5</v>
+      </c>
+      <c r="G6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;G$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;F$1,nicholas!$B$2:$B$100)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;H$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;G$1,nicholas!$B$2:$B$100)</f>
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;I$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;H$1,nicholas!$B$2:$B$100)</f>
+        <v>3.5</v>
+      </c>
+      <c r="J6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;J$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;I$1,nicholas!$B$2:$B$100)</f>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;K$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;J$1,nicholas!$B$2:$B$100)</f>
+        <v>2.5</v>
+      </c>
+      <c r="L6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;L$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;K$1,nicholas!$B$2:$B$100)</f>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;M$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;L$1,nicholas!$B$2:$B$100)</f>
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;N$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;M$1,nicholas!$B$2:$B$100)</f>
+        <v>2.5</v>
+      </c>
+      <c r="O6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;O$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;N$1,nicholas!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;P$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;O$1,nicholas!$B$2:$B$100)</f>
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;Q$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;P$1,nicholas!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;R$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;Q$1,nicholas!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;S$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;R$1,nicholas!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;T$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;S$1,nicholas!$B$2:$B$100)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C100"/>
   <sheetViews>
@@ -5594,11 +7056,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -6731,15 +8193,15 @@
     <row r="81" spans="1:3">
       <c r="A81" s="10">
         <f>[2]Sheet1!A81</f>
-        <v>40277</v>
+        <v>40276</v>
       </c>
       <c r="B81">
         <f>[2]Sheet1!B81</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="str">
         <f>[2]Sheet1!C81</f>
-        <v>buying parts for interface board</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -6749,39 +8211,39 @@
       </c>
       <c r="B82">
         <f>[2]Sheet1!B82</f>
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="C82" t="str">
         <f>[2]Sheet1!C82</f>
-        <v>interface board soldering and assembly</v>
+        <v>buying parts for interface board</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="10">
         <f>[2]Sheet1!A83</f>
-        <v>40278</v>
+        <v>40277</v>
       </c>
       <c r="B83">
         <f>[2]Sheet1!B83</f>
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C83" t="str">
         <f>[2]Sheet1!C83</f>
-        <v>interface board debug</v>
+        <v>interface board soldering and assembly</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="10">
         <f>[2]Sheet1!A84</f>
-        <v>40279</v>
+        <v>40278</v>
       </c>
       <c r="B84">
         <f>[2]Sheet1!B84</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C84" t="str">
         <f>[2]Sheet1!C84</f>
-        <v>pair programming with Erica</v>
+        <v>interface board debug</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -6791,123 +8253,123 @@
       </c>
       <c r="B85">
         <f>[2]Sheet1!B85</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C85" t="str">
         <f>[2]Sheet1!C85</f>
-        <v>serial interface debug</v>
+        <v>pair programming with Erica</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="10">
         <f>[2]Sheet1!A86</f>
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="B86">
         <f>[2]Sheet1!B86</f>
-        <v>0</v>
-      </c>
-      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="C86" t="str">
         <f>[2]Sheet1!C86</f>
-        <v>0</v>
+        <v>serial interface debug</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="10">
         <f>[2]Sheet1!A87</f>
-        <v>0</v>
+        <v>40280</v>
       </c>
       <c r="B87">
         <f>[2]Sheet1!B87</f>
-        <v>0</v>
-      </c>
-      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="str">
         <f>[2]Sheet1!C87</f>
-        <v>0</v>
+        <v>Ordering encoder and misc parts</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="10">
         <f>[2]Sheet1!A88</f>
-        <v>0</v>
+        <v>40280</v>
       </c>
       <c r="B88">
         <f>[2]Sheet1!B88</f>
-        <v>0</v>
-      </c>
-      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="C88" t="str">
         <f>[2]Sheet1!C88</f>
-        <v>0</v>
+        <v>serial interface debug</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="10">
         <f>[2]Sheet1!A89</f>
-        <v>0</v>
+        <v>40281</v>
       </c>
       <c r="B89">
         <f>[2]Sheet1!B89</f>
-        <v>0</v>
-      </c>
-      <c r="C89">
+        <v>0.5</v>
+      </c>
+      <c r="C89" t="str">
         <f>[2]Sheet1!C89</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="10">
         <f>[2]Sheet1!A90</f>
-        <v>0</v>
+        <v>40281</v>
       </c>
       <c r="B90">
         <f>[2]Sheet1!B90</f>
-        <v>0</v>
-      </c>
-      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="str">
         <f>[2]Sheet1!C90</f>
-        <v>0</v>
+        <v>serial interface debug</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="10">
         <f>[2]Sheet1!A91</f>
-        <v>0</v>
+        <v>40282</v>
       </c>
       <c r="B91">
         <f>[2]Sheet1!B91</f>
-        <v>0</v>
-      </c>
-      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="str">
         <f>[2]Sheet1!C91</f>
-        <v>0</v>
+        <v>Buying parts for AVR board</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="10">
         <f>[2]Sheet1!A92</f>
-        <v>0</v>
+        <v>40282</v>
       </c>
       <c r="B92">
         <f>[2]Sheet1!B92</f>
-        <v>0</v>
-      </c>
-      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="C92" t="str">
         <f>[2]Sheet1!C92</f>
-        <v>0</v>
+        <v>Soldering AVR interface board/making cables</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="10">
         <f>[2]Sheet1!A93</f>
-        <v>0</v>
+        <v>40283</v>
       </c>
       <c r="B93">
         <f>[2]Sheet1!B93</f>
-        <v>0</v>
-      </c>
-      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="str">
         <f>[2]Sheet1!C93</f>
-        <v>0</v>
+        <v>Helping out with machining</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -7015,7 +8477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C100"/>
   <sheetViews>
@@ -7564,29 +9026,29 @@
     <row r="39" spans="1:3">
       <c r="A39" s="10">
         <f>[3]Sheet1!A39</f>
-        <v>0</v>
+        <v>40276</v>
       </c>
       <c r="B39">
         <f>[3]Sheet1!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
         <f>[3]Sheet1!C39</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="10">
         <f>[3]Sheet1!A40</f>
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="B40">
         <f>[3]Sheet1!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="str">
         <f>[3]Sheet1!C40</f>
-        <v>0</v>
+        <v>Pair Programming Hard Constraint</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8435,12 +9897,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9138,15 +10600,15 @@
     <row r="50" spans="1:3">
       <c r="A50" s="10">
         <f>[4]Sheet1!A50</f>
-        <v>0</v>
+        <v>40283</v>
       </c>
       <c r="B50">
         <f>[4]Sheet1!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="str">
         <f>[4]Sheet1!C50</f>
-        <v>0</v>
+        <v>Machine Shop</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -9855,7 +11317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C100"/>
   <sheetViews>
@@ -10530,15 +11992,15 @@
     <row r="48" spans="1:3">
       <c r="A48" s="10">
         <f>[5]Sheet1!A48</f>
-        <v>0</v>
+        <v>40283</v>
       </c>
       <c r="B48">
         <f>[5]Sheet1!B48</f>
-        <v>0</v>
-      </c>
-      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="str">
         <f>[5]Sheet1!C48</f>
-        <v>0</v>
+        <v>Machining</v>
       </c>
     </row>
     <row r="49" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -82,23 +82,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -106,7 +106,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -115,7 +115,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -123,7 +123,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -165,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -191,13 +191,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -211,8 +211,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="通貨" xfId="1" builtinId="7"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,7 +221,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -414,11 +414,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70929408"/>
-        <c:axId val="70939392"/>
+        <c:axId val="92847104"/>
+        <c:axId val="92852992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70929408"/>
+        <c:axId val="92847104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,17 +431,17 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70939392"/>
+        <c:crossAx val="92852992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70939392"/>
+        <c:axId val="92852992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,10 +456,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70929408"/>
+        <c:crossAx val="92847104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -474,7 +474,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -482,7 +482,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -490,7 +490,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -517,7 +517,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -667,7 +667,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -817,7 +817,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -967,7 +967,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -1117,7 +1117,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -1247,24 +1247,34 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69508096"/>
-        <c:axId val="81046528"/>
+        <c:axId val="92896256"/>
+        <c:axId val="92914432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69508096"/>
+        <c:axId val="92896256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/mm/dd" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81046528"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92914432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="81046528"/>
+        <c:axId val="92914432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1282,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69508096"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92896256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1280,12 +1300,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2027,22 +2057,34 @@
           </cell>
         </row>
         <row r="61">
-          <cell r="A61"/>
+          <cell r="A61">
+            <v>0</v>
+          </cell>
         </row>
         <row r="62">
-          <cell r="A62"/>
+          <cell r="A62">
+            <v>0</v>
+          </cell>
         </row>
         <row r="63">
-          <cell r="A63"/>
+          <cell r="A63">
+            <v>0</v>
+          </cell>
         </row>
         <row r="64">
-          <cell r="A64"/>
+          <cell r="A64">
+            <v>0</v>
+          </cell>
         </row>
         <row r="65">
-          <cell r="A65"/>
+          <cell r="A65">
+            <v>0</v>
+          </cell>
         </row>
         <row r="66">
-          <cell r="A66"/>
+          <cell r="A66">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -4666,7 +4708,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4953,14 +4995,14 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5043,7 +5085,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -5060,7 +5102,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" thickTop="1">
+    <row r="7" spans="1:4" ht="15.75" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5100,15 +5142,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>6.0014705882352946</v>
+        <v>5.8860576923076922</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>2.9784313725490197</v>
+        <v>2.921153846153846</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.9799019607843142</v>
+        <v>8.8072115384615373</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5121,7 +5163,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>14.571428571428571</v>
+        <v>14.857142857142858</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -5147,18 +5189,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -5642,11 +5684,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7064,10 +7106,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8485,10 +8527,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9905,10 +9947,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11325,10 +11367,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -82,23 +82,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="0.0_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -106,7 +106,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -115,7 +115,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -123,7 +123,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -165,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -191,13 +191,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -211,8 +211,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="通貨" xfId="1" builtinId="7"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,7 +221,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -275,13 +275,13 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193.5</c:v>
+                  <c:v>199.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>40.5</c:v>
@@ -399,13 +399,13 @@
                   <c:v>134.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249.5</c:v>
+                  <c:v>255.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>83.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103.5</c:v>
+                  <c:v>134.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>83.5</c:v>
@@ -414,11 +414,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92847104"/>
-        <c:axId val="92852992"/>
+        <c:axId val="67652992"/>
+        <c:axId val="67675264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92847104"/>
+        <c:axId val="67652992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,17 +431,17 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92852992"/>
+        <c:crossAx val="67675264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92852992"/>
+        <c:axId val="67675264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,10 +456,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92847104"/>
+        <c:crossAx val="67652992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -474,7 +474,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -482,7 +482,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -490,7 +490,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -517,7 +517,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -667,7 +667,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -778,7 +778,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.5</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -817,7 +817,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -967,7 +967,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -1075,10 +1075,10 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1117,7 +1117,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -1247,16 +1247,16 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92896256"/>
-        <c:axId val="92914432"/>
+        <c:axId val="70598016"/>
+        <c:axId val="70612096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92896256"/>
+        <c:axId val="70598016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/mm/dd" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1265,16 +1265,16 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92914432"/>
+        <c:crossAx val="70612096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92914432"/>
+        <c:axId val="70612096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,10 +1289,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92896256"/>
+        <c:crossAx val="70598016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1307,7 +1307,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1315,7 +1315,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2057,34 +2057,22 @@
           </cell>
         </row>
         <row r="61">
-          <cell r="A61">
-            <v>0</v>
-          </cell>
+          <cell r="A61"/>
         </row>
         <row r="62">
-          <cell r="A62">
-            <v>0</v>
-          </cell>
+          <cell r="A62"/>
         </row>
         <row r="63">
-          <cell r="A63">
-            <v>0</v>
-          </cell>
+          <cell r="A63"/>
         </row>
         <row r="64">
-          <cell r="A64">
-            <v>0</v>
-          </cell>
+          <cell r="A64"/>
         </row>
         <row r="65">
-          <cell r="A65">
-            <v>0</v>
-          </cell>
+          <cell r="A65"/>
         </row>
         <row r="66">
-          <cell r="A66">
-            <v>0</v>
-          </cell>
+          <cell r="A66"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -3127,6 +3115,39 @@
             <v>Helping out with machining</v>
           </cell>
         </row>
+        <row r="94">
+          <cell r="A94">
+            <v>40284</v>
+          </cell>
+          <cell r="B94">
+            <v>1</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>Looking for enclosure material</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>40285</v>
+          </cell>
+          <cell r="B95">
+            <v>1</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>PM - Plan of action</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>40285</v>
+          </cell>
+          <cell r="B96">
+            <v>4</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>Final Report - digrams and writeup</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -4144,12 +4165,89 @@
         </row>
         <row r="50">
           <cell r="A50">
+            <v>40274</v>
+          </cell>
+          <cell r="B50">
+            <v>7</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Machine Shop (extended hours): Rotating Base milling</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>40275</v>
+          </cell>
+          <cell r="B51">
+            <v>4</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Machine Shop</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>40276</v>
+          </cell>
+          <cell r="B52">
+            <v>4</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Machine Shop</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>40277</v>
+          </cell>
+          <cell r="B53">
+            <v>4</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Machine Shop</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>40280</v>
+          </cell>
+          <cell r="B54">
+            <v>4</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Machine Shop</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>40281</v>
+          </cell>
+          <cell r="B55">
+            <v>4</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Machine Shop</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>40282</v>
+          </cell>
+          <cell r="B56">
+            <v>4</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Machine Shop</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
             <v>40283</v>
           </cell>
-          <cell r="B50">
+          <cell r="B57">
             <v>4</v>
           </cell>
-          <cell r="C50" t="str">
+          <cell r="C57" t="str">
             <v>Machine Shop</v>
           </cell>
         </row>
@@ -4708,7 +4806,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4998,11 +5096,11 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5040,7 +5138,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>193.5</v>
+        <v>199.5</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
@@ -5048,7 +5146,7 @@
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>249.5</v>
+        <v>255.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5074,7 +5172,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
@@ -5082,10 +5180,10 @@
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>103.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -5102,13 +5200,13 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickTop="1">
+    <row r="7" spans="1:4" ht="14.25" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>437.25</v>
+        <v>474.25</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -5116,7 +5214,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>654.25</v>
+        <v>691.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5125,7 +5223,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>87.45</v>
+        <v>94.85</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
@@ -5133,7 +5231,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>130.85</v>
+        <v>138.25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5142,15 +5240,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>5.8860576923076922</v>
+        <v>6.3233333333333333</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>2.921153846153846</v>
+        <v>2.8933333333333331</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8072115384615373</v>
+        <v>9.2166666666666668</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5163,7 +5261,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>14.857142857142858</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -5189,18 +5287,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -5408,7 +5506,7 @@
       </c>
       <c r="P3">
         <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;P$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;O$1,davy!$B$2:$B$100)</f>
-        <v>32.5</v>
+        <v>38.5</v>
       </c>
       <c r="Q3">
         <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;Q$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;P$1,davy!$B$2:$B$100)</f>
@@ -5566,11 +5664,11 @@
       </c>
       <c r="O5">
         <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;O$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;N$1,ibrahim!$B$2:$B$100)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P5">
         <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;P$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;O$1,ibrahim!$B$2:$B$100)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Q5">
         <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;Q$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;P$1,ibrahim!$B$2:$B$100)</f>
@@ -5684,11 +5782,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7106,10 +7204,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8417,43 +8515,43 @@
     <row r="94" spans="1:3">
       <c r="A94" s="10">
         <f>[2]Sheet1!A94</f>
-        <v>0</v>
+        <v>40284</v>
       </c>
       <c r="B94">
         <f>[2]Sheet1!B94</f>
-        <v>0</v>
-      </c>
-      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="str">
         <f>[2]Sheet1!C94</f>
-        <v>0</v>
+        <v>Looking for enclosure material</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="10">
         <f>[2]Sheet1!A95</f>
-        <v>0</v>
+        <v>40285</v>
       </c>
       <c r="B95">
         <f>[2]Sheet1!B95</f>
-        <v>0</v>
-      </c>
-      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="str">
         <f>[2]Sheet1!C95</f>
-        <v>0</v>
+        <v>PM - Plan of action</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="10">
         <f>[2]Sheet1!A96</f>
-        <v>0</v>
+        <v>40285</v>
       </c>
       <c r="B96">
         <f>[2]Sheet1!B96</f>
-        <v>0</v>
-      </c>
-      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="str">
         <f>[2]Sheet1!C96</f>
-        <v>0</v>
+        <v>Final Report - digrams and writeup</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -8527,10 +8625,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9947,10 +10045,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10642,113 +10740,113 @@
     <row r="50" spans="1:3">
       <c r="A50" s="10">
         <f>[4]Sheet1!A50</f>
-        <v>40283</v>
+        <v>40274</v>
       </c>
       <c r="B50">
         <f>[4]Sheet1!B50</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C50" t="str">
         <f>[4]Sheet1!C50</f>
-        <v>Machine Shop</v>
+        <v>Machine Shop (extended hours): Rotating Base milling</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="10">
         <f>[4]Sheet1!A51</f>
-        <v>0</v>
+        <v>40275</v>
       </c>
       <c r="B51">
         <f>[4]Sheet1!B51</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="str">
         <f>[4]Sheet1!C51</f>
-        <v>0</v>
+        <v>Machine Shop</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="10">
         <f>[4]Sheet1!A52</f>
-        <v>0</v>
+        <v>40276</v>
       </c>
       <c r="B52">
         <f>[4]Sheet1!B52</f>
-        <v>0</v>
-      </c>
-      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="str">
         <f>[4]Sheet1!C52</f>
-        <v>0</v>
+        <v>Machine Shop</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="10">
         <f>[4]Sheet1!A53</f>
-        <v>0</v>
+        <v>40277</v>
       </c>
       <c r="B53">
         <f>[4]Sheet1!B53</f>
-        <v>0</v>
-      </c>
-      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="str">
         <f>[4]Sheet1!C53</f>
-        <v>0</v>
+        <v>Machine Shop</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="10">
         <f>[4]Sheet1!A54</f>
-        <v>0</v>
+        <v>40280</v>
       </c>
       <c r="B54">
         <f>[4]Sheet1!B54</f>
-        <v>0</v>
-      </c>
-      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="str">
         <f>[4]Sheet1!C54</f>
-        <v>0</v>
+        <v>Machine Shop</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="10">
         <f>[4]Sheet1!A55</f>
-        <v>0</v>
+        <v>40281</v>
       </c>
       <c r="B55">
         <f>[4]Sheet1!B55</f>
-        <v>0</v>
-      </c>
-      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="str">
         <f>[4]Sheet1!C55</f>
-        <v>0</v>
+        <v>Machine Shop</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="10">
         <f>[4]Sheet1!A56</f>
-        <v>0</v>
+        <v>40282</v>
       </c>
       <c r="B56">
         <f>[4]Sheet1!B56</f>
-        <v>0</v>
-      </c>
-      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="str">
         <f>[4]Sheet1!C56</f>
-        <v>0</v>
+        <v>Machine Shop</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="10">
         <f>[4]Sheet1!A57</f>
-        <v>0</v>
+        <v>40283</v>
       </c>
       <c r="B57">
         <f>[4]Sheet1!B57</f>
-        <v>0</v>
-      </c>
-      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="str">
         <f>[4]Sheet1!C57</f>
-        <v>0</v>
+        <v>Machine Shop</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -11367,10 +11465,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -82,23 +82,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -106,7 +106,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -115,7 +115,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -123,7 +123,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -165,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -191,13 +191,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -211,8 +211,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="通貨" xfId="1" builtinId="7"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,7 +221,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -275,13 +275,13 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>199.5</c:v>
+                  <c:v>193.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88</c:v>
+                  <c:v>92.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>40.5</c:v>
@@ -399,13 +399,13 @@
                   <c:v>134.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255.5</c:v>
+                  <c:v>249.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>83.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134.5</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>83.5</c:v>
@@ -414,11 +414,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67652992"/>
-        <c:axId val="67675264"/>
+        <c:axId val="92847104"/>
+        <c:axId val="92852992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67652992"/>
+        <c:axId val="92847104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,17 +431,17 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67675264"/>
+        <c:crossAx val="92852992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67675264"/>
+        <c:axId val="92852992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,10 +456,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67652992"/>
+        <c:crossAx val="92847104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -474,7 +474,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -490,7 +490,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -517,7 +517,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -667,7 +667,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -778,7 +778,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.5</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -817,7 +817,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -967,7 +967,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -1072,13 +1072,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1117,7 +1117,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -1247,16 +1247,16 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70598016"/>
-        <c:axId val="70612096"/>
+        <c:axId val="92896256"/>
+        <c:axId val="92914432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70598016"/>
+        <c:axId val="92896256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/mm/dd" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1265,16 +1265,16 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70612096"/>
+        <c:crossAx val="92914432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70612096"/>
+        <c:axId val="92914432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,10 +1289,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70598016"/>
+        <c:crossAx val="92896256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1307,7 +1307,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3115,39 +3115,6 @@
             <v>Helping out with machining</v>
           </cell>
         </row>
-        <row r="94">
-          <cell r="A94">
-            <v>40284</v>
-          </cell>
-          <cell r="B94">
-            <v>1</v>
-          </cell>
-          <cell r="C94" t="str">
-            <v>Looking for enclosure material</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>40285</v>
-          </cell>
-          <cell r="B95">
-            <v>1</v>
-          </cell>
-          <cell r="C95" t="str">
-            <v>PM - Plan of action</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>40285</v>
-          </cell>
-          <cell r="B96">
-            <v>4</v>
-          </cell>
-          <cell r="C96" t="str">
-            <v>Final Report - digrams and writeup</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -4157,7 +4124,7 @@
             <v>40269</v>
           </cell>
           <cell r="B49">
-            <v>4</v>
+            <v>4.5</v>
           </cell>
           <cell r="C49" t="str">
             <v>Machine Shop: Rotating Base cutting and milling</v>
@@ -4168,7 +4135,7 @@
             <v>40274</v>
           </cell>
           <cell r="B50">
-            <v>7</v>
+            <v>7.5</v>
           </cell>
           <cell r="C50" t="str">
             <v>Machine Shop (extended hours): Rotating Base milling</v>
@@ -4179,10 +4146,10 @@
             <v>40275</v>
           </cell>
           <cell r="B51">
-            <v>4</v>
+            <v>4.5</v>
           </cell>
           <cell r="C51" t="str">
-            <v>Machine Shop</v>
+            <v>Machine work, preparation, discussions, cleanup</v>
           </cell>
         </row>
         <row r="52">
@@ -4190,10 +4157,10 @@
             <v>40276</v>
           </cell>
           <cell r="B52">
-            <v>4</v>
+            <v>4.5</v>
           </cell>
           <cell r="C52" t="str">
-            <v>Machine Shop</v>
+            <v>Machine work, preparation, discussions, cleanup</v>
           </cell>
         </row>
         <row r="53">
@@ -4201,10 +4168,10 @@
             <v>40277</v>
           </cell>
           <cell r="B53">
-            <v>4</v>
+            <v>4.5</v>
           </cell>
           <cell r="C53" t="str">
-            <v>Machine Shop</v>
+            <v>Machine work, preparation, discussions, cleanup</v>
           </cell>
         </row>
         <row r="54">
@@ -4212,10 +4179,10 @@
             <v>40280</v>
           </cell>
           <cell r="B54">
-            <v>4</v>
+            <v>4.5</v>
           </cell>
           <cell r="C54" t="str">
-            <v>Machine Shop</v>
+            <v>Machine work, preparation, discussions, cleanup</v>
           </cell>
         </row>
         <row r="55">
@@ -4223,10 +4190,10 @@
             <v>40281</v>
           </cell>
           <cell r="B55">
-            <v>4</v>
+            <v>4.5</v>
           </cell>
           <cell r="C55" t="str">
-            <v>Machine Shop</v>
+            <v>Machine work, preparation, discussions, cleanup</v>
           </cell>
         </row>
         <row r="56">
@@ -4234,10 +4201,10 @@
             <v>40282</v>
           </cell>
           <cell r="B56">
-            <v>4</v>
+            <v>4.5</v>
           </cell>
           <cell r="C56" t="str">
-            <v>Machine Shop</v>
+            <v>Machine work, preparation, discussions, cleanup</v>
           </cell>
         </row>
         <row r="57">
@@ -4245,10 +4212,10 @@
             <v>40283</v>
           </cell>
           <cell r="B57">
-            <v>4</v>
+            <v>4.5</v>
           </cell>
           <cell r="C57" t="str">
-            <v>Machine Shop</v>
+            <v>Machine work, preparation, discussions, cleanup</v>
           </cell>
         </row>
       </sheetData>
@@ -4806,7 +4773,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5096,11 +5063,11 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5138,7 +5105,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>199.5</v>
+        <v>193.5</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
@@ -5146,7 +5113,7 @@
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>255.5</v>
+        <v>249.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5172,7 +5139,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>92.5</v>
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
@@ -5180,10 +5147,10 @@
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>134.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -5200,13 +5167,13 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" thickTop="1">
+    <row r="7" spans="1:4" ht="15.75" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>474.25</v>
+        <v>472.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -5214,7 +5181,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>691.25</v>
+        <v>689.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5223,7 +5190,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>94.85</v>
+        <v>94.55</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
@@ -5231,7 +5198,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>138.25</v>
+        <v>137.94999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5240,15 +5207,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>6.3233333333333333</v>
+        <v>6.363942307692307</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>2.8933333333333331</v>
+        <v>2.921153846153846</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2166666666666668</v>
+        <v>9.2850961538461529</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5261,7 +5228,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>15</v>
+        <v>14.857142857142858</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -5287,18 +5254,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -5506,7 +5473,7 @@
       </c>
       <c r="P3">
         <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;P$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;O$1,davy!$B$2:$B$100)</f>
-        <v>38.5</v>
+        <v>32.5</v>
       </c>
       <c r="Q3">
         <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;Q$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;P$1,davy!$B$2:$B$100)</f>
@@ -5660,15 +5627,15 @@
       </c>
       <c r="N5">
         <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;N$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;M$1,ibrahim!$B$2:$B$100)</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5">
         <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;O$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;N$1,ibrahim!$B$2:$B$100)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P5">
         <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;P$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;O$1,ibrahim!$B$2:$B$100)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q5">
         <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;Q$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;P$1,ibrahim!$B$2:$B$100)</f>
@@ -5782,11 +5749,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7204,10 +7171,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8515,43 +8482,43 @@
     <row r="94" spans="1:3">
       <c r="A94" s="10">
         <f>[2]Sheet1!A94</f>
-        <v>40284</v>
+        <v>0</v>
       </c>
       <c r="B94">
         <f>[2]Sheet1!B94</f>
-        <v>1</v>
-      </c>
-      <c r="C94" t="str">
+        <v>0</v>
+      </c>
+      <c r="C94">
         <f>[2]Sheet1!C94</f>
-        <v>Looking for enclosure material</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="10">
         <f>[2]Sheet1!A95</f>
-        <v>40285</v>
+        <v>0</v>
       </c>
       <c r="B95">
         <f>[2]Sheet1!B95</f>
-        <v>1</v>
-      </c>
-      <c r="C95" t="str">
+        <v>0</v>
+      </c>
+      <c r="C95">
         <f>[2]Sheet1!C95</f>
-        <v>PM - Plan of action</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="10">
         <f>[2]Sheet1!A96</f>
-        <v>40285</v>
+        <v>0</v>
       </c>
       <c r="B96">
         <f>[2]Sheet1!B96</f>
-        <v>4</v>
-      </c>
-      <c r="C96" t="str">
+        <v>0</v>
+      </c>
+      <c r="C96">
         <f>[2]Sheet1!C96</f>
-        <v>Final Report - digrams and writeup</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -8625,10 +8592,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10045,10 +10012,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10730,7 +10697,7 @@
       </c>
       <c r="B49">
         <f>[4]Sheet1!B49</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C49" t="str">
         <f>[4]Sheet1!C49</f>
@@ -10744,7 +10711,7 @@
       </c>
       <c r="B50">
         <f>[4]Sheet1!B50</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C50" t="str">
         <f>[4]Sheet1!C50</f>
@@ -10758,11 +10725,11 @@
       </c>
       <c r="B51">
         <f>[4]Sheet1!B51</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C51" t="str">
         <f>[4]Sheet1!C51</f>
-        <v>Machine Shop</v>
+        <v>Machine work, preparation, discussions, cleanup</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -10772,11 +10739,11 @@
       </c>
       <c r="B52">
         <f>[4]Sheet1!B52</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C52" t="str">
         <f>[4]Sheet1!C52</f>
-        <v>Machine Shop</v>
+        <v>Machine work, preparation, discussions, cleanup</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -10786,11 +10753,11 @@
       </c>
       <c r="B53">
         <f>[4]Sheet1!B53</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C53" t="str">
         <f>[4]Sheet1!C53</f>
-        <v>Machine Shop</v>
+        <v>Machine work, preparation, discussions, cleanup</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -10800,11 +10767,11 @@
       </c>
       <c r="B54">
         <f>[4]Sheet1!B54</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C54" t="str">
         <f>[4]Sheet1!C54</f>
-        <v>Machine Shop</v>
+        <v>Machine work, preparation, discussions, cleanup</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -10814,11 +10781,11 @@
       </c>
       <c r="B55">
         <f>[4]Sheet1!B55</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C55" t="str">
         <f>[4]Sheet1!C55</f>
-        <v>Machine Shop</v>
+        <v>Machine work, preparation, discussions, cleanup</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -10828,11 +10795,11 @@
       </c>
       <c r="B56">
         <f>[4]Sheet1!B56</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C56" t="str">
         <f>[4]Sheet1!C56</f>
-        <v>Machine Shop</v>
+        <v>Machine work, preparation, discussions, cleanup</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -10842,11 +10809,11 @@
       </c>
       <c r="B57">
         <f>[4]Sheet1!B57</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C57" t="str">
         <f>[4]Sheet1!C57</f>
-        <v>Machine Shop</v>
+        <v>Machine work, preparation, discussions, cleanup</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -11465,10 +11432,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -82,23 +82,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="0.0_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -106,7 +106,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -115,7 +115,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -123,7 +123,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -165,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -191,13 +191,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -211,8 +211,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="通貨" xfId="1" builtinId="7"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,7 +221,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -275,7 +275,7 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193.5</c:v>
+                  <c:v>211.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51.25</c:v>
@@ -284,7 +284,7 @@
                   <c:v>92.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,7 +399,7 @@
                   <c:v>134.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249.5</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>83.25</c:v>
@@ -408,17 +408,17 @@
                   <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.5</c:v>
+                  <c:v>136.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92847104"/>
-        <c:axId val="92852992"/>
+        <c:axId val="69492096"/>
+        <c:axId val="69514368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92847104"/>
+        <c:axId val="69492096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,17 +431,17 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92852992"/>
+        <c:crossAx val="69514368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92852992"/>
+        <c:axId val="69514368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,10 +456,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92847104"/>
+        <c:crossAx val="69492096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -474,7 +474,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -482,7 +482,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -490,7 +490,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -517,7 +517,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -667,7 +667,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -778,10 +778,10 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -817,7 +817,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -967,7 +967,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -1117,7 +1117,7 @@
             <c:numRef>
               <c:f>weekly!$B$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>40188</c:v>
@@ -1210,13 +1210,13 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -1225,13 +1225,13 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1247,16 +1247,16 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92896256"/>
-        <c:axId val="92914432"/>
+        <c:axId val="69680512"/>
+        <c:axId val="69694592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92896256"/>
+        <c:axId val="69680512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/mm/dd" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1265,16 +1265,16 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92914432"/>
+        <c:crossAx val="69694592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92914432"/>
+        <c:axId val="69694592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,10 +1289,10 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92896256"/>
+        <c:crossAx val="69680512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1307,7 +1307,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1315,7 +1315,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3115,6 +3115,50 @@
             <v>Helping out with machining</v>
           </cell>
         </row>
+        <row r="94">
+          <cell r="A94">
+            <v>40284</v>
+          </cell>
+          <cell r="B94">
+            <v>1</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>Looking for enclosure material</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>40285</v>
+          </cell>
+          <cell r="B95">
+            <v>1</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>PM - Plan of action</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>40285</v>
+          </cell>
+          <cell r="B96">
+            <v>4</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>Final Report - digrams and writeup</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>40286</v>
+          </cell>
+          <cell r="B97">
+            <v>12</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>Final Report editing, Poster design</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -4659,21 +4703,21 @@
             <v>40241</v>
           </cell>
           <cell r="B39">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="C39" t="str">
-            <v>Motor precision requirements</v>
+            <v>Implant Review</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>40246</v>
+            <v>40241</v>
           </cell>
           <cell r="B40">
-            <v>1.5</v>
+            <v>1</v>
           </cell>
           <cell r="C40" t="str">
-            <v>Group Meeting</v>
+            <v>Motor precision requirements</v>
           </cell>
         </row>
         <row r="41">
@@ -4681,87 +4725,252 @@
             <v>40246</v>
           </cell>
           <cell r="B41">
-            <v>1</v>
+            <v>1.5</v>
           </cell>
           <cell r="C41" t="str">
-            <v>Weekly Meeting</v>
+            <v>Group Meeting</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>40253</v>
+            <v>40246</v>
           </cell>
           <cell r="B42">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="C42" t="str">
-            <v>Group Meeting</v>
+            <v>Weekly Meeting</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>40260</v>
+            <v>40251</v>
           </cell>
           <cell r="B43">
-            <v>2.5</v>
+            <v>4</v>
           </cell>
           <cell r="C43" t="str">
-            <v>Group Meeting</v>
+            <v>Previous documentation review</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>40260</v>
+            <v>40252</v>
           </cell>
           <cell r="B44">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="C44" t="str">
-            <v>Weekly Meeting</v>
+            <v>Final documentation structure</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>40263</v>
+            <v>40253</v>
           </cell>
           <cell r="B45">
-            <v>0.5</v>
+            <v>2</v>
           </cell>
           <cell r="C45" t="str">
-            <v>Skype Meeting</v>
+            <v>Group Meeting</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>40267</v>
+            <v>40255</v>
           </cell>
           <cell r="B46">
-            <v>1.5</v>
+            <v>1</v>
           </cell>
           <cell r="C46" t="str">
-            <v>Group Meeting</v>
+            <v>TAR Review</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>40267</v>
+            <v>40255</v>
           </cell>
           <cell r="B47">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="C47" t="str">
-            <v>Weekly Meeting</v>
+            <v>Rotation gravity compensation spreadsheet for new design</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
+            <v>40260</v>
+          </cell>
+          <cell r="B48">
+            <v>2.5</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>40260</v>
+          </cell>
+          <cell r="B49">
+            <v>1</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>40263</v>
+          </cell>
+          <cell r="B50">
+            <v>0.5</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Skype Meeting</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>40267</v>
+          </cell>
+          <cell r="B51">
+            <v>1.5</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Group Meeting</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>40267</v>
+          </cell>
+          <cell r="B52">
+            <v>1</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Weekly Meeting</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>40273</v>
+          </cell>
+          <cell r="B53">
+            <v>3</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Gravity comp. curves</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>40274</v>
+          </cell>
+          <cell r="B54">
+            <v>6</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Gravity comp write up</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>40274</v>
+          </cell>
+          <cell r="B55">
+            <v>1</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Testing procedure</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>40277</v>
+          </cell>
+          <cell r="B56">
+            <v>4</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Machining</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>40278</v>
+          </cell>
+          <cell r="B57">
+            <v>1</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Testing procedure</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>40280</v>
+          </cell>
+          <cell r="B58">
+            <v>4</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Machining</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>40281</v>
+          </cell>
+          <cell r="B59">
+            <v>4</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Machining</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
             <v>40283</v>
           </cell>
-          <cell r="B48">
+          <cell r="B60">
             <v>4</v>
           </cell>
-          <cell r="C48" t="str">
+          <cell r="C60" t="str">
             <v>Machining</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>40284</v>
+          </cell>
+          <cell r="B61">
+            <v>4</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Final documentation</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>40285</v>
+          </cell>
+          <cell r="B62">
+            <v>12</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Final documentation</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>40286</v>
+          </cell>
+          <cell r="B63">
+            <v>2</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Final documentation</v>
           </cell>
         </row>
       </sheetData>
@@ -4773,7 +4982,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5063,11 +5272,11 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5105,7 +5314,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>193.5</v>
+        <v>211.5</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
@@ -5113,7 +5322,7 @@
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>249.5</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5150,13 +5359,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="14.25" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>40.5</v>
+        <v>93.5</v>
       </c>
       <c r="C6" s="1">
         <f>SUMIF(nicholas!C:C,"*meeting*",nicholas!B:B)</f>
@@ -5164,16 +5373,16 @@
       </c>
       <c r="D6" s="1">
         <f>SUM(nicholas!B:B)</f>
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickTop="1">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" thickTop="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>472.75</v>
+        <v>543.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -5181,7 +5390,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>689.75</v>
+        <v>760.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5190,7 +5399,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>94.55</v>
+        <v>108.75</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
@@ -5198,7 +5407,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>137.94999999999999</v>
+        <v>152.15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5207,15 +5416,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>6.363942307692307</v>
+        <v>7.1816037735849063</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>2.921153846153846</v>
+        <v>2.8660377358490567</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2850961538461529</v>
+        <v>10.047641509433962</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5228,7 +5437,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>14.857142857142858</v>
+        <v>15.142857142857142</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -5254,18 +5463,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -5473,11 +5682,11 @@
       </c>
       <c r="P3">
         <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;P$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;O$1,davy!$B$2:$B$100)</f>
-        <v>32.5</v>
+        <v>50.5</v>
       </c>
       <c r="Q3">
         <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;Q$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;P$1,davy!$B$2:$B$100)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R3">
         <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;R$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;Q$1,davy!$B$2:$B$100)</f>
@@ -5692,15 +5901,15 @@
       </c>
       <c r="J6">
         <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;J$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;I$1,nicholas!$B$2:$B$100)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;K$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;J$1,nicholas!$B$2:$B$100)</f>
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="L6">
         <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;L$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;K$1,nicholas!$B$2:$B$100)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M6">
         <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;M$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;L$1,nicholas!$B$2:$B$100)</f>
@@ -5712,15 +5921,15 @@
       </c>
       <c r="O6">
         <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;O$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;N$1,nicholas!$B$2:$B$100)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P6">
         <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;P$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;O$1,nicholas!$B$2:$B$100)</f>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="Q6">
         <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;Q$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;P$1,nicholas!$B$2:$B$100)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;R$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;Q$1,nicholas!$B$2:$B$100)</f>
@@ -5749,11 +5958,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7171,10 +7380,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8482,57 +8691,57 @@
     <row r="94" spans="1:3">
       <c r="A94" s="10">
         <f>[2]Sheet1!A94</f>
-        <v>0</v>
+        <v>40284</v>
       </c>
       <c r="B94">
         <f>[2]Sheet1!B94</f>
-        <v>0</v>
-      </c>
-      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="str">
         <f>[2]Sheet1!C94</f>
-        <v>0</v>
+        <v>Looking for enclosure material</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="10">
         <f>[2]Sheet1!A95</f>
-        <v>0</v>
+        <v>40285</v>
       </c>
       <c r="B95">
         <f>[2]Sheet1!B95</f>
-        <v>0</v>
-      </c>
-      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="str">
         <f>[2]Sheet1!C95</f>
-        <v>0</v>
+        <v>PM - Plan of action</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="10">
         <f>[2]Sheet1!A96</f>
-        <v>0</v>
+        <v>40285</v>
       </c>
       <c r="B96">
         <f>[2]Sheet1!B96</f>
-        <v>0</v>
-      </c>
-      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="str">
         <f>[2]Sheet1!C96</f>
-        <v>0</v>
+        <v>Final Report - digrams and writeup</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="10">
         <f>[2]Sheet1!A97</f>
-        <v>0</v>
+        <v>40286</v>
       </c>
       <c r="B97">
         <f>[2]Sheet1!B97</f>
-        <v>0</v>
-      </c>
-      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="C97" t="str">
         <f>[2]Sheet1!C97</f>
-        <v>0</v>
+        <v>Final Report editing, Poster design</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8592,10 +8801,10 @@
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10012,10 +10221,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11432,10 +11641,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11977,25 +12186,25 @@
       </c>
       <c r="B39">
         <f>[5]Sheet1!B39</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="str">
         <f>[5]Sheet1!C39</f>
-        <v>Motor precision requirements</v>
+        <v>Implant Review</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="10">
         <f>[5]Sheet1!A40</f>
-        <v>40246</v>
+        <v>40241</v>
       </c>
       <c r="B40">
         <f>[5]Sheet1!B40</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C40" t="str">
         <f>[5]Sheet1!C40</f>
-        <v>Group Meeting</v>
+        <v>Motor precision requirements</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -12005,319 +12214,319 @@
       </c>
       <c r="B41">
         <f>[5]Sheet1!B41</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C41" t="str">
         <f>[5]Sheet1!C41</f>
-        <v>Weekly Meeting</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="10">
         <f>[5]Sheet1!A42</f>
-        <v>40253</v>
+        <v>40246</v>
       </c>
       <c r="B42">
         <f>[5]Sheet1!B42</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="str">
         <f>[5]Sheet1!C42</f>
-        <v>Group Meeting</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="10">
         <f>[5]Sheet1!A43</f>
-        <v>40260</v>
+        <v>40251</v>
       </c>
       <c r="B43">
         <f>[5]Sheet1!B43</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="str">
         <f>[5]Sheet1!C43</f>
-        <v>Group Meeting</v>
+        <v>Previous documentation review</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="10">
         <f>[5]Sheet1!A44</f>
-        <v>40260</v>
+        <v>40252</v>
       </c>
       <c r="B44">
         <f>[5]Sheet1!B44</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="str">
         <f>[5]Sheet1!C44</f>
-        <v>Weekly Meeting</v>
+        <v>Final documentation structure</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="10">
         <f>[5]Sheet1!A45</f>
-        <v>40263</v>
+        <v>40253</v>
       </c>
       <c r="B45">
         <f>[5]Sheet1!B45</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C45" t="str">
         <f>[5]Sheet1!C45</f>
-        <v>Skype Meeting</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="10">
         <f>[5]Sheet1!A46</f>
-        <v>40267</v>
+        <v>40255</v>
       </c>
       <c r="B46">
         <f>[5]Sheet1!B46</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C46" t="str">
         <f>[5]Sheet1!C46</f>
-        <v>Group Meeting</v>
+        <v>TAR Review</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="10">
         <f>[5]Sheet1!A47</f>
-        <v>40267</v>
+        <v>40255</v>
       </c>
       <c r="B47">
         <f>[5]Sheet1!B47</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" t="str">
         <f>[5]Sheet1!C47</f>
-        <v>Weekly Meeting</v>
+        <v>Rotation gravity compensation spreadsheet for new design</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="10">
         <f>[5]Sheet1!A48</f>
-        <v>40283</v>
+        <v>40260</v>
       </c>
       <c r="B48">
         <f>[5]Sheet1!B48</f>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="C48" t="str">
         <f>[5]Sheet1!C48</f>
-        <v>Machining</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="10">
         <f>[5]Sheet1!A49</f>
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="B49">
         <f>[5]Sheet1!B49</f>
-        <v>0</v>
-      </c>
-      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
         <f>[5]Sheet1!C49</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="10">
         <f>[5]Sheet1!A50</f>
-        <v>0</v>
+        <v>40263</v>
       </c>
       <c r="B50">
         <f>[5]Sheet1!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C50">
+        <v>0.5</v>
+      </c>
+      <c r="C50" t="str">
         <f>[5]Sheet1!C50</f>
-        <v>0</v>
+        <v>Skype Meeting</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="10">
         <f>[5]Sheet1!A51</f>
-        <v>0</v>
+        <v>40267</v>
       </c>
       <c r="B51">
         <f>[5]Sheet1!B51</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
+        <v>1.5</v>
+      </c>
+      <c r="C51" t="str">
         <f>[5]Sheet1!C51</f>
-        <v>0</v>
+        <v>Group Meeting</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="10">
         <f>[5]Sheet1!A52</f>
-        <v>0</v>
+        <v>40267</v>
       </c>
       <c r="B52">
         <f>[5]Sheet1!B52</f>
-        <v>0</v>
-      </c>
-      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="str">
         <f>[5]Sheet1!C52</f>
-        <v>0</v>
+        <v>Weekly Meeting</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="10">
         <f>[5]Sheet1!A53</f>
-        <v>0</v>
+        <v>40273</v>
       </c>
       <c r="B53">
         <f>[5]Sheet1!B53</f>
-        <v>0</v>
-      </c>
-      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="str">
         <f>[5]Sheet1!C53</f>
-        <v>0</v>
+        <v>Gravity comp. curves</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="10">
         <f>[5]Sheet1!A54</f>
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="B54">
         <f>[5]Sheet1!B54</f>
-        <v>0</v>
-      </c>
-      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="C54" t="str">
         <f>[5]Sheet1!C54</f>
-        <v>0</v>
+        <v>Gravity comp write up</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="10">
         <f>[5]Sheet1!A55</f>
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="B55">
         <f>[5]Sheet1!B55</f>
-        <v>0</v>
-      </c>
-      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="str">
         <f>[5]Sheet1!C55</f>
-        <v>0</v>
+        <v>Testing procedure</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="10">
         <f>[5]Sheet1!A56</f>
-        <v>0</v>
+        <v>40277</v>
       </c>
       <c r="B56">
         <f>[5]Sheet1!B56</f>
-        <v>0</v>
-      </c>
-      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="str">
         <f>[5]Sheet1!C56</f>
-        <v>0</v>
+        <v>Machining</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="10">
         <f>[5]Sheet1!A57</f>
-        <v>0</v>
+        <v>40278</v>
       </c>
       <c r="B57">
         <f>[5]Sheet1!B57</f>
-        <v>0</v>
-      </c>
-      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="str">
         <f>[5]Sheet1!C57</f>
-        <v>0</v>
+        <v>Testing procedure</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="10">
         <f>[5]Sheet1!A58</f>
-        <v>0</v>
+        <v>40280</v>
       </c>
       <c r="B58">
         <f>[5]Sheet1!B58</f>
-        <v>0</v>
-      </c>
-      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="str">
         <f>[5]Sheet1!C58</f>
-        <v>0</v>
+        <v>Machining</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="10">
         <f>[5]Sheet1!A59</f>
-        <v>0</v>
+        <v>40281</v>
       </c>
       <c r="B59">
         <f>[5]Sheet1!B59</f>
-        <v>0</v>
-      </c>
-      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="str">
         <f>[5]Sheet1!C59</f>
-        <v>0</v>
+        <v>Machining</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="10">
         <f>[5]Sheet1!A60</f>
-        <v>0</v>
+        <v>40283</v>
       </c>
       <c r="B60">
         <f>[5]Sheet1!B60</f>
-        <v>0</v>
-      </c>
-      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="str">
         <f>[5]Sheet1!C60</f>
-        <v>0</v>
+        <v>Machining</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="10">
         <f>[5]Sheet1!A61</f>
-        <v>0</v>
+        <v>40284</v>
       </c>
       <c r="B61">
         <f>[5]Sheet1!B61</f>
-        <v>0</v>
-      </c>
-      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="str">
         <f>[5]Sheet1!C61</f>
-        <v>0</v>
+        <v>Final documentation</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="10">
         <f>[5]Sheet1!A62</f>
-        <v>0</v>
+        <v>40285</v>
       </c>
       <c r="B62">
         <f>[5]Sheet1!B62</f>
-        <v>0</v>
-      </c>
-      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="C62" t="str">
         <f>[5]Sheet1!C62</f>
-        <v>0</v>
+        <v>Final documentation</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="10">
         <f>[5]Sheet1!A63</f>
-        <v>0</v>
+        <v>40286</v>
       </c>
       <c r="B63">
         <f>[5]Sheet1!B63</f>
-        <v>0</v>
-      </c>
-      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="str">
         <f>[5]Sheet1!C63</f>
-        <v>0</v>
+        <v>Final documentation</v>
       </c>
     </row>
     <row r="64" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -272,19 +272,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.5</c:v>
+                  <c:v>238.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.25</c:v>
+                  <c:v>68.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.5</c:v>
+                  <c:v>123.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.5</c:v>
+                  <c:v>112.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,29 +396,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>134.5</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>267.5</c:v>
+                  <c:v>294.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.25</c:v>
+                  <c:v>100.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136.5</c:v>
+                  <c:v>155.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69492096"/>
-        <c:axId val="69514368"/>
+        <c:axId val="141058432"/>
+        <c:axId val="141059968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69492096"/>
+        <c:axId val="141058432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,14 +434,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69514368"/>
+        <c:crossAx val="141059968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69514368"/>
+        <c:axId val="141059968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +459,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69492096"/>
+        <c:crossAx val="141058432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -482,7 +482,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -628,10 +628,10 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -781,7 +781,7 @@
                   <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -931,7 +931,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1078,10 +1078,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1228,10 +1228,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1247,11 +1247,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69680512"/>
-        <c:axId val="69694592"/>
+        <c:axId val="140874112"/>
+        <c:axId val="140875648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69680512"/>
+        <c:axId val="140874112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,13 +1268,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69694592"/>
+        <c:crossAx val="140875648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69694592"/>
+        <c:axId val="140875648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1292,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69680512"/>
+        <c:crossAx val="140874112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1315,7 +1315,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2057,22 +2057,70 @@
           </cell>
         </row>
         <row r="61">
-          <cell r="A61"/>
+          <cell r="A61">
+            <v>40284</v>
+          </cell>
+          <cell r="B61">
+            <v>16</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Machining</v>
+          </cell>
         </row>
         <row r="62">
-          <cell r="A62"/>
+          <cell r="A62">
+            <v>40285</v>
+          </cell>
+          <cell r="B62">
+            <v>3</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Final Report - Drawings and writeup</v>
+          </cell>
         </row>
         <row r="63">
-          <cell r="A63"/>
+          <cell r="A63">
+            <v>40287</v>
+          </cell>
+          <cell r="B63">
+            <v>4</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Machining</v>
+          </cell>
         </row>
         <row r="64">
-          <cell r="A64"/>
+          <cell r="A64">
+            <v>40288</v>
+          </cell>
+          <cell r="B64">
+            <v>2</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Machining</v>
+          </cell>
         </row>
         <row r="65">
-          <cell r="A65"/>
+          <cell r="A65">
+            <v>40289</v>
+          </cell>
+          <cell r="B65">
+            <v>5</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Machining</v>
+          </cell>
         </row>
         <row r="66">
-          <cell r="A66"/>
+          <cell r="A66">
+            <v>40290</v>
+          </cell>
+          <cell r="B66">
+            <v>8</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Assembly</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -3159,6 +3207,39 @@
             <v>Final Report editing, Poster design</v>
           </cell>
         </row>
+        <row r="98">
+          <cell r="A98">
+            <v>40287</v>
+          </cell>
+          <cell r="B98">
+            <v>10</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>Soldering/making cables, searching for plexiglass supplier</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>40288</v>
+          </cell>
+          <cell r="B99">
+            <v>9</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>Ordering enclosure parts and interface motor</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>40289</v>
+          </cell>
+          <cell r="B100">
+            <v>8</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>Final debug and assembly</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -3617,6 +3698,39 @@
             <v>Pair Programming Hard Constraint</v>
           </cell>
         </row>
+        <row r="41">
+          <cell r="A41">
+            <v>40287</v>
+          </cell>
+          <cell r="B41">
+            <v>2</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Final Report Editing</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>40288</v>
+          </cell>
+          <cell r="B42">
+            <v>3</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Poster writeup</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>40289</v>
+          </cell>
+          <cell r="B43">
+            <v>12</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Poster and presentation</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -4262,6 +4376,61 @@
             <v>Machine work, preparation, discussions, cleanup</v>
           </cell>
         </row>
+        <row r="58">
+          <cell r="A58">
+            <v>40284</v>
+          </cell>
+          <cell r="B58">
+            <v>4.5</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Machine work, preparation, discussions, cleanup</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>40286</v>
+          </cell>
+          <cell r="B59">
+            <v>8</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Final Report writeup</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>40287</v>
+          </cell>
+          <cell r="B60">
+            <v>4.5</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Machine work, preparation, discussions, cleanup</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>40288</v>
+          </cell>
+          <cell r="B61">
+            <v>2</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Machine work, preparation, discussions, cleanup</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>40289</v>
+          </cell>
+          <cell r="B62">
+            <v>12</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Machine work, assembly, poster</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -4942,21 +5111,21 @@
         </row>
         <row r="61">
           <cell r="A61">
-            <v>40284</v>
+            <v>40285</v>
           </cell>
           <cell r="B61">
             <v>4</v>
           </cell>
           <cell r="C61" t="str">
-            <v>Final documentation</v>
+            <v>Machining</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>40285</v>
+            <v>40284</v>
           </cell>
           <cell r="B62">
-            <v>12</v>
+            <v>4</v>
           </cell>
           <cell r="C62" t="str">
             <v>Final documentation</v>
@@ -4964,13 +5133,57 @@
         </row>
         <row r="63">
           <cell r="A63">
-            <v>40286</v>
+            <v>40285</v>
           </cell>
           <cell r="B63">
-            <v>2</v>
+            <v>12</v>
           </cell>
           <cell r="C63" t="str">
             <v>Final documentation</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>40286</v>
+          </cell>
+          <cell r="B64">
+            <v>2</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Final documentation</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>40287</v>
+          </cell>
+          <cell r="B65">
+            <v>5</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Final Report Editing</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>40288</v>
+          </cell>
+          <cell r="B66">
+            <v>2</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Machining</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>40289</v>
+          </cell>
+          <cell r="B67">
+            <v>8</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Maching, assembly</v>
           </cell>
         </row>
       </sheetData>
@@ -5297,7 +5510,7 @@
       </c>
       <c r="B2">
         <f>D2-C2</f>
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C2">
         <f>SUMIF(david!C:C,"*meeting*",david!B:B)</f>
@@ -5305,7 +5518,7 @@
       </c>
       <c r="D2">
         <f>SUM(david!B:B)</f>
-        <v>134.5</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5314,7 +5527,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" si="0">D3-C3</f>
-        <v>211.5</v>
+        <v>238.5</v>
       </c>
       <c r="C3">
         <f>SUMIF(davy!C:C,"*meeting*",davy!B:B)-SUMIF(davy!C:C,"*meeting preparation*",davy!B:B)</f>
@@ -5322,7 +5535,7 @@
       </c>
       <c r="D3">
         <f>SUM(davy!B:B)</f>
-        <v>267.5</v>
+        <v>294.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5331,7 +5544,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>51.25</v>
+        <v>68.25</v>
       </c>
       <c r="C4">
         <f>SUMIF(erica!C:C,"*meeting*",erica!B:B)</f>
@@ -5339,7 +5552,7 @@
       </c>
       <c r="D4">
         <f>SUM(erica!B:B)</f>
-        <v>83.25</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5348,7 +5561,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>123.5</v>
       </c>
       <c r="C5">
         <f>SUMIF(ibrahim!C:C,"*meeting*",ibrahim!B:B)</f>
@@ -5356,7 +5569,7 @@
       </c>
       <c r="D5">
         <f>SUM(ibrahim!B:B)</f>
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" thickBot="1">
@@ -5365,7 +5578,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>112.5</v>
       </c>
       <c r="C6" s="1">
         <f>SUMIF(nicholas!C:C,"*meeting*",nicholas!B:B)</f>
@@ -5373,7 +5586,7 @@
       </c>
       <c r="D6" s="1">
         <f>SUM(nicholas!B:B)</f>
-        <v>136.5</v>
+        <v>155.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1">
@@ -5382,7 +5595,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
-        <v>543.75</v>
+        <v>675.75</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -5390,7 +5603,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>760.75</v>
+        <v>892.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5399,7 +5612,7 @@
       </c>
       <c r="B8">
         <f>B7/5</f>
-        <v>108.75</v>
+        <v>135.15</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:D8" si="2">C7/5</f>
@@ -5407,7 +5620,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>152.15</v>
+        <v>178.55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5416,15 +5629,15 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">B8/$B$11</f>
-        <v>7.1816037735849063</v>
+        <v>8.6793577981651389</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>2.8660377358490567</v>
+        <v>2.7871559633027521</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>10.047641509433962</v>
+        <v>11.46651376146789</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5437,7 +5650,7 @@
       </c>
       <c r="B11" s="9">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>15.142857142857142</v>
+        <v>15.571428571428571</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -5601,11 +5814,11 @@
       </c>
       <c r="P2">
         <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;P1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;O1,david!$B$2:$B$100)</f>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="Q2">
         <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;Q1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;P1,david!$B$2:$B$100)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R2">
         <f>SUMIF(david!$A$2:$A$100,"&lt;="&amp;R1,david!$B$2:$B$100)-SUMIF(david!$A$2:$A$100,"&lt;"&amp;Q1,david!$B$2:$B$100)</f>
@@ -5686,7 +5899,7 @@
       </c>
       <c r="Q3">
         <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;Q$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;P$1,davy!$B$2:$B$100)</f>
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="R3">
         <f>SUMIF(davy!$A$2:$A$100,"&lt;="&amp;R$1,davy!$B$2:$B$100)-SUMIF(davy!$A$2:$A$100,"&lt;"&amp;Q$1,davy!$B$2:$B$100)</f>
@@ -5767,7 +5980,7 @@
       </c>
       <c r="Q4">
         <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;Q$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;P$1,erica!$B$2:$B$100)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R4">
         <f>SUMIF(erica!$A$2:$A$100,"&lt;="&amp;R$1,erica!$B$2:$B$100)-SUMIF(erica!$A$2:$A$100,"&lt;"&amp;Q$1,erica!$B$2:$B$100)</f>
@@ -5844,11 +6057,11 @@
       </c>
       <c r="P5">
         <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;P$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;O$1,ibrahim!$B$2:$B$100)</f>
-        <v>18</v>
+        <v>30.5</v>
       </c>
       <c r="Q5">
         <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;Q$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;P$1,ibrahim!$B$2:$B$100)</f>
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="R5">
         <f>SUMIF(ibrahim!$A$2:$A$100,"&lt;="&amp;R$1,ibrahim!$B$2:$B$100)-SUMIF(ibrahim!$A$2:$A$100,"&lt;"&amp;Q$1,ibrahim!$B$2:$B$100)</f>
@@ -5925,11 +6138,11 @@
       </c>
       <c r="P6">
         <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;P$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;O$1,nicholas!$B$2:$B$100)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q6">
         <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;Q$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;P$1,nicholas!$B$2:$B$100)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="R6">
         <f>SUMIF(nicholas!$A$2:$A$100,"&lt;="&amp;R$1,nicholas!$B$2:$B$100)-SUMIF(nicholas!$A$2:$A$100,"&lt;"&amp;Q$1,nicholas!$B$2:$B$100)</f>
@@ -6808,85 +7021,85 @@
     <row r="61" spans="1:3">
       <c r="A61" s="10">
         <f>[1]Sheet1!A61</f>
-        <v>0</v>
+        <v>40284</v>
       </c>
       <c r="B61">
         <f>[1]Sheet1!B61</f>
-        <v>0</v>
-      </c>
-      <c r="C61">
+        <v>16</v>
+      </c>
+      <c r="C61" t="str">
         <f>[1]Sheet1!C61</f>
-        <v>0</v>
+        <v>Machining</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="10">
         <f>[1]Sheet1!A62</f>
-        <v>0</v>
+        <v>40285</v>
       </c>
       <c r="B62">
         <f>[1]Sheet1!B62</f>
-        <v>0</v>
-      </c>
-      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="str">
         <f>[1]Sheet1!C62</f>
-        <v>0</v>
+        <v>Final Report - Drawings and writeup</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="10">
         <f>[1]Sheet1!A63</f>
-        <v>0</v>
+        <v>40287</v>
       </c>
       <c r="B63">
         <f>[1]Sheet1!B63</f>
-        <v>0</v>
-      </c>
-      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="str">
         <f>[1]Sheet1!C63</f>
-        <v>0</v>
+        <v>Machining</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="10">
         <f>[1]Sheet1!A64</f>
-        <v>0</v>
+        <v>40288</v>
       </c>
       <c r="B64">
         <f>[1]Sheet1!B64</f>
-        <v>0</v>
-      </c>
-      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="str">
         <f>[1]Sheet1!C64</f>
-        <v>0</v>
+        <v>Machining</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="10">
         <f>[1]Sheet1!A65</f>
-        <v>0</v>
+        <v>40289</v>
       </c>
       <c r="B65">
         <f>[1]Sheet1!B65</f>
-        <v>0</v>
-      </c>
-      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="str">
         <f>[1]Sheet1!C65</f>
-        <v>0</v>
+        <v>Machining</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="10">
         <f>[1]Sheet1!A66</f>
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="B66">
         <f>[1]Sheet1!B66</f>
-        <v>0</v>
-      </c>
-      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="C66" t="str">
         <f>[1]Sheet1!C66</f>
-        <v>0</v>
+        <v>Assembly</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8747,43 +8960,43 @@
     <row r="98" spans="1:3">
       <c r="A98" s="10">
         <f>[2]Sheet1!A98</f>
-        <v>0</v>
+        <v>40287</v>
       </c>
       <c r="B98">
         <f>[2]Sheet1!B98</f>
-        <v>0</v>
-      </c>
-      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="C98" t="str">
         <f>[2]Sheet1!C98</f>
-        <v>0</v>
+        <v>Soldering/making cables, searching for plexiglass supplier</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="10">
         <f>[2]Sheet1!A99</f>
-        <v>0</v>
+        <v>40288</v>
       </c>
       <c r="B99">
         <f>[2]Sheet1!B99</f>
-        <v>0</v>
-      </c>
-      <c r="C99">
+        <v>9</v>
+      </c>
+      <c r="C99" t="str">
         <f>[2]Sheet1!C99</f>
-        <v>0</v>
+        <v>Ordering enclosure parts and interface motor</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="10">
         <f>[2]Sheet1!A100</f>
-        <v>0</v>
+        <v>40289</v>
       </c>
       <c r="B100">
         <f>[2]Sheet1!B100</f>
-        <v>0</v>
-      </c>
-      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="C100" t="str">
         <f>[2]Sheet1!C100</f>
-        <v>0</v>
+        <v>Final debug and assembly</v>
       </c>
     </row>
   </sheetData>
@@ -9370,43 +9583,43 @@
     <row r="41" spans="1:3">
       <c r="A41" s="10">
         <f>[3]Sheet1!A41</f>
-        <v>0</v>
+        <v>40287</v>
       </c>
       <c r="B41">
         <f>[3]Sheet1!B41</f>
-        <v>0</v>
-      </c>
-      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="str">
         <f>[3]Sheet1!C41</f>
-        <v>0</v>
+        <v>Final Report Editing</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="10">
         <f>[3]Sheet1!A42</f>
-        <v>0</v>
+        <v>40288</v>
       </c>
       <c r="B42">
         <f>[3]Sheet1!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="str">
         <f>[3]Sheet1!C42</f>
-        <v>0</v>
+        <v>Poster writeup</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="10">
         <f>[3]Sheet1!A43</f>
-        <v>0</v>
+        <v>40289</v>
       </c>
       <c r="B43">
         <f>[3]Sheet1!B43</f>
-        <v>0</v>
-      </c>
-      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="C43" t="str">
         <f>[3]Sheet1!C43</f>
-        <v>0</v>
+        <v>Poster and presentation</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -11028,71 +11241,71 @@
     <row r="58" spans="1:3">
       <c r="A58" s="10">
         <f>[4]Sheet1!A58</f>
-        <v>0</v>
+        <v>40284</v>
       </c>
       <c r="B58">
         <f>[4]Sheet1!B58</f>
-        <v>0</v>
-      </c>
-      <c r="C58">
+        <v>4.5</v>
+      </c>
+      <c r="C58" t="str">
         <f>[4]Sheet1!C58</f>
-        <v>0</v>
+        <v>Machine work, preparation, discussions, cleanup</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="10">
         <f>[4]Sheet1!A59</f>
-        <v>0</v>
+        <v>40286</v>
       </c>
       <c r="B59">
         <f>[4]Sheet1!B59</f>
-        <v>0</v>
-      </c>
-      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="C59" t="str">
         <f>[4]Sheet1!C59</f>
-        <v>0</v>
+        <v>Final Report writeup</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="10">
         <f>[4]Sheet1!A60</f>
-        <v>0</v>
+        <v>40287</v>
       </c>
       <c r="B60">
         <f>[4]Sheet1!B60</f>
-        <v>0</v>
-      </c>
-      <c r="C60">
+        <v>4.5</v>
+      </c>
+      <c r="C60" t="str">
         <f>[4]Sheet1!C60</f>
-        <v>0</v>
+        <v>Machine work, preparation, discussions, cleanup</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="10">
         <f>[4]Sheet1!A61</f>
-        <v>0</v>
+        <v>40288</v>
       </c>
       <c r="B61">
         <f>[4]Sheet1!B61</f>
-        <v>0</v>
-      </c>
-      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="str">
         <f>[4]Sheet1!C61</f>
-        <v>0</v>
+        <v>Machine work, preparation, discussions, cleanup</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="10">
         <f>[4]Sheet1!A62</f>
-        <v>0</v>
+        <v>40289</v>
       </c>
       <c r="B62">
         <f>[4]Sheet1!B62</f>
-        <v>0</v>
-      </c>
-      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="C62" t="str">
         <f>[4]Sheet1!C62</f>
-        <v>0</v>
+        <v>Machine work, assembly, poster</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -12490,7 +12703,7 @@
     <row r="61" spans="1:3">
       <c r="A61" s="10">
         <f>[5]Sheet1!A61</f>
-        <v>40284</v>
+        <v>40285</v>
       </c>
       <c r="B61">
         <f>[5]Sheet1!B61</f>
@@ -12498,17 +12711,17 @@
       </c>
       <c r="C61" t="str">
         <f>[5]Sheet1!C61</f>
-        <v>Final documentation</v>
+        <v>Machining</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="10">
         <f>[5]Sheet1!A62</f>
-        <v>40285</v>
+        <v>40284</v>
       </c>
       <c r="B62">
         <f>[5]Sheet1!B62</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C62" t="str">
         <f>[5]Sheet1!C62</f>
@@ -12518,11 +12731,11 @@
     <row r="63" spans="1:3">
       <c r="A63" s="10">
         <f>[5]Sheet1!A63</f>
-        <v>40286</v>
+        <v>40285</v>
       </c>
       <c r="B63">
         <f>[5]Sheet1!B63</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C63" t="str">
         <f>[5]Sheet1!C63</f>
@@ -12532,57 +12745,57 @@
     <row r="64" spans="1:3">
       <c r="A64" s="10">
         <f>[5]Sheet1!A64</f>
-        <v>0</v>
+        <v>40286</v>
       </c>
       <c r="B64">
         <f>[5]Sheet1!B64</f>
-        <v>0</v>
-      </c>
-      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="str">
         <f>[5]Sheet1!C64</f>
-        <v>0</v>
+        <v>Final documentation</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="10">
         <f>[5]Sheet1!A65</f>
-        <v>0</v>
+        <v>40287</v>
       </c>
       <c r="B65">
         <f>[5]Sheet1!B65</f>
-        <v>0</v>
-      </c>
-      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="str">
         <f>[5]Sheet1!C65</f>
-        <v>0</v>
+        <v>Final Report Editing</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="10">
         <f>[5]Sheet1!A66</f>
-        <v>0</v>
+        <v>40288</v>
       </c>
       <c r="B66">
         <f>[5]Sheet1!B66</f>
-        <v>0</v>
-      </c>
-      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="str">
         <f>[5]Sheet1!C66</f>
-        <v>0</v>
+        <v>Machining</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="10">
         <f>[5]Sheet1!A67</f>
-        <v>0</v>
+        <v>40289</v>
       </c>
       <c r="B67">
         <f>[5]Sheet1!B67</f>
-        <v>0</v>
-      </c>
-      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="C67" t="str">
         <f>[5]Sheet1!C67</f>
-        <v>0</v>
+        <v>Maching, assembly</v>
       </c>
     </row>
     <row r="68" spans="1:3">

--- a/status reports/overall hours report.xlsx
+++ b/status reports/overall hours report.xlsx
@@ -414,11 +414,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141058432"/>
-        <c:axId val="141059968"/>
+        <c:axId val="67197952"/>
+        <c:axId val="67224320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141058432"/>
+        <c:axId val="67197952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,14 +434,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141059968"/>
+        <c:crossAx val="67224320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141059968"/>
+        <c:axId val="67224320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +459,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141058432"/>
+        <c:crossAx val="67197952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -482,7 +482,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1247,11 +1247,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140874112"/>
-        <c:axId val="140875648"/>
+        <c:axId val="67525632"/>
+        <c:axId val="67539712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="140874112"/>
+        <c:axId val="67525632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,13 +1268,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140875648"/>
+        <c:crossAx val="67539712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="140875648"/>
+        <c:axId val="67539712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1292,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140874112"/>
+        <c:crossAx val="67525632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1315,7 +1315,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5482,7 +5482,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5628,16 +5628,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="8">
-        <f ca="1">B8/$B$11</f>
-        <v>8.6793577981651389</v>
+        <f>B8/$B$11</f>
+        <v>9.01</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:D9" ca="1" si="3">C8/$B$11</f>
-        <v>2.7871559633027521</v>
+        <f t="shared" ref="C9:D9" si="3">C8/$B$11</f>
+        <v>2.8933333333333331</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.46651376146789</v>
+        <f t="shared" si="3"/>
+        <v>11.903333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5649,10 +5649,12 @@
         <v>11</v>
       </c>
       <c r="B11" s="9">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
         <f ca="1">(TODAY()-DATE(2010,1,4))/7</f>
-        <v>15.571428571428571</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>17.571428571428573</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="6"/>
